--- a/PJ/MoneyLife/Docment/QAシート_Ver1.3.xlsx
+++ b/PJ/MoneyLife/Docment/QAシート_Ver1.3.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\horo\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\TempUserProfiles\NetworkService\AppData\OICE_16_974FA576_32C1D314_29B1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="5" documentId="13_ncr:1_{EDCA70EB-A669-4AB5-8778-B9A88E9EDE8F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{F74BA3FA-ED3F-4E8F-BFBC-DA02E8F4E1A4}"/>
+  <xr:revisionPtr revIDLastSave="60" documentId="8_{7A58D747-C2F8-4938-9905-E3747B775A87}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{7944F5EB-0DCC-4201-9E21-B717018FA7B5}"/>
   <bookViews>
-    <workbookView xWindow="20280" yWindow="5025" windowWidth="29040" windowHeight="15840" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="15600" windowHeight="11760" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="更新履歴" sheetId="2" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="300" uniqueCount="138">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="396" uniqueCount="170">
   <si>
     <t>更新履歴</t>
     <rPh sb="0" eb="2">
@@ -572,15 +572,9 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>画面（目標金額）</t>
-    <rPh sb="0" eb="2">
-      <t>ガメン</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>モクヒョウ</t>
-    </rPh>
-    <rPh sb="5" eb="7">
-      <t>キンガク</t>
+    <t>画面（詳細設定）</t>
+    <rPh sb="0" eb="2">
+      <t>ガメン</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -654,64 +648,9 @@
   </si>
   <si>
     <t>目標金額設定画面（仮）にある当月残高、当月支出、当月収入欄ですが、これは当月のそれぞれの表示のみで宜しいですか？（もしくは先月や来月も考慮する画面ですか？）</t>
-    <rPh sb="0" eb="2">
-      <t>モクヒョウ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>キンガク</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>セッテイ</t>
-    </rPh>
-    <rPh sb="6" eb="8">
-      <t>ガメン</t>
-    </rPh>
-    <rPh sb="9" eb="10">
-      <t>カリ</t>
-    </rPh>
-    <rPh sb="14" eb="16">
-      <t>トウゲツ</t>
-    </rPh>
-    <rPh sb="16" eb="18">
-      <t>ザンダカ</t>
-    </rPh>
-    <rPh sb="19" eb="21">
-      <t>トウゲツ</t>
-    </rPh>
-    <rPh sb="21" eb="23">
-      <t>シシュツ</t>
-    </rPh>
-    <rPh sb="24" eb="26">
-      <t>トウゲツ</t>
-    </rPh>
-    <rPh sb="26" eb="28">
-      <t>シュウニュウ</t>
-    </rPh>
-    <rPh sb="28" eb="29">
-      <t>ラン</t>
-    </rPh>
-    <rPh sb="36" eb="38">
-      <t>トウゲツ</t>
-    </rPh>
-    <rPh sb="44" eb="46">
-      <t>ヒョウジ</t>
-    </rPh>
-    <rPh sb="49" eb="50">
-      <t>ヨロ</t>
-    </rPh>
-    <rPh sb="61" eb="63">
-      <t>センゲツ</t>
-    </rPh>
-    <rPh sb="64" eb="66">
-      <t>ライゲツ</t>
-    </rPh>
-    <rPh sb="67" eb="69">
-      <t>コウリョ</t>
-    </rPh>
-    <rPh sb="71" eb="73">
-      <t>ガメン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>金</t>
   </si>
   <si>
     <t>当月のみを想定しております。
@@ -756,6 +695,9 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
+    <t>関連：No47</t>
+  </si>
+  <si>
     <t>岡田</t>
     <rPh sb="0" eb="2">
       <t>オカダ</t>
@@ -861,16 +803,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>画面（目標金額）</t>
-    <rPh sb="0" eb="2">
-      <t>ガメン</t>
-    </rPh>
-    <rPh sb="3" eb="7">
-      <t>モクヒョウキンガク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>目標金額設定画面（仮）の金額末尾にあるハイフン（ー）について、必要な表示として捉えて良いですか？（￥マークとカンマ（，）については必要だろうと捉えています）</t>
     <rPh sb="0" eb="2">
       <t>モクヒョウ</t>
@@ -912,9 +844,6 @@
       <t>トラ</t>
     </rPh>
     <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>金</t>
   </si>
   <si>
     <t>ハイフン(―)については
@@ -932,6 +861,9 @@
       <t>イタ</t>
     </rPh>
     <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>関連：No45</t>
   </si>
   <si>
     <t>設計（機能概要）</t>
@@ -3006,6 +2938,177 @@
 S_x0002__x000D_S_x0002__x0010_W_x0001__x0013_W_x0001__x0016_W_x0001__x0019_W_x0001_</t>
     </rPh>
     <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>コメント欄ですがテーブル定義書_ver1.3.xlsのコメントの桁数は60バイト（30文字）ですが、家計簿案_0820版_ver4.xlsと詳細設計書には50文字（100バイト？）の記載があります。
+正しい文字数がどちらかで、片方の資料の修正お願いします。</t>
+  </si>
+  <si>
+    <t>60バイト（30文字）に統一いたしました。</t>
+    <rPh sb="12" eb="14">
+      <t>トウイテゥ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>”タグ欄にタグ名称を入力することで新規登録が可能”とのことですが、画面イメージではタグ入力をどこでするのかがわかりませんので、タグ入力を考慮した画面イメージ図もほしいです。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>イメージ図を追加いたしました。</t>
+    <rPh sb="6" eb="8">
+      <t>ツイカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>登録できるタグ数（タグマスタデータに登録できる件数）は20件とします。</t>
+    <rPh sb="0" eb="2">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>スウ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="29" eb="30">
+      <t xml:space="preserve">ケン </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>画面（検索）</t>
+  </si>
+  <si>
+    <t>家計簿案_0820版_ver4.xlsxの機能概要（２）シートE35の検索画面の日付の初期化について、初期画面から起動した場合は日付は今日の日付になるとのことですが、これは他の画面（一覧、支出概要、詳細設定）から起動した場合でも同様と考えて良かったですか？</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>中</t>
+  </si>
+  <si>
+    <t>一覧、支出概要、詳細設定）から起動した場合でも同様と考えていただいて良いです。</t>
+    <rPh sb="34" eb="35">
+      <t>ヨイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>検索画面の日付で、１０年以上前の日付を選択しようとした際、挙動としてはどのようになるか教えて頂けないでしょうか？</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>１０年以上前の日付を選択は不可とします。
+なお、選択しようとした場合は強制的に現在の日時にリセットします。</t>
+    <rPh sb="35" eb="38">
+      <t>キョウセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>データの保存期間がMAX１０年との仕様ですが、登録画面で１０年前以上のデータを登録しようとした際、挙動としてはどうなりますか？</t>
+  </si>
+  <si>
+    <t>NO,42と同様。</t>
+    <rPh sb="6" eb="8">
+      <t>ドウヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>１０年以上前のデータを参照しようとした際、一覧画面の支出合計の上にある押下可能部分 ＜（過去） は、グレーアウトするイメージですか？（支出概要の画面でも同様ですか？）</t>
+  </si>
+  <si>
+    <t>ご認識の通り、グレーアウトします。
+（一覧画面、支出概要画面）</t>
+    <rPh sb="4" eb="5">
+      <t>トオリ</t>
+    </rPh>
+    <rPh sb="19" eb="23">
+      <t>イティ</t>
+    </rPh>
+    <rPh sb="24" eb="28">
+      <t>シシュテゥ</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>ガメn</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>家計簿案_0820版_ver4.xlsxの機能概要（２）で、日・週・月・年の表示切替方法（F列のトリガー）の記載が無いので、記載をお願いしたいです。</t>
+  </si>
+  <si>
+    <t>記載いたしました。</t>
+    <rPh sb="0" eb="2">
+      <t>キサイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>▼を押下する</t>
+    <rPh sb="2" eb="4">
+      <t>オウカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>画面（詳細設定）</t>
+  </si>
+  <si>
+    <t>No.9の回答で金額末尾のハイフン（－）は不要とし削除したとありますが、現時点最新の家計簿_1.5.pngにはハイフン（－）が表示されています。_x000D_
+不要であれば削除をお願いしたいです。</t>
+  </si>
+  <si>
+    <t>修正いたしました。</t>
+    <rPh sb="0" eb="1">
+      <t>シュウセイ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>シュウセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>No.6の回答で、📅ボタンで数ヶ月先に飛べるとの記載がありますが、現時点最新の家計簿_1.5.pngの図では📅ボタンはありません。📅ボタンは廃止されたと思って問題なかったでしょうか？</t>
+  </si>
+  <si>
+    <t xml:space="preserve">廃止されました。
+</t>
+    <rPh sb="0" eb="2">
+      <t>ハイセィゼンゲテゥサンショウミライサンショウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>〈〉で前月を参照することができますが、
+〉（未来）についてはグレーダウンで参照できません。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>画面（初期）</t>
+  </si>
+  <si>
+    <t>家計簿案_0820版_ver4.xlsxの基本機能シートにあるその他機能で、”記入したらスタンプが押される”という記載がありますが、機能概要（２）シートの初期画面にはその旨の記載がありません。スタンプ機能は廃止されたということで良かったでしょうか？</t>
+  </si>
+  <si>
+    <t>詳細設計書_20200904（検索画面）.xlsのイベント処理シートで、セルA59の説明（新規登録時は～）は登録画面での説明と思われるので、削除をお願いします。</t>
+  </si>
+  <si>
+    <t>金額の上限下限で、画面イメージ内で”≦”のマークがあったりなかったりしてますが、どちらが正しいですか？UI的には必要であれば、最初からあった方が良い気もしますが・・・</t>
+  </si>
+  <si>
+    <t>登録画面の”削除”ボタンについて
+詳細設計書_20200904（登録画面）.xlsのイベント処理シートセルA47の説明で、”削除したいデータを選択すると～”とありますが、どの画面から選択をしますか？その旨を詳細設計書にも記載をお願いしたいです。</t>
+  </si>
+  <si>
+    <t>登録画面の”削除”ボタンについて_x000D_
+詳細設計書_20200904（登録画面）.xlsのイベント処理シートセルA47の説明で、”該当データを登録画面で修正を行ったあと削除ボタンを押下すると、データが削除される”とありますが、修正を行わないと削除はされないですか？（修正せずともすぐ”削除”ボタン押下でデータは削除されませんか？）</t>
+  </si>
+  <si>
+    <t>登録画面の”削除”ボタンについて
+詳細設計書_20200904（登録画面）.xlsのイベント処理シートセルA47の説明で、検索画面の”削除”ボタンと登録画面の”削除”ボタンとで挙動は違うが（直前に選択していた１項目を削除か、データそのものの削除かの違い）レイアウトが全く一緒ですが、レイアウトで差異を出した方が良いのではないでしょうか？</t>
   </si>
 </sst>
 </file>
@@ -3271,17 +3374,38 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="표준" xfId="0" builtinId="0"/>
+    <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="1">
+  <dxfs count="4">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -3624,15 +3748,15 @@
       <c r="B2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="19" t="s">
+      <c r="C2" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="19"/>
-      <c r="E2" s="19"/>
-      <c r="F2" s="19"/>
-      <c r="G2" s="19"/>
-      <c r="H2" s="19"/>
-      <c r="I2" s="19"/>
+      <c r="D2" s="20"/>
+      <c r="E2" s="20"/>
+      <c r="F2" s="20"/>
+      <c r="G2" s="20"/>
+      <c r="H2" s="20"/>
+      <c r="I2" s="20"/>
       <c r="J2" s="5" t="s">
         <v>4</v>
       </c>
@@ -3905,22 +4029,25 @@
     </row>
     <row r="25" spans="2:10" ht="19.5" thickBot="1">
       <c r="B25" s="9"/>
-      <c r="C25" s="20"/>
-      <c r="D25" s="20"/>
-      <c r="E25" s="20"/>
-      <c r="F25" s="20"/>
-      <c r="G25" s="20"/>
-      <c r="H25" s="20"/>
-      <c r="I25" s="20"/>
+      <c r="C25" s="19"/>
+      <c r="D25" s="19"/>
+      <c r="E25" s="19"/>
+      <c r="F25" s="19"/>
+      <c r="G25" s="19"/>
+      <c r="H25" s="19"/>
+      <c r="I25" s="19"/>
       <c r="J25" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="C21:I21"/>
-    <mergeCell ref="C22:I22"/>
-    <mergeCell ref="C23:I23"/>
-    <mergeCell ref="C24:I24"/>
-    <mergeCell ref="C25:I25"/>
+    <mergeCell ref="C19:I19"/>
+    <mergeCell ref="C20:I20"/>
+    <mergeCell ref="C9:I9"/>
+    <mergeCell ref="C10:I10"/>
+    <mergeCell ref="C11:I11"/>
+    <mergeCell ref="C12:I12"/>
+    <mergeCell ref="C13:I13"/>
+    <mergeCell ref="C14:I14"/>
     <mergeCell ref="C2:I2"/>
     <mergeCell ref="C15:I15"/>
     <mergeCell ref="C16:I16"/>
@@ -3932,14 +4059,11 @@
     <mergeCell ref="C6:I6"/>
     <mergeCell ref="C7:I7"/>
     <mergeCell ref="C8:I8"/>
-    <mergeCell ref="C19:I19"/>
-    <mergeCell ref="C20:I20"/>
-    <mergeCell ref="C9:I9"/>
-    <mergeCell ref="C10:I10"/>
-    <mergeCell ref="C11:I11"/>
-    <mergeCell ref="C12:I12"/>
-    <mergeCell ref="C13:I13"/>
-    <mergeCell ref="C14:I14"/>
+    <mergeCell ref="C21:I21"/>
+    <mergeCell ref="C22:I22"/>
+    <mergeCell ref="C23:I23"/>
+    <mergeCell ref="C24:I24"/>
+    <mergeCell ref="C25:I25"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3949,11 +4073,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="B2:M60"/>
+  <dimension ref="B2:M78"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="C3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="M11" sqref="M11"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A55" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C57" sqref="C57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="18.75"/>
@@ -4207,15 +4331,19 @@
       <c r="H8" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="I8" s="12"/>
+      <c r="I8" s="12" t="s">
+        <v>52</v>
+      </c>
       <c r="J8" s="1"/>
       <c r="K8" s="10">
         <v>44070</v>
       </c>
       <c r="L8" s="11" t="s">
-        <v>52</v>
-      </c>
-      <c r="M8" s="1"/>
+        <v>53</v>
+      </c>
+      <c r="M8" s="1" t="s">
+        <v>54</v>
+      </c>
     </row>
     <row r="9" spans="2:13" ht="37.5">
       <c r="B9" s="1">
@@ -4225,13 +4353,13 @@
         <v>44068</v>
       </c>
       <c r="D9" s="17" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="E9" s="17" t="s">
         <v>29</v>
       </c>
       <c r="F9" s="11" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="G9" s="12" t="s">
         <v>43</v>
@@ -4245,7 +4373,7 @@
         <v>44071</v>
       </c>
       <c r="L9" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="M9" s="1"/>
     </row>
@@ -4260,10 +4388,10 @@
         <v>50</v>
       </c>
       <c r="E10" s="17" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="F10" s="11" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="G10" s="12" t="s">
         <v>31</v>
@@ -4277,7 +4405,7 @@
         <v>44069</v>
       </c>
       <c r="L10" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="M10" s="1"/>
     </row>
@@ -4292,10 +4420,10 @@
         <v>50</v>
       </c>
       <c r="E11" s="17" t="s">
-        <v>59</v>
+        <v>46</v>
       </c>
       <c r="F11" s="11" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="G11" s="12" t="s">
         <v>43</v>
@@ -4304,7 +4432,7 @@
         <v>32</v>
       </c>
       <c r="I11" s="12" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="J11" s="1"/>
       <c r="K11" s="10">
@@ -4313,7 +4441,9 @@
       <c r="L11" s="11" t="s">
         <v>62</v>
       </c>
-      <c r="M11" s="1"/>
+      <c r="M11" s="1" t="s">
+        <v>63</v>
+      </c>
     </row>
     <row r="12" spans="2:13" ht="93.75">
       <c r="B12" s="1">
@@ -4326,10 +4456,10 @@
         <v>28</v>
       </c>
       <c r="E12" s="17" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="F12" s="11" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="G12" s="12" t="s">
         <v>36</v>
@@ -4345,7 +4475,7 @@
         <v>44070</v>
       </c>
       <c r="L12" s="11" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="M12" s="1"/>
     </row>
@@ -4363,7 +4493,7 @@
         <v>29</v>
       </c>
       <c r="F13" s="11" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="G13" s="12" t="s">
         <v>36</v>
@@ -4379,10 +4509,10 @@
         <v>44071</v>
       </c>
       <c r="L13" s="11" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="M13" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="14" spans="2:13" ht="56.25">
@@ -4399,7 +4529,7 @@
         <v>34</v>
       </c>
       <c r="F14" s="11" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="G14" s="12" t="s">
         <v>36</v>
@@ -4407,13 +4537,15 @@
       <c r="H14" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="I14" s="12"/>
+      <c r="I14" s="12" t="s">
+        <v>52</v>
+      </c>
       <c r="J14" s="1"/>
       <c r="K14" s="10">
         <v>44071</v>
       </c>
       <c r="L14" s="11" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="M14" s="1"/>
     </row>
@@ -4431,7 +4563,7 @@
         <v>34</v>
       </c>
       <c r="F15" s="11" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="G15" s="12" t="s">
         <v>36</v>
@@ -4447,7 +4579,7 @@
         <v>44071</v>
       </c>
       <c r="L15" s="11" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="M15" s="1"/>
     </row>
@@ -4462,10 +4594,10 @@
         <v>28</v>
       </c>
       <c r="E16" s="17" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="F16" s="11" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="G16" s="12" t="s">
         <v>36</v>
@@ -4481,7 +4613,7 @@
         <v>44071</v>
       </c>
       <c r="L16" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="M16" s="1"/>
     </row>
@@ -4496,10 +4628,10 @@
         <v>28</v>
       </c>
       <c r="E17" s="17" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="F17" s="11" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="G17" s="12" t="s">
         <v>43</v>
@@ -4515,7 +4647,7 @@
         <v>44071</v>
       </c>
       <c r="L17" s="11" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="M17" s="1"/>
     </row>
@@ -4530,10 +4662,10 @@
         <v>28</v>
       </c>
       <c r="E18" s="17" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F18" s="11" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G18" s="12" t="s">
         <v>43</v>
@@ -4549,7 +4681,7 @@
         <v>44071</v>
       </c>
       <c r="L18" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="M18" s="1"/>
     </row>
@@ -4564,10 +4696,10 @@
         <v>50</v>
       </c>
       <c r="E19" s="17" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F19" s="11" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="G19" s="12" t="s">
         <v>36</v>
@@ -4576,14 +4708,14 @@
         <v>32</v>
       </c>
       <c r="I19" s="12" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="J19" s="1"/>
       <c r="K19" s="10">
         <v>44071</v>
       </c>
       <c r="L19" s="11" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="M19" s="1"/>
     </row>
@@ -4598,10 +4730,10 @@
         <v>28</v>
       </c>
       <c r="E20" s="17" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F20" s="11" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="G20" s="12" t="s">
         <v>36</v>
@@ -4617,10 +4749,10 @@
         <v>44071</v>
       </c>
       <c r="L20" s="11" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="M20" s="1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="21" spans="2:13" ht="56.25">
@@ -4634,10 +4766,10 @@
         <v>50</v>
       </c>
       <c r="E21" s="17" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F21" s="11" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="G21" s="12" t="s">
         <v>36</v>
@@ -4646,14 +4778,14 @@
         <v>32</v>
       </c>
       <c r="I21" s="12" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="J21" s="1"/>
       <c r="K21" s="10">
         <v>44071</v>
       </c>
       <c r="L21" s="1" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="M21" s="1"/>
     </row>
@@ -4668,10 +4800,10 @@
         <v>28</v>
       </c>
       <c r="E22" s="17" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F22" s="11" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="G22" s="12" t="s">
         <v>36</v>
@@ -4687,7 +4819,7 @@
         <v>44071</v>
       </c>
       <c r="L22" s="1" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="M22" s="1"/>
     </row>
@@ -4702,10 +4834,10 @@
         <v>28</v>
       </c>
       <c r="E23" s="17" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F23" s="11" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="G23" s="12" t="s">
         <v>36</v>
@@ -4721,10 +4853,10 @@
         <v>44071</v>
       </c>
       <c r="L23" s="11" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="M23" s="11" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="24" spans="2:13" ht="75">
@@ -4738,10 +4870,10 @@
         <v>28</v>
       </c>
       <c r="E24" s="17" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F24" s="11" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="G24" s="12" t="s">
         <v>43</v>
@@ -4757,7 +4889,7 @@
         <v>44071</v>
       </c>
       <c r="L24" s="11" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="M24" s="11" t="s">
         <v>45</v>
@@ -4774,10 +4906,10 @@
         <v>28</v>
       </c>
       <c r="E25" s="17" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="F25" s="11" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="G25" s="12" t="s">
         <v>36</v>
@@ -4793,10 +4925,10 @@
         <v>44071</v>
       </c>
       <c r="L25" s="11" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="M25" s="1" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="26" spans="2:13" ht="75">
@@ -4810,10 +4942,10 @@
         <v>50</v>
       </c>
       <c r="E26" s="17" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="F26" s="11" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="G26" s="12" t="s">
         <v>36</v>
@@ -4821,17 +4953,19 @@
       <c r="H26" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="I26" s="12"/>
+      <c r="I26" s="12" t="s">
+        <v>52</v>
+      </c>
       <c r="J26" s="1"/>
       <c r="K26" s="10">
         <v>44071</v>
       </c>
       <c r="L26" s="1" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="M26" s="1"/>
     </row>
-    <row r="27" spans="2:13" ht="56.25">
+    <row r="27" spans="2:13" ht="37.5">
       <c r="B27" s="1">
         <v>25</v>
       </c>
@@ -4842,10 +4976,10 @@
         <v>50</v>
       </c>
       <c r="E27" s="17" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="F27" s="11" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="G27" s="12" t="s">
         <v>36</v>
@@ -4854,17 +4988,17 @@
         <v>32</v>
       </c>
       <c r="I27" s="12" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="J27" s="1"/>
       <c r="K27" s="10">
         <v>44071</v>
       </c>
       <c r="L27" s="1" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="M27" s="1" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="28" spans="2:13" ht="75">
@@ -4878,10 +5012,10 @@
         <v>28</v>
       </c>
       <c r="E28" s="17" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="F28" s="11" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="G28" s="12" t="s">
         <v>36</v>
@@ -4897,7 +5031,7 @@
         <v>44071</v>
       </c>
       <c r="L28" s="11" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="M28" s="1"/>
     </row>
@@ -4912,10 +5046,10 @@
         <v>28</v>
       </c>
       <c r="E29" s="17" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="F29" s="11" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="G29" s="12" t="s">
         <v>36</v>
@@ -4931,10 +5065,10 @@
         <v>44071</v>
       </c>
       <c r="L29" s="11" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="M29" s="1" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="30" spans="2:13" ht="56.25">
@@ -4948,10 +5082,10 @@
         <v>28</v>
       </c>
       <c r="E30" s="17" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="F30" s="11" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="G30" s="12" t="s">
         <v>36</v>
@@ -4967,11 +5101,11 @@
         <v>44071</v>
       </c>
       <c r="L30" s="1" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="M30" s="1"/>
     </row>
-    <row r="31" spans="2:13" ht="56.25">
+    <row r="31" spans="2:13" ht="37.5">
       <c r="B31" s="1">
         <v>29</v>
       </c>
@@ -4982,10 +5116,10 @@
         <v>50</v>
       </c>
       <c r="E31" s="17" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="F31" s="11" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="G31" s="12" t="s">
         <v>36</v>
@@ -4994,14 +5128,14 @@
         <v>32</v>
       </c>
       <c r="I31" s="12" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="J31" s="1"/>
       <c r="K31" s="10">
         <v>44071</v>
       </c>
       <c r="L31" s="1" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="M31" s="1"/>
     </row>
@@ -5016,10 +5150,10 @@
         <v>28</v>
       </c>
       <c r="E32" s="17" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="F32" s="11" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="G32" s="12" t="s">
         <v>36</v>
@@ -5035,7 +5169,7 @@
         <v>44071</v>
       </c>
       <c r="L32" s="1" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="M32" s="1"/>
     </row>
@@ -5050,10 +5184,10 @@
         <v>28</v>
       </c>
       <c r="E33" s="17" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="F33" s="11" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="G33" s="12" t="s">
         <v>36</v>
@@ -5069,7 +5203,7 @@
         <v>44071</v>
       </c>
       <c r="L33" s="11" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="M33" s="1"/>
     </row>
@@ -5084,10 +5218,10 @@
         <v>28</v>
       </c>
       <c r="E34" s="17" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="F34" s="11" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="G34" s="12" t="s">
         <v>31</v>
@@ -5103,7 +5237,7 @@
         <v>44070</v>
       </c>
       <c r="L34" s="1" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="M34" s="1"/>
     </row>
@@ -5121,13 +5255,13 @@
         <v>29</v>
       </c>
       <c r="F35" s="11" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="G35" s="12" t="s">
         <v>36</v>
       </c>
       <c r="H35" s="11" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="I35" s="12" t="s">
         <v>37</v>
@@ -5137,7 +5271,7 @@
         <v>44074</v>
       </c>
       <c r="L35" s="1" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="M35" s="1"/>
     </row>
@@ -5155,13 +5289,13 @@
         <v>41</v>
       </c>
       <c r="F36" s="11" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="G36" s="12" t="s">
         <v>36</v>
       </c>
       <c r="H36" s="11" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="I36" s="12" t="s">
         <v>37</v>
@@ -5171,7 +5305,7 @@
         <v>44074</v>
       </c>
       <c r="L36" s="11" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="M36" s="1"/>
     </row>
@@ -5186,16 +5320,16 @@
         <v>28</v>
       </c>
       <c r="E37" s="17" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="F37" s="11" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="G37" s="12" t="s">
         <v>43</v>
       </c>
       <c r="H37" s="11" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="I37" s="12" t="s">
         <v>37</v>
@@ -5205,10 +5339,10 @@
         <v>44074</v>
       </c>
       <c r="L37" s="11" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="M37" s="1" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
     </row>
     <row r="38" spans="2:13" ht="56.25">
@@ -5222,16 +5356,16 @@
         <v>28</v>
       </c>
       <c r="E38" s="17" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="F38" s="11" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="G38" s="12" t="s">
         <v>43</v>
       </c>
       <c r="H38" s="11" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="I38" s="12" t="s">
         <v>37</v>
@@ -5241,7 +5375,7 @@
         <v>44074</v>
       </c>
       <c r="L38" s="11" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="M38" s="1"/>
     </row>
@@ -5256,16 +5390,16 @@
         <v>28</v>
       </c>
       <c r="E39" s="17" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="F39" s="11" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="G39" s="12" t="s">
         <v>43</v>
       </c>
       <c r="H39" s="11" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="I39" s="12" t="s">
         <v>37</v>
@@ -5275,7 +5409,7 @@
         <v>44074</v>
       </c>
       <c r="L39" s="1" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="M39" s="1"/>
     </row>
@@ -5290,16 +5424,16 @@
         <v>28</v>
       </c>
       <c r="E40" s="17" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="F40" s="11" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="G40" s="12" t="s">
         <v>43</v>
       </c>
       <c r="H40" s="11" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="I40" s="12" t="s">
         <v>37</v>
@@ -5309,179 +5443,371 @@
         <v>44074</v>
       </c>
       <c r="L40" s="11" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="M40" s="1"/>
     </row>
-    <row r="41" spans="2:13">
+    <row r="41" spans="2:13" ht="112.5">
       <c r="B41" s="1">
         <v>39</v>
       </c>
-      <c r="C41" s="17"/>
-      <c r="D41" s="17"/>
-      <c r="E41" s="17"/>
-      <c r="F41" s="11"/>
-      <c r="G41" s="12"/>
-      <c r="H41" s="1"/>
+      <c r="C41" s="16">
+        <v>44076</v>
+      </c>
+      <c r="D41" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="E41" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="F41" s="11" t="s">
+        <v>139</v>
+      </c>
+      <c r="G41" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="H41" s="11" t="s">
+        <v>126</v>
+      </c>
       <c r="I41" s="12"/>
       <c r="J41" s="1"/>
-      <c r="K41" s="1"/>
-      <c r="L41" s="1"/>
+      <c r="K41" s="10">
+        <v>44077</v>
+      </c>
+      <c r="L41" s="1" t="s">
+        <v>140</v>
+      </c>
       <c r="M41" s="1"/>
     </row>
-    <row r="42" spans="2:13">
+    <row r="42" spans="2:13" ht="93.75">
       <c r="B42" s="1">
         <v>40</v>
       </c>
-      <c r="C42" s="17"/>
-      <c r="D42" s="17"/>
-      <c r="E42" s="17"/>
-      <c r="F42" s="11"/>
-      <c r="G42" s="12"/>
-      <c r="H42" s="1"/>
-      <c r="I42" s="12"/>
+      <c r="C42" s="16">
+        <v>44076</v>
+      </c>
+      <c r="D42" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="E42" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="F42" s="11" t="s">
+        <v>141</v>
+      </c>
+      <c r="G42" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="H42" s="11" t="s">
+        <v>126</v>
+      </c>
+      <c r="I42" s="12" t="s">
+        <v>37</v>
+      </c>
       <c r="J42" s="1"/>
-      <c r="K42" s="1"/>
-      <c r="L42" s="1"/>
-      <c r="M42" s="1"/>
-    </row>
-    <row r="43" spans="2:13">
+      <c r="K42" s="10">
+        <v>44077</v>
+      </c>
+      <c r="L42" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="M42" s="11" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="43" spans="2:13" ht="112.5">
       <c r="B43" s="1">
         <v>41</v>
       </c>
-      <c r="C43" s="17"/>
-      <c r="D43" s="17"/>
-      <c r="E43" s="17"/>
-      <c r="F43" s="11"/>
-      <c r="G43" s="12"/>
-      <c r="H43" s="1"/>
-      <c r="I43" s="12"/>
+      <c r="C43" s="16">
+        <v>44077</v>
+      </c>
+      <c r="D43" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="E43" s="17" t="s">
+        <v>144</v>
+      </c>
+      <c r="F43" s="11" t="s">
+        <v>145</v>
+      </c>
+      <c r="G43" s="12" t="s">
+        <v>146</v>
+      </c>
+      <c r="H43" s="11" t="s">
+        <v>126</v>
+      </c>
+      <c r="I43" s="12" t="s">
+        <v>37</v>
+      </c>
       <c r="J43" s="1"/>
-      <c r="K43" s="1"/>
-      <c r="L43" s="1"/>
+      <c r="K43" s="10">
+        <v>44077</v>
+      </c>
+      <c r="L43" s="11" t="s">
+        <v>147</v>
+      </c>
       <c r="M43" s="1"/>
     </row>
-    <row r="44" spans="2:13">
+    <row r="44" spans="2:13" ht="56.25">
       <c r="B44" s="1">
         <v>42</v>
       </c>
-      <c r="C44" s="17"/>
-      <c r="D44" s="17"/>
-      <c r="E44" s="17"/>
-      <c r="F44" s="11"/>
-      <c r="G44" s="12"/>
-      <c r="H44" s="1"/>
-      <c r="I44" s="12"/>
+      <c r="C44" s="16">
+        <v>44077</v>
+      </c>
+      <c r="D44" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="E44" s="17" t="s">
+        <v>144</v>
+      </c>
+      <c r="F44" s="11" t="s">
+        <v>148</v>
+      </c>
+      <c r="G44" s="12" t="s">
+        <v>146</v>
+      </c>
+      <c r="H44" s="11" t="s">
+        <v>126</v>
+      </c>
+      <c r="I44" s="12" t="s">
+        <v>37</v>
+      </c>
       <c r="J44" s="1"/>
-      <c r="K44" s="1"/>
-      <c r="L44" s="1"/>
+      <c r="K44" s="10">
+        <v>44077</v>
+      </c>
+      <c r="L44" s="11" t="s">
+        <v>149</v>
+      </c>
       <c r="M44" s="1"/>
     </row>
-    <row r="45" spans="2:13">
+    <row r="45" spans="2:13" ht="56.25">
       <c r="B45" s="1">
         <v>43</v>
       </c>
-      <c r="C45" s="17"/>
-      <c r="D45" s="17"/>
-      <c r="E45" s="17"/>
-      <c r="F45" s="11"/>
-      <c r="G45" s="12"/>
-      <c r="H45" s="1"/>
-      <c r="I45" s="12"/>
+      <c r="C45" s="16">
+        <v>44077</v>
+      </c>
+      <c r="D45" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="E45" s="17" t="s">
+        <v>79</v>
+      </c>
+      <c r="F45" s="11" t="s">
+        <v>150</v>
+      </c>
+      <c r="G45" s="12" t="s">
+        <v>146</v>
+      </c>
+      <c r="H45" s="11" t="s">
+        <v>126</v>
+      </c>
+      <c r="I45" s="12" t="s">
+        <v>37</v>
+      </c>
       <c r="J45" s="1"/>
-      <c r="K45" s="1"/>
-      <c r="L45" s="1"/>
+      <c r="K45" s="10">
+        <v>44077</v>
+      </c>
+      <c r="L45" s="1" t="s">
+        <v>151</v>
+      </c>
       <c r="M45" s="1"/>
     </row>
-    <row r="46" spans="2:13">
+    <row r="46" spans="2:13" ht="75">
       <c r="B46" s="1">
         <v>44</v>
       </c>
-      <c r="C46" s="17"/>
-      <c r="D46" s="17"/>
-      <c r="E46" s="17"/>
-      <c r="F46" s="11"/>
-      <c r="G46" s="12"/>
-      <c r="H46" s="1"/>
-      <c r="I46" s="12"/>
+      <c r="C46" s="16">
+        <v>44077</v>
+      </c>
+      <c r="D46" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="E46" s="17" t="s">
+        <v>100</v>
+      </c>
+      <c r="F46" s="11" t="s">
+        <v>152</v>
+      </c>
+      <c r="G46" s="12" t="s">
+        <v>146</v>
+      </c>
+      <c r="H46" s="11" t="s">
+        <v>126</v>
+      </c>
+      <c r="I46" s="12" t="s">
+        <v>37</v>
+      </c>
       <c r="J46" s="1"/>
-      <c r="K46" s="1"/>
-      <c r="L46" s="1"/>
+      <c r="K46" s="10">
+        <v>44077</v>
+      </c>
+      <c r="L46" s="11" t="s">
+        <v>153</v>
+      </c>
       <c r="M46" s="1"/>
     </row>
-    <row r="47" spans="2:13">
+    <row r="47" spans="2:13" ht="56.25">
       <c r="B47" s="1">
         <v>45</v>
       </c>
-      <c r="C47" s="17"/>
-      <c r="D47" s="17"/>
-      <c r="E47" s="17"/>
-      <c r="F47" s="11"/>
-      <c r="G47" s="12"/>
-      <c r="H47" s="1"/>
+      <c r="C47" s="16">
+        <v>44077</v>
+      </c>
+      <c r="D47" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="E47" s="17" t="s">
+        <v>74</v>
+      </c>
+      <c r="F47" s="11" t="s">
+        <v>154</v>
+      </c>
+      <c r="G47" s="12" t="s">
+        <v>146</v>
+      </c>
+      <c r="H47" s="11" t="s">
+        <v>126</v>
+      </c>
       <c r="I47" s="12"/>
       <c r="J47" s="1"/>
-      <c r="K47" s="1"/>
-      <c r="L47" s="1"/>
-      <c r="M47" s="1"/>
-    </row>
-    <row r="48" spans="2:13">
+      <c r="K47" s="10">
+        <v>44077</v>
+      </c>
+      <c r="L47" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="M47" s="1" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="48" spans="2:13" ht="93.75">
       <c r="B48" s="1">
         <v>46</v>
       </c>
-      <c r="C48" s="17"/>
-      <c r="D48" s="17"/>
-      <c r="E48" s="17"/>
-      <c r="F48" s="11"/>
-      <c r="G48" s="12"/>
-      <c r="H48" s="1"/>
-      <c r="I48" s="12"/>
+      <c r="C48" s="16">
+        <v>44077</v>
+      </c>
+      <c r="D48" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="E48" s="17" t="s">
+        <v>157</v>
+      </c>
+      <c r="F48" s="11" t="s">
+        <v>158</v>
+      </c>
+      <c r="G48" s="12" t="s">
+        <v>146</v>
+      </c>
+      <c r="H48" s="11" t="s">
+        <v>126</v>
+      </c>
+      <c r="I48" s="12" t="s">
+        <v>37</v>
+      </c>
       <c r="J48" s="1"/>
-      <c r="K48" s="1"/>
-      <c r="L48" s="1"/>
+      <c r="K48" s="10">
+        <v>44077</v>
+      </c>
+      <c r="L48" s="1" t="s">
+        <v>159</v>
+      </c>
       <c r="M48" s="1"/>
     </row>
-    <row r="49" spans="2:13">
+    <row r="49" spans="2:13" ht="93.75">
       <c r="B49" s="1">
         <v>47</v>
       </c>
-      <c r="C49" s="17"/>
-      <c r="D49" s="17"/>
-      <c r="E49" s="17"/>
-      <c r="F49" s="11"/>
-      <c r="G49" s="12"/>
-      <c r="H49" s="1"/>
-      <c r="I49" s="12"/>
+      <c r="C49" s="16">
+        <v>44077</v>
+      </c>
+      <c r="D49" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="E49" s="17" t="s">
+        <v>157</v>
+      </c>
+      <c r="F49" s="11" t="s">
+        <v>160</v>
+      </c>
+      <c r="G49" s="12" t="s">
+        <v>146</v>
+      </c>
+      <c r="H49" s="11" t="s">
+        <v>126</v>
+      </c>
+      <c r="I49" s="12" t="s">
+        <v>37</v>
+      </c>
       <c r="J49" s="1"/>
-      <c r="K49" s="1"/>
-      <c r="L49" s="1"/>
-      <c r="M49" s="1"/>
-    </row>
-    <row r="50" spans="2:13">
+      <c r="K49" s="10">
+        <v>44077</v>
+      </c>
+      <c r="L49" s="11" t="s">
+        <v>161</v>
+      </c>
+      <c r="M49" s="11" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="50" spans="2:13" ht="112.5">
       <c r="B50" s="1">
         <v>48</v>
       </c>
-      <c r="C50" s="17"/>
-      <c r="D50" s="17"/>
-      <c r="E50" s="17"/>
-      <c r="F50" s="11"/>
-      <c r="G50" s="12"/>
-      <c r="H50" s="1"/>
-      <c r="I50" s="12"/>
+      <c r="C50" s="16">
+        <v>44077</v>
+      </c>
+      <c r="D50" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="E50" s="17" t="s">
+        <v>163</v>
+      </c>
+      <c r="F50" s="11" t="s">
+        <v>164</v>
+      </c>
+      <c r="G50" s="12" t="s">
+        <v>146</v>
+      </c>
+      <c r="H50" s="11" t="s">
+        <v>126</v>
+      </c>
+      <c r="I50" s="12" t="s">
+        <v>37</v>
+      </c>
       <c r="J50" s="1"/>
-      <c r="K50" s="1"/>
-      <c r="L50" s="1"/>
+      <c r="K50" s="10">
+        <v>44077</v>
+      </c>
+      <c r="L50" s="11" t="s">
+        <v>161</v>
+      </c>
       <c r="M50" s="1"/>
     </row>
-    <row r="51" spans="2:13">
+    <row r="51" spans="2:13" ht="75">
       <c r="B51" s="1">
         <v>49</v>
       </c>
-      <c r="C51" s="17"/>
-      <c r="D51" s="17"/>
-      <c r="E51" s="17"/>
-      <c r="F51" s="11"/>
-      <c r="G51" s="12"/>
+      <c r="C51" s="16">
+        <v>44081</v>
+      </c>
+      <c r="D51" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="E51" s="17" t="s">
+        <v>144</v>
+      </c>
+      <c r="F51" s="11" t="s">
+        <v>165</v>
+      </c>
+      <c r="G51" s="12" t="s">
+        <v>146</v>
+      </c>
       <c r="H51" s="1"/>
       <c r="I51" s="12"/>
       <c r="J51" s="1"/>
@@ -5489,15 +5815,25 @@
       <c r="L51" s="1"/>
       <c r="M51" s="1"/>
     </row>
-    <row r="52" spans="2:13">
+    <row r="52" spans="2:13" ht="75">
       <c r="B52" s="1">
         <v>50</v>
       </c>
-      <c r="C52" s="17"/>
-      <c r="D52" s="17"/>
-      <c r="E52" s="17"/>
-      <c r="F52" s="11"/>
-      <c r="G52" s="12"/>
+      <c r="C52" s="16">
+        <v>44081</v>
+      </c>
+      <c r="D52" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="E52" s="17" t="s">
+        <v>144</v>
+      </c>
+      <c r="F52" s="11" t="s">
+        <v>166</v>
+      </c>
+      <c r="G52" s="12" t="s">
+        <v>146</v>
+      </c>
       <c r="H52" s="1"/>
       <c r="I52" s="12"/>
       <c r="J52" s="1"/>
@@ -5505,15 +5841,25 @@
       <c r="L52" s="1"/>
       <c r="M52" s="1"/>
     </row>
-    <row r="53" spans="2:13">
+    <row r="53" spans="2:13" ht="112.5">
       <c r="B53" s="1">
         <v>51</v>
       </c>
-      <c r="C53" s="17"/>
-      <c r="D53" s="17"/>
-      <c r="E53" s="17"/>
-      <c r="F53" s="11"/>
-      <c r="G53" s="12"/>
+      <c r="C53" s="16">
+        <v>44081</v>
+      </c>
+      <c r="D53" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="E53" s="17" t="s">
+        <v>79</v>
+      </c>
+      <c r="F53" s="11" t="s">
+        <v>167</v>
+      </c>
+      <c r="G53" s="12" t="s">
+        <v>146</v>
+      </c>
       <c r="H53" s="1"/>
       <c r="I53" s="12"/>
       <c r="J53" s="1"/>
@@ -5521,15 +5867,25 @@
       <c r="L53" s="1"/>
       <c r="M53" s="1"/>
     </row>
-    <row r="54" spans="2:13">
+    <row r="54" spans="2:13" ht="150">
       <c r="B54" s="1">
         <v>52</v>
       </c>
-      <c r="C54" s="17"/>
-      <c r="D54" s="17"/>
-      <c r="E54" s="17"/>
-      <c r="F54" s="11"/>
-      <c r="G54" s="12"/>
+      <c r="C54" s="16">
+        <v>44081</v>
+      </c>
+      <c r="D54" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="E54" s="17" t="s">
+        <v>79</v>
+      </c>
+      <c r="F54" s="11" t="s">
+        <v>168</v>
+      </c>
+      <c r="G54" s="12" t="s">
+        <v>146</v>
+      </c>
       <c r="H54" s="1"/>
       <c r="I54" s="12"/>
       <c r="J54" s="1"/>
@@ -5537,15 +5893,25 @@
       <c r="L54" s="1"/>
       <c r="M54" s="1"/>
     </row>
-    <row r="55" spans="2:13">
+    <row r="55" spans="2:13" ht="150">
       <c r="B55" s="1">
         <v>53</v>
       </c>
-      <c r="C55" s="17"/>
-      <c r="D55" s="17"/>
-      <c r="E55" s="17"/>
-      <c r="F55" s="11"/>
-      <c r="G55" s="12"/>
+      <c r="C55" s="16">
+        <v>44081</v>
+      </c>
+      <c r="D55" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="E55" s="17" t="s">
+        <v>79</v>
+      </c>
+      <c r="F55" s="11" t="s">
+        <v>169</v>
+      </c>
+      <c r="G55" s="12" t="s">
+        <v>146</v>
+      </c>
       <c r="H55" s="1"/>
       <c r="I55" s="12"/>
       <c r="J55" s="1"/>
@@ -5633,12 +5999,315 @@
       <c r="L60" s="1"/>
       <c r="M60" s="1"/>
     </row>
+    <row r="61" spans="2:13">
+      <c r="B61" s="1">
+        <v>59</v>
+      </c>
+      <c r="C61" s="17"/>
+      <c r="D61" s="17"/>
+      <c r="E61" s="17"/>
+      <c r="F61" s="11"/>
+      <c r="G61" s="12"/>
+      <c r="H61" s="1"/>
+      <c r="I61" s="12"/>
+      <c r="J61" s="1"/>
+      <c r="K61" s="1"/>
+      <c r="L61" s="1"/>
+      <c r="M61" s="1"/>
+    </row>
+    <row r="62" spans="2:13">
+      <c r="B62" s="1">
+        <v>60</v>
+      </c>
+      <c r="C62" s="17"/>
+      <c r="D62" s="17"/>
+      <c r="E62" s="17"/>
+      <c r="F62" s="11"/>
+      <c r="G62" s="12"/>
+      <c r="H62" s="1"/>
+      <c r="I62" s="12"/>
+      <c r="J62" s="1"/>
+      <c r="K62" s="1"/>
+      <c r="L62" s="1"/>
+      <c r="M62" s="1"/>
+    </row>
+    <row r="63" spans="2:13">
+      <c r="B63" s="1">
+        <v>61</v>
+      </c>
+      <c r="C63" s="17"/>
+      <c r="D63" s="17"/>
+      <c r="E63" s="17"/>
+      <c r="F63" s="11"/>
+      <c r="G63" s="12"/>
+      <c r="H63" s="1"/>
+      <c r="I63" s="12"/>
+      <c r="J63" s="1"/>
+      <c r="K63" s="1"/>
+      <c r="L63" s="1"/>
+      <c r="M63" s="1"/>
+    </row>
+    <row r="64" spans="2:13">
+      <c r="B64" s="1">
+        <v>62</v>
+      </c>
+      <c r="C64" s="17"/>
+      <c r="D64" s="17"/>
+      <c r="E64" s="17"/>
+      <c r="F64" s="11"/>
+      <c r="G64" s="12"/>
+      <c r="H64" s="1"/>
+      <c r="I64" s="12"/>
+      <c r="J64" s="1"/>
+      <c r="K64" s="1"/>
+      <c r="L64" s="1"/>
+      <c r="M64" s="1"/>
+    </row>
+    <row r="65" spans="2:13">
+      <c r="B65" s="1">
+        <v>63</v>
+      </c>
+      <c r="C65" s="17"/>
+      <c r="D65" s="17"/>
+      <c r="E65" s="17"/>
+      <c r="F65" s="11"/>
+      <c r="G65" s="12"/>
+      <c r="H65" s="1"/>
+      <c r="I65" s="12"/>
+      <c r="J65" s="1"/>
+      <c r="K65" s="1"/>
+      <c r="L65" s="1"/>
+      <c r="M65" s="1"/>
+    </row>
+    <row r="66" spans="2:13">
+      <c r="B66" s="1">
+        <v>64</v>
+      </c>
+      <c r="C66" s="17"/>
+      <c r="D66" s="17"/>
+      <c r="E66" s="17"/>
+      <c r="F66" s="11"/>
+      <c r="G66" s="12"/>
+      <c r="H66" s="1"/>
+      <c r="I66" s="12"/>
+      <c r="J66" s="1"/>
+      <c r="K66" s="1"/>
+      <c r="L66" s="1"/>
+      <c r="M66" s="1"/>
+    </row>
+    <row r="67" spans="2:13">
+      <c r="B67" s="1">
+        <v>65</v>
+      </c>
+      <c r="C67" s="17"/>
+      <c r="D67" s="17"/>
+      <c r="E67" s="17"/>
+      <c r="F67" s="11"/>
+      <c r="G67" s="12"/>
+      <c r="H67" s="1"/>
+      <c r="I67" s="12"/>
+      <c r="J67" s="1"/>
+      <c r="K67" s="1"/>
+      <c r="L67" s="1"/>
+      <c r="M67" s="1"/>
+    </row>
+    <row r="68" spans="2:13">
+      <c r="B68" s="1">
+        <v>66</v>
+      </c>
+      <c r="C68" s="17"/>
+      <c r="D68" s="17"/>
+      <c r="E68" s="17"/>
+      <c r="F68" s="11"/>
+      <c r="G68" s="12"/>
+      <c r="H68" s="1"/>
+      <c r="I68" s="12"/>
+      <c r="J68" s="1"/>
+      <c r="K68" s="1"/>
+      <c r="L68" s="1"/>
+      <c r="M68" s="1"/>
+    </row>
+    <row r="69" spans="2:13">
+      <c r="B69" s="1">
+        <v>67</v>
+      </c>
+      <c r="C69" s="17"/>
+      <c r="D69" s="17"/>
+      <c r="E69" s="17"/>
+      <c r="F69" s="11"/>
+      <c r="G69" s="12"/>
+      <c r="H69" s="1"/>
+      <c r="I69" s="12"/>
+      <c r="J69" s="1"/>
+      <c r="K69" s="1"/>
+      <c r="L69" s="1"/>
+      <c r="M69" s="1"/>
+    </row>
+    <row r="70" spans="2:13">
+      <c r="B70" s="1">
+        <v>68</v>
+      </c>
+      <c r="C70" s="17"/>
+      <c r="D70" s="17"/>
+      <c r="E70" s="17"/>
+      <c r="F70" s="11"/>
+      <c r="G70" s="12"/>
+      <c r="H70" s="1"/>
+      <c r="I70" s="12"/>
+      <c r="J70" s="1"/>
+      <c r="K70" s="1"/>
+      <c r="L70" s="1"/>
+      <c r="M70" s="1"/>
+    </row>
+    <row r="71" spans="2:13">
+      <c r="B71" s="1">
+        <v>69</v>
+      </c>
+      <c r="C71" s="17"/>
+      <c r="D71" s="17"/>
+      <c r="E71" s="17"/>
+      <c r="F71" s="11"/>
+      <c r="G71" s="12"/>
+      <c r="H71" s="1"/>
+      <c r="I71" s="12"/>
+      <c r="J71" s="1"/>
+      <c r="K71" s="1"/>
+      <c r="L71" s="1"/>
+      <c r="M71" s="1"/>
+    </row>
+    <row r="72" spans="2:13">
+      <c r="B72" s="1">
+        <v>70</v>
+      </c>
+      <c r="C72" s="17"/>
+      <c r="D72" s="17"/>
+      <c r="E72" s="17"/>
+      <c r="F72" s="11"/>
+      <c r="G72" s="12"/>
+      <c r="H72" s="1"/>
+      <c r="I72" s="12"/>
+      <c r="J72" s="1"/>
+      <c r="K72" s="1"/>
+      <c r="L72" s="1"/>
+      <c r="M72" s="1"/>
+    </row>
+    <row r="73" spans="2:13">
+      <c r="B73" s="1">
+        <v>71</v>
+      </c>
+      <c r="C73" s="17"/>
+      <c r="D73" s="17"/>
+      <c r="E73" s="17"/>
+      <c r="F73" s="11"/>
+      <c r="G73" s="12"/>
+      <c r="H73" s="1"/>
+      <c r="I73" s="12"/>
+      <c r="J73" s="1"/>
+      <c r="K73" s="1"/>
+      <c r="L73" s="1"/>
+      <c r="M73" s="1"/>
+    </row>
+    <row r="74" spans="2:13">
+      <c r="B74" s="1">
+        <v>72</v>
+      </c>
+      <c r="C74" s="17"/>
+      <c r="D74" s="17"/>
+      <c r="E74" s="17"/>
+      <c r="F74" s="11"/>
+      <c r="G74" s="12"/>
+      <c r="H74" s="1"/>
+      <c r="I74" s="12"/>
+      <c r="J74" s="1"/>
+      <c r="K74" s="1"/>
+      <c r="L74" s="1"/>
+      <c r="M74" s="1"/>
+    </row>
+    <row r="75" spans="2:13">
+      <c r="B75" s="1">
+        <v>73</v>
+      </c>
+      <c r="C75" s="17"/>
+      <c r="D75" s="17"/>
+      <c r="E75" s="17"/>
+      <c r="F75" s="11"/>
+      <c r="G75" s="12"/>
+      <c r="H75" s="1"/>
+      <c r="I75" s="12"/>
+      <c r="J75" s="1"/>
+      <c r="K75" s="1"/>
+      <c r="L75" s="1"/>
+      <c r="M75" s="1"/>
+    </row>
+    <row r="76" spans="2:13">
+      <c r="B76" s="1">
+        <v>74</v>
+      </c>
+      <c r="C76" s="17"/>
+      <c r="D76" s="17"/>
+      <c r="E76" s="17"/>
+      <c r="F76" s="11"/>
+      <c r="G76" s="12"/>
+      <c r="H76" s="1"/>
+      <c r="I76" s="12"/>
+      <c r="J76" s="1"/>
+      <c r="K76" s="1"/>
+      <c r="L76" s="1"/>
+      <c r="M76" s="1"/>
+    </row>
+    <row r="77" spans="2:13">
+      <c r="B77" s="1">
+        <v>75</v>
+      </c>
+      <c r="C77" s="17"/>
+      <c r="D77" s="17"/>
+      <c r="E77" s="17"/>
+      <c r="F77" s="11"/>
+      <c r="G77" s="12"/>
+      <c r="H77" s="1"/>
+      <c r="I77" s="12"/>
+      <c r="J77" s="1"/>
+      <c r="K77" s="1"/>
+      <c r="L77" s="1"/>
+      <c r="M77" s="1"/>
+    </row>
+    <row r="78" spans="2:13">
+      <c r="B78" s="1">
+        <v>76</v>
+      </c>
+      <c r="C78" s="17"/>
+      <c r="D78" s="17"/>
+      <c r="E78" s="17"/>
+      <c r="F78" s="11"/>
+      <c r="G78" s="12"/>
+      <c r="H78" s="1"/>
+      <c r="I78" s="12"/>
+      <c r="J78" s="1"/>
+      <c r="K78" s="1"/>
+      <c r="L78" s="1"/>
+      <c r="M78" s="1"/>
+    </row>
   </sheetData>
   <autoFilter ref="B2:M60" xr:uid="{00000000-0009-0000-0000-000001000000}"/>
   <phoneticPr fontId="1"/>
-  <conditionalFormatting sqref="B3:M60">
+  <conditionalFormatting sqref="B3:M40 M41 B51:M60 I43:M50 I41:J42 B41:H50">
+    <cfRule type="expression" dxfId="3" priority="4">
+      <formula>AND($I3 &lt;&gt; "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K41:L41">
+    <cfRule type="expression" dxfId="2" priority="3">
+      <formula>AND($I41 &lt;&gt; "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K42:M42">
+    <cfRule type="expression" dxfId="1" priority="2">
+      <formula>AND($I42 &lt;&gt; "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B61:M78">
     <cfRule type="expression" dxfId="0" priority="1">
-      <formula>AND($I3 &lt;&gt; "")</formula>
+      <formula>AND($I61 &lt;&gt; "")</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5647,8 +6316,23 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x010100AC3CE858FB295540B5DE7630D250C364" ma:contentTypeVersion="2" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="7e25a297be00d641f7a36eaf4731ef60">
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="b0bce737-b0aa-42b7-a1df-335df910e9b2" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="41a31a9e662da28e88c4853963a08b24" ns2:_="">
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x010100AC3CE858FB295540B5DE7630D250C364" ma:contentTypeVersion="6" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="d1b51e41a82ef2929feb227f42bcce47">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="b0bce737-b0aa-42b7-a1df-335df910e9b2" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="8eac2d54d99ca51f902e3590e4374505" ns2:_="">
     <xsd:import namespace="b0bce737-b0aa-42b7-a1df-335df910e9b2"/>
     <xsd:element name="properties">
       <xsd:complexType>
@@ -5658,6 +6342,10 @@
               <xsd:all>
                 <xsd:element ref="ns2:MediaServiceMetadata" minOccurs="0"/>
                 <xsd:element ref="ns2:MediaServiceFastMetadata" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceAutoTags" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceOCR" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceGenerationTime" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceEventHashCode" minOccurs="0"/>
               </xsd:all>
             </xsd:complexType>
           </xsd:element>
@@ -5676,6 +6364,28 @@
     <xsd:element name="MediaServiceFastMetadata" ma:index="9" nillable="true" ma:displayName="MediaServiceFastMetadata" ma:hidden="true" ma:internalName="MediaServiceFastMetadata" ma:readOnly="true">
       <xsd:simpleType>
         <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceAutoTags" ma:index="10" nillable="true" ma:displayName="Tags" ma:internalName="MediaServiceAutoTags" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceOCR" ma:index="11" nillable="true" ma:displayName="Extracted Text" ma:internalName="MediaServiceOCR" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceGenerationTime" ma:index="12" nillable="true" ma:displayName="MediaServiceGenerationTime" ma:hidden="true" ma:internalName="MediaServiceGenerationTime" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceEventHashCode" ma:index="13" nillable="true" ma:displayName="MediaServiceEventHashCode" ma:hidden="true" ma:internalName="MediaServiceEventHashCode" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
       </xsd:simpleType>
     </xsd:element>
   </xsd:schema>
@@ -5778,23 +6488,8 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{338C8E88-33D0-4DEE-A1F2-B877E81682B3}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BFD1A9C8-A29C-40FA-83F1-A4A8E6C433BB}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -5802,5 +6497,5 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BFD1A9C8-A29C-40FA-83F1-A4A8E6C433BB}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BA50F61E-C53D-4A07-A314-70616507FBE9}"/>
 </file>
--- a/PJ/MoneyLife/Docment/QAシート_Ver1.3.xlsx
+++ b/PJ/MoneyLife/Docment/QAシート_Ver1.3.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23229"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\TempUserProfiles\NetworkService\AppData\OICE_16_974FA576_32C1D314_29B1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\horo\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="60" documentId="8_{7A58D747-C2F8-4938-9905-E3747B775A87}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{7944F5EB-0DCC-4201-9E21-B717018FA7B5}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98C5197B-CAA3-4E90-8477-2A216ACFC310}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="15600" windowHeight="11760" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="12945" yWindow="11355" windowWidth="15300" windowHeight="7875" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="更新履歴" sheetId="2" r:id="rId1"/>
@@ -19,25 +19,17 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">QAシート!$B$2:$M$60</definedName>
   </definedNames>
-  <calcPr calcId="191028" calcCompleted="0"/>
+  <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="396" uniqueCount="170">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="658" uniqueCount="248">
   <si>
     <t>更新履歴</t>
     <rPh sb="0" eb="2">
@@ -3096,26 +3088,1863 @@
     <t>詳細設計書_20200904（検索画面）.xlsのイベント処理シートで、セルA59の説明（新規登録時は～）は登録画面での説明と思われるので、削除をお願いします。</t>
   </si>
   <si>
+    <t>詳細設計書_20200908（検索画面）.xlsで削除いたしました。</t>
+    <rPh sb="0" eb="5">
+      <t>ショウサイ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>サクジヨ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
     <t>金額の上限下限で、画面イメージ内で”≦”のマークがあったりなかったりしてますが、どちらが正しいですか？UI的には必要であれば、最初からあった方が良い気もしますが・・・</t>
+  </si>
+  <si>
+    <t>9/4にアップロードした　検索画面（日付・金額）.png　画面イメージ図に追加しております。</t>
+    <rPh sb="13" eb="14">
+      <t>ケンサク</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>ヒヅケ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>キンガク</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>ガメn</t>
+    </rPh>
+    <rPh sb="35" eb="36">
+      <t xml:space="preserve">ズ </t>
+    </rPh>
+    <rPh sb="37" eb="39">
+      <t>ツイカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>登録画面の”削除”ボタンについて
 詳細設計書_20200904（登録画面）.xlsのイベント処理シートセルA47の説明で、”削除したいデータを選択すると～”とありますが、どの画面から選択をしますか？その旨を詳細設計書にも記載をお願いしたいです。</t>
   </si>
   <si>
+    <t>詳細設計書_20200908（登録画面）.xlsで訂正いたしました。</t>
+    <rPh sb="25" eb="27">
+      <t>テイセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
     <t>登録画面の”削除”ボタンについて_x000D_
 詳細設計書_20200904（登録画面）.xlsのイベント処理シートセルA47の説明で、”該当データを登録画面で修正を行ったあと削除ボタンを押下すると、データが削除される”とありますが、修正を行わないと削除はされないですか？（修正せずともすぐ”削除”ボタン押下でデータは削除されませんか？）</t>
   </si>
   <si>
     <t>登録画面の”削除”ボタンについて
 詳細設計書_20200904（登録画面）.xlsのイベント処理シートセルA47の説明で、検索画面の”削除”ボタンと登録画面の”削除”ボタンとで挙動は違うが（直前に選択していた１項目を削除か、データそのものの削除かの違い）レイアウトが全く一緒ですが、レイアウトで差異を出した方が良いのではないでしょうか？</t>
+  </si>
+  <si>
+    <t>削除画面の削除ボタンを削除いたしました。</t>
+    <rPh sb="0" eb="2">
+      <t>サクジヨ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ガメn</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>サクジヨ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>サクジヨ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>西原</t>
+    <rPh sb="0" eb="2">
+      <t>ニシハラ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>関連：No55</t>
+    <rPh sb="0" eb="2">
+      <t>カンレン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>No50の続き
+詳細設計書_20200908（検索画面）.xlsの画面イメージシートのTOPのイメージは、金額の欄に”≦”がなく、すぐ下の金額設定の画面では”≦”が出てきています。検索画面（日付・金額）.pngのイメージには”≦”があります。イベント処理シートの画面イメージにも”≦”は無いです。
+イメージの統一もしくは≦の出現条件の記載をお願いしたいです。</t>
+    <rPh sb="5" eb="6">
+      <t>ツヅ</t>
+    </rPh>
+    <rPh sb="125" eb="127">
+      <t>ショリ</t>
+    </rPh>
+    <rPh sb="131" eb="133">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="143" eb="144">
+      <t>ナ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>中</t>
+    <rPh sb="0" eb="1">
+      <t>チュウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>設計（基本機能）</t>
+    <rPh sb="0" eb="2">
+      <t>セッケイ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>キホン</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>キノウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>家計簿案_0907版_ver1.xlsxの基本機能シートのB3”繰越”について、繰越は行われなくなりましたか？
+行われなくなったのであれば、基本機能シートの改定が必要だと思うので、検討をお願いします。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>高</t>
+    <rPh sb="0" eb="1">
+      <t>コウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>家計簿案_0907版_ver1.xlsxの基本機能シートのB11”目標消費性向を百分率（％）で表示”とありますが、この機能はどうなりますか？必要であればシートの修正をお願いしたいです。</t>
+    <rPh sb="33" eb="35">
+      <t>モクヒョウ</t>
+    </rPh>
+    <rPh sb="35" eb="37">
+      <t>ショウヒ</t>
+    </rPh>
+    <rPh sb="37" eb="39">
+      <t>セイコウ</t>
+    </rPh>
+    <rPh sb="40" eb="43">
+      <t>ヒャクブンリツ</t>
+    </rPh>
+    <rPh sb="47" eb="49">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="59" eb="61">
+      <t>キノウ</t>
+    </rPh>
+    <rPh sb="70" eb="72">
+      <t>ヒツヨウ</t>
+    </rPh>
+    <rPh sb="80" eb="82">
+      <t>シュウセイ</t>
+    </rPh>
+    <rPh sb="84" eb="85">
+      <t>ネガ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>関連：58</t>
+    <rPh sb="0" eb="2">
+      <t>カンレン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>No48でスタンプ機能の廃止とありますが、計簿案_0907版_ver1.xlsxの基本機能シートのB15に記載がありますので、内容の削除をお願いしたいです。</t>
+    <rPh sb="9" eb="11">
+      <t>キノウ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ハイシ</t>
+    </rPh>
+    <rPh sb="53" eb="55">
+      <t>キサイ</t>
+    </rPh>
+    <rPh sb="63" eb="65">
+      <t>ナイヨウ</t>
+    </rPh>
+    <rPh sb="66" eb="68">
+      <t>サクジョ</t>
+    </rPh>
+    <rPh sb="70" eb="71">
+      <t>ネガ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>家計簿案_0907版_ver1.xlsxの機能概要（２）シートE5にある”詳細画面”の文言は、”詳細設定画面”のことでよかったですか？</t>
+    <rPh sb="43" eb="45">
+      <t>モンゴン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>設計（初期）</t>
+    <rPh sb="0" eb="2">
+      <t>セッケイ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ショキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>家計簿案_0907版_ver1.xlsxの機能概要（２）シートE28にある”入金情報を～”ですが、支出情報を入力した時は残高更新を行わないということでよかったですか？</t>
+    <rPh sb="38" eb="40">
+      <t>ニュウキン</t>
+    </rPh>
+    <rPh sb="40" eb="42">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="49" eb="51">
+      <t>シシュツ</t>
+    </rPh>
+    <rPh sb="51" eb="53">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="54" eb="56">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="58" eb="59">
+      <t>トキ</t>
+    </rPh>
+    <rPh sb="60" eb="62">
+      <t>ザンダカ</t>
+    </rPh>
+    <rPh sb="62" eb="64">
+      <t>コウシン</t>
+    </rPh>
+    <rPh sb="65" eb="66">
+      <t>オコナ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>設計（検索）</t>
+    <rPh sb="0" eb="2">
+      <t>セッケイ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ケンサク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>家計簿案_0907版_ver1.xlsxの機能概要（２）シートE37にある”入力画面”とは、”検索画面”のことで合っていますか？合っているのであれば文言の訂正をお願いしたいです。</t>
+    <rPh sb="38" eb="40">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="40" eb="42">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="47" eb="49">
+      <t>ケンサク</t>
+    </rPh>
+    <rPh sb="49" eb="51">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="56" eb="57">
+      <t>ア</t>
+    </rPh>
+    <rPh sb="64" eb="65">
+      <t>ア</t>
+    </rPh>
+    <rPh sb="74" eb="76">
+      <t>モンゴン</t>
+    </rPh>
+    <rPh sb="77" eb="79">
+      <t>テイセイ</t>
+    </rPh>
+    <rPh sb="81" eb="82">
+      <t>ネガ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>家計簿案_0907版_ver1.xlsxの機能概要（２）シートE39にある”登録したい金額”という文言は”検索したい金額”だと思われるので、文言の修正をお願いしたいです。</t>
+    <rPh sb="38" eb="40">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="43" eb="45">
+      <t>キンガク</t>
+    </rPh>
+    <rPh sb="49" eb="51">
+      <t>モンゴン</t>
+    </rPh>
+    <rPh sb="53" eb="55">
+      <t>ケンサク</t>
+    </rPh>
+    <rPh sb="58" eb="60">
+      <t>キンガク</t>
+    </rPh>
+    <rPh sb="63" eb="64">
+      <t>オモ</t>
+    </rPh>
+    <rPh sb="70" eb="72">
+      <t>モンゴン</t>
+    </rPh>
+    <rPh sb="73" eb="75">
+      <t>シュウセイ</t>
+    </rPh>
+    <rPh sb="77" eb="78">
+      <t>ネガ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>設計（一覧）</t>
+    <rPh sb="0" eb="2">
+      <t>セッケイ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>イチラン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>設計（詳細）</t>
+    <rPh sb="0" eb="2">
+      <t>セッケイ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ショウサイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>家計簿案_0907版_ver1.xlsxの機能概要（２）シートE71にある”直近１日前の残高から～”という文言ですが、これは直近１日前ではなく当月の収支に対する残高なのではないですか？必要であれば文言の修正をお願いしたいです。</t>
+    <rPh sb="38" eb="40">
+      <t>チョッキン</t>
+    </rPh>
+    <rPh sb="41" eb="43">
+      <t>ニチマエ</t>
+    </rPh>
+    <rPh sb="44" eb="46">
+      <t>ザンダカ</t>
+    </rPh>
+    <rPh sb="53" eb="55">
+      <t>モンゴン</t>
+    </rPh>
+    <rPh sb="62" eb="64">
+      <t>チョッキン</t>
+    </rPh>
+    <rPh sb="65" eb="67">
+      <t>ニチマエ</t>
+    </rPh>
+    <rPh sb="71" eb="73">
+      <t>トウゲツ</t>
+    </rPh>
+    <rPh sb="74" eb="76">
+      <t>シュウシ</t>
+    </rPh>
+    <rPh sb="77" eb="78">
+      <t>タイ</t>
+    </rPh>
+    <rPh sb="80" eb="82">
+      <t>ザンダカ</t>
+    </rPh>
+    <rPh sb="92" eb="94">
+      <t>ヒツヨウ</t>
+    </rPh>
+    <rPh sb="98" eb="100">
+      <t>モンゴン</t>
+    </rPh>
+    <rPh sb="101" eb="103">
+      <t>シュウセイ</t>
+    </rPh>
+    <rPh sb="105" eb="106">
+      <t>ネガ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>設計（DB）</t>
+    <rPh sb="0" eb="2">
+      <t>セッケイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>登録時の残高更新について、DBのリアル残高データを更新するであっていますか？
+DBのリアル残高データのデータの持ち方についての詳細説明を、登録画面の詳細設計書に記載お願いしたいです。（月ごと？日ごと？常にデータは１つ？同じ日にデータが２つ以上ある場合はどうなるか？等）</t>
+    <rPh sb="109" eb="110">
+      <t>オナ</t>
+    </rPh>
+    <rPh sb="111" eb="112">
+      <t>ヒ</t>
+    </rPh>
+    <rPh sb="119" eb="121">
+      <t>イジョウ</t>
+    </rPh>
+    <rPh sb="123" eb="125">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="132" eb="133">
+      <t>ナド</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>詳細設計書_20200908（登録画面）.xlsのイベント処理シートで、カテゴリや摘要やタグの新規登録の方法も記載してほしいです（絵も載せてほしいです）</t>
+    <rPh sb="29" eb="31">
+      <t>ショリ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>詳細設計書_20200908（登録画面）.xlsのイベント処理シートA68で摘要とタグは課金ユーザのみ新規登録可能とありますが、カテゴリはどうなりますか？その旨の記載も詳細設計書にお願いしたいです。</t>
+    <rPh sb="0" eb="2">
+      <t>ショウサイ</t>
+    </rPh>
+    <rPh sb="2" eb="5">
+      <t>セッケイショ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>ショリ</t>
+    </rPh>
+    <rPh sb="38" eb="40">
+      <t>テキヨウ</t>
+    </rPh>
+    <rPh sb="44" eb="46">
+      <t>カキン</t>
+    </rPh>
+    <rPh sb="51" eb="53">
+      <t>シンキ</t>
+    </rPh>
+    <rPh sb="53" eb="55">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="55" eb="57">
+      <t>カノウ</t>
+    </rPh>
+    <rPh sb="79" eb="80">
+      <t>ムネ</t>
+    </rPh>
+    <rPh sb="81" eb="83">
+      <t>キサイ</t>
+    </rPh>
+    <rPh sb="84" eb="89">
+      <t>ショウサイセッケイショ</t>
+    </rPh>
+    <rPh sb="91" eb="92">
+      <t>ネガ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>一応確認です。詳細設計書_20200908（登録画面）.xlsの画面項目シートで、金額、日付、カテゴリー名称、摘要名称が必須入力となっていますが、カテゴリーや摘要の未入力では登録は不可と捉えて宜しかったですか？</t>
+    <rPh sb="0" eb="2">
+      <t>イチオウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="32" eb="34">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="34" eb="36">
+      <t>コウモク</t>
+    </rPh>
+    <rPh sb="41" eb="43">
+      <t>キンガク</t>
+    </rPh>
+    <rPh sb="44" eb="46">
+      <t>ヒヅケ</t>
+    </rPh>
+    <rPh sb="52" eb="54">
+      <t>メイショウ</t>
+    </rPh>
+    <rPh sb="55" eb="57">
+      <t>テキヨウ</t>
+    </rPh>
+    <rPh sb="57" eb="59">
+      <t>メイショウ</t>
+    </rPh>
+    <rPh sb="60" eb="62">
+      <t>ヒッス</t>
+    </rPh>
+    <rPh sb="62" eb="64">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="79" eb="81">
+      <t>テキヨウ</t>
+    </rPh>
+    <rPh sb="82" eb="85">
+      <t>ミニュウリョク</t>
+    </rPh>
+    <rPh sb="87" eb="89">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="90" eb="92">
+      <t>フカ</t>
+    </rPh>
+    <rPh sb="93" eb="94">
+      <t>トラ</t>
+    </rPh>
+    <rPh sb="96" eb="97">
+      <t>ヨロ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>詳細設計書_20200908（詳細設定画面）.xlsのイベント処理シートA36の説明での”日付を選択すると日付欄に反映される”日付とは"2020/08"のことですか？
+また、その項目は選択可能ということですか？選択が可能であれば、選択時にはどういった画面になるか教えてほしいです。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>詳細設計書_20200908（詳細設定画面）.xlsのIO関連シートで、カテゴリーマスターの記載がありますが、詳細設定画面で必要ですか？必要な場合、説明をお願いしたいです。</t>
+    <rPh sb="55" eb="57">
+      <t>ショウサイ</t>
+    </rPh>
+    <rPh sb="57" eb="59">
+      <t>セッテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>”月初め設定”がDB上登録する箇所が無いように見受けられます。このままだと起動時に毎回初期化されると思いますが、設計の再検討をお願いします。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>詳細設計書_20200908（詳細設定画面）.xlsの画面項目シートで、”月初め”の桁数が60桁とかなり多い気がします。この桁数は必要でしょうか？</t>
+    <rPh sb="27" eb="29">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>コウモク</t>
+    </rPh>
+    <rPh sb="65" eb="67">
+      <t>ヒツヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>詳細設定画面にある”TOP”と”カレンダー”ボタンで遷移する画面は両方とも初期画面ですが、両方とも必要なボタンですか？</t>
+    <rPh sb="45" eb="47">
+      <t>リョウホウ</t>
+    </rPh>
+    <rPh sb="49" eb="51">
+      <t>ヒツヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>詳細設計書_20200908（初期画面).xlsのIO関連シートで、入出金カテゴリーテーブルの情報も必要かと思います（カレンダー押下でデータ参照可能な為）</t>
+    <rPh sb="27" eb="29">
+      <t>カンレン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>詳細設計書_20200908（初期画面).xlsのIO関連シートのI/O関連図に違和感があるので、見直しをお願いしたいです（初期画面➡当月残高とあるが、反映方法は無いはず）</t>
+    <rPh sb="36" eb="38">
+      <t>カンレン</t>
+    </rPh>
+    <rPh sb="38" eb="39">
+      <t>ズ</t>
+    </rPh>
+    <rPh sb="40" eb="43">
+      <t>イワカン</t>
+    </rPh>
+    <rPh sb="49" eb="51">
+      <t>ミナオ</t>
+    </rPh>
+    <rPh sb="54" eb="55">
+      <t>ネガ</t>
+    </rPh>
+    <rPh sb="62" eb="64">
+      <t>ショキ</t>
+    </rPh>
+    <rPh sb="64" eb="66">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="67" eb="69">
+      <t>トウゲツ</t>
+    </rPh>
+    <rPh sb="69" eb="71">
+      <t>ザンダカ</t>
+    </rPh>
+    <rPh sb="76" eb="78">
+      <t>ハンエイ</t>
+    </rPh>
+    <rPh sb="78" eb="80">
+      <t>ホウホウ</t>
+    </rPh>
+    <rPh sb="81" eb="82">
+      <t>ナ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>詳細設計書_20200908（初期画面).xlsのイベント処理シートE47で、”カテゴリーのレコードの金額の合算を表示”とあるが、カテゴリー毎の小計と捉えてしまうので、説明の修正をお願いしたいです。</t>
+    <rPh sb="29" eb="31">
+      <t>ショリ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>初期画面からカレンダー日付押下➡一覧画面遷移時、初期表示期間は”日”だと思いますが、そこから”週””月””年”を押下するとどうなりますか？抽出条件はどうなっていますか？（その日のみであれば、週・月・年を押下しても画面上に変化があるのは残高合計のみ？もしくは残高合計も変化なし？残高合計の変化の有る理由、もしくは変化の無い理由となる抽出条件はどのようになっていますか？）</t>
+    <rPh sb="26" eb="28">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>キカン</t>
+    </rPh>
+    <rPh sb="138" eb="140">
+      <t>ザンダカ</t>
+    </rPh>
+    <rPh sb="140" eb="142">
+      <t>ゴウケイ</t>
+    </rPh>
+    <rPh sb="143" eb="145">
+      <t>ヘンカ</t>
+    </rPh>
+    <rPh sb="146" eb="147">
+      <t>ア</t>
+    </rPh>
+    <rPh sb="148" eb="150">
+      <t>リユウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>”目標金額”の文言が何の目標の金額なのかイメージがつきにくいですが、文言はこのままでよいですか？（詳細設定画面も同様）</t>
+    <rPh sb="49" eb="51">
+      <t>ショウサイ</t>
+    </rPh>
+    <rPh sb="51" eb="53">
+      <t>セッテイ</t>
+    </rPh>
+    <rPh sb="53" eb="55">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="56" eb="58">
+      <t>ドウヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ある日に２つ以上データがある場合で、初期画面からカレンダーの日付をタップした場合も、カレンダー画面に遷移しますか？その際はその日のデータ全てを、一覧画面にて表示　という仕様の認識で合っていますか？</t>
+    <rPh sb="47" eb="49">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="50" eb="52">
+      <t>センイ</t>
+    </rPh>
+    <rPh sb="59" eb="60">
+      <t>サイ</t>
+    </rPh>
+    <rPh sb="63" eb="64">
+      <t>ヒ</t>
+    </rPh>
+    <rPh sb="68" eb="69">
+      <t>スベ</t>
+    </rPh>
+    <rPh sb="72" eb="74">
+      <t>イチラン</t>
+    </rPh>
+    <rPh sb="74" eb="76">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="78" eb="80">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="84" eb="86">
+      <t>シヨウ</t>
+    </rPh>
+    <rPh sb="87" eb="89">
+      <t>ニンシキ</t>
+    </rPh>
+    <rPh sb="90" eb="91">
+      <t>ア</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>既にデータがある日とデータの無い日でイメージ図のカレンダーからは区別はつきませんが、区別はつけないという認識で良かったですか？区別をつけるべきであれば、データのある日と無い日でのカレンダーの表示方法の提示をお願いしたいです。</t>
+    <rPh sb="0" eb="1">
+      <t>スデ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>ヒ</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>ナ</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>ヒ</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>ズ</t>
+    </rPh>
+    <rPh sb="32" eb="34">
+      <t>クベツ</t>
+    </rPh>
+    <rPh sb="42" eb="44">
+      <t>クベツ</t>
+    </rPh>
+    <rPh sb="52" eb="54">
+      <t>ニンシキ</t>
+    </rPh>
+    <rPh sb="55" eb="56">
+      <t>ヨ</t>
+    </rPh>
+    <rPh sb="63" eb="65">
+      <t>クベツ</t>
+    </rPh>
+    <rPh sb="82" eb="83">
+      <t>ヒ</t>
+    </rPh>
+    <rPh sb="84" eb="85">
+      <t>ナ</t>
+    </rPh>
+    <rPh sb="86" eb="87">
+      <t>ヒ</t>
+    </rPh>
+    <rPh sb="95" eb="97">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="97" eb="99">
+      <t>ホウホウ</t>
+    </rPh>
+    <rPh sb="100" eb="102">
+      <t>テイジ</t>
+    </rPh>
+    <rPh sb="104" eb="105">
+      <t>ネガ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>詳細設計書_20200908（検索画面）.xlsの画面項目シートで、”金額”は２つあるのではないでしょうか？〇〇　≦　〇〇　と、２ヶ所の入力項目がある？）もしそうであれば、内容の修正をお願いしたいです。</t>
+    <rPh sb="25" eb="29">
+      <t>ガメンコウモク</t>
+    </rPh>
+    <rPh sb="35" eb="37">
+      <t>キンガク</t>
+    </rPh>
+    <rPh sb="86" eb="88">
+      <t>ナイヨウ</t>
+    </rPh>
+    <rPh sb="89" eb="91">
+      <t>シュウセイ</t>
+    </rPh>
+    <rPh sb="93" eb="94">
+      <t>ネガ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>詳細設計書_20200908（検索画面）.xlsの画面項目シートで、カテゴリー名称、摘要名称、タグ名称は複数ではなく１つのみで合っていますか？
+（カテゴリ１とカテゴリ２の検索 等の、カテゴリ、摘要、タグの各項目複数検索は不可？）</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>日付設定で６日をタップ➡１２日をタップ➡１１日をタップ　とした場合、画面はどのようになりますか？</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>検索画面での日付欄は初期表示空白ですか？それとも本日の日付をyyyy/MM/dd ～yyyy/MM/dd と表示ですか？（画面イメージでは全て白紙の初期表示に見えます）</t>
+    <rPh sb="61" eb="63">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="69" eb="70">
+      <t>スベ</t>
+    </rPh>
+    <rPh sb="71" eb="73">
+      <t>ハクシ</t>
+    </rPh>
+    <rPh sb="74" eb="76">
+      <t>ショキ</t>
+    </rPh>
+    <rPh sb="76" eb="78">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="79" eb="80">
+      <t>ミ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>詳細設計書_20200908（検索画面）.xlsのイベント処理シートで、検索ボタン押下後の検索結果（一覧画面）は月単位での表示で合っていますか？B55の説明でその旨の記載もお願いしたいです。</t>
+    <rPh sb="29" eb="31">
+      <t>ショリ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>詳細設計書_20200908（検索画面）.xlsのイベント処理シートで、金額入力を11桁以上入力した場合の挙動はどうなりますか？その旨の記載もお願いしたいです。</t>
+    <rPh sb="66" eb="67">
+      <t>ムネ</t>
+    </rPh>
+    <rPh sb="68" eb="70">
+      <t>キサイ</t>
+    </rPh>
+    <rPh sb="72" eb="73">
+      <t>ネガ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>詳細設計書_20200908（検索画面）.xlsのイベント処理シートで、コメント入力を11桁以上入力した場合の挙動はどうなりますか？その旨の記載もお願いしたいです。</t>
+    <rPh sb="68" eb="69">
+      <t>ムネ</t>
+    </rPh>
+    <rPh sb="70" eb="72">
+      <t>キサイ</t>
+    </rPh>
+    <rPh sb="74" eb="75">
+      <t>ネガ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>画面（検索）</t>
+    <rPh sb="0" eb="2">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ケンサク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>詳細設計書_20200908（検索画面）.xlsの画面項目シートで、日付の桁数は10桁ですが、画面では”yyyy/MM/d”までしか表示されなくなりますので、　桁数の再設定をお願いします。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>詳細設計書_20200908（検索画面）.xlsの画面イメージシートの”日付設定”説明欄で、金額の項目に≦はないですが、通常”≦”は最初から表示されている（もしくはラベルなのか？）という認識でよかったですか？</t>
+    <rPh sb="25" eb="27">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="36" eb="38">
+      <t>ヒヅケ</t>
+    </rPh>
+    <rPh sb="38" eb="40">
+      <t>セッテイ</t>
+    </rPh>
+    <rPh sb="41" eb="43">
+      <t>セツメイ</t>
+    </rPh>
+    <rPh sb="43" eb="44">
+      <t>ラン</t>
+    </rPh>
+    <rPh sb="46" eb="48">
+      <t>キンガク</t>
+    </rPh>
+    <rPh sb="49" eb="51">
+      <t>コウモク</t>
+    </rPh>
+    <rPh sb="60" eb="62">
+      <t>ツウジョウ</t>
+    </rPh>
+    <rPh sb="66" eb="68">
+      <t>サイショ</t>
+    </rPh>
+    <rPh sb="70" eb="72">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="93" eb="95">
+      <t>ニンシキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>詳細設計書_20200908（検索画面）.xlsのイベント処理シートで、カテゴリ、摘要、タグのリストで空白”　”があるのであれば、その旨の記載もお願いしたいです。</t>
+    <rPh sb="29" eb="31">
+      <t>ショリ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>目標金額と月初めは入力可能で他項目（当月残高、当月支出、当月収入）は入力不可だと思われますが、レイアウト（色など）が全ての項目で同じなので、ユーザが混乱しないか懸念点として挙げさせて頂きます。（初期画面の目標金額や、支出概要にある当月残高も同様）</t>
+    <rPh sb="97" eb="99">
+      <t>ショキ</t>
+    </rPh>
+    <rPh sb="99" eb="101">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="102" eb="104">
+      <t>モクヒョウ</t>
+    </rPh>
+    <rPh sb="104" eb="106">
+      <t>キンガク</t>
+    </rPh>
+    <rPh sb="108" eb="110">
+      <t>シシュツ</t>
+    </rPh>
+    <rPh sb="110" eb="112">
+      <t>ガイヨウ</t>
+    </rPh>
+    <rPh sb="115" eb="117">
+      <t>トウゲツ</t>
+    </rPh>
+    <rPh sb="117" eb="119">
+      <t>ザンダカ</t>
+    </rPh>
+    <rPh sb="120" eb="122">
+      <t>ドウヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>中</t>
+    <rPh sb="0" eb="1">
+      <t>チュウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>詳細設計書_20200908（支出概要画面）.xlsのIO関連シートのI/O関連図で、グラフボタンがあるのは詳細設定だけではないので、修正が必要かと思います。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>詳細設計書_20200908（支出概要画面）.xlsのイベント処理シートで、グラフの色分けのルールについて明記をお願いしたいです。（配色や配色順について）</t>
+    <rPh sb="31" eb="33">
+      <t>ショリ</t>
+    </rPh>
+    <rPh sb="66" eb="68">
+      <t>ハイショク</t>
+    </rPh>
+    <rPh sb="69" eb="71">
+      <t>ハイショク</t>
+    </rPh>
+    <rPh sb="71" eb="72">
+      <t>ジュン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>支出概要画面イメージにある”食事代”は、テーブル定義書_ver1.3.xlsのカテゴリーマスタデータにある”食費”でよかったですか？もしそうであれば、画面イメージも”食費”に変更して頂きたいです（手間ですが…詳細設計書に存在しないカテゴリ名称の記載はしない方がいいのかなと思いました）</t>
+    <rPh sb="75" eb="77">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="83" eb="85">
+      <t>ショクヒ</t>
+    </rPh>
+    <rPh sb="87" eb="89">
+      <t>ヘンコウ</t>
+    </rPh>
+    <rPh sb="91" eb="92">
+      <t>イタダ</t>
+    </rPh>
+    <rPh sb="98" eb="100">
+      <t>テマ</t>
+    </rPh>
+    <rPh sb="104" eb="106">
+      <t>ショウサイ</t>
+    </rPh>
+    <rPh sb="106" eb="109">
+      <t>セッケイショ</t>
+    </rPh>
+    <rPh sb="110" eb="112">
+      <t>ソンザイ</t>
+    </rPh>
+    <rPh sb="119" eb="121">
+      <t>メイショウ</t>
+    </rPh>
+    <rPh sb="122" eb="124">
+      <t>キサイ</t>
+    </rPh>
+    <rPh sb="128" eb="129">
+      <t>ホウ</t>
+    </rPh>
+    <rPh sb="136" eb="137">
+      <t>オモ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>詳細設計書_20200908（支出概要画面）.xlsのイベント処理シートで、”当月残高”について詳細な説明がありませんので、記載をお願いします（入力できない＝イベントではない　ではなく、画面初期表示の際になにか動くのであれば、それもイベントです）</t>
+    <rPh sb="72" eb="74">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="93" eb="95">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="95" eb="97">
+      <t>ショキ</t>
+    </rPh>
+    <rPh sb="97" eb="99">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="100" eb="101">
+      <t>サイ</t>
+    </rPh>
+    <rPh sb="105" eb="106">
+      <t>ウゴ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>詳細設計書_20200908（詳細設定画面）.xlsのイベント処理シートで、”当月残高”、”当月支出”、”当月収入”の詳細な説明が無いので、説明の記載をお願いしたいです。（入力できない＝イベントではない　ではなく、画面初期表示の際になにか動くのであれば、それもイベントです）</t>
+    <rPh sb="31" eb="33">
+      <t>ショリ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>詳細設計書_20200908（支出概要画面）.xlsのイベント処理シートの" &lt; " " &gt; "押下時の処理についての説明がかなり不足していると思われます。日、週、月、年の表示の際にどうなるのか、その際の日付の表示はどうなっているのか等の記載をお願いしたいです。</t>
+    <rPh sb="48" eb="50">
+      <t>オウカ</t>
+    </rPh>
+    <rPh sb="50" eb="51">
+      <t>ジ</t>
+    </rPh>
+    <rPh sb="52" eb="54">
+      <t>ショリ</t>
+    </rPh>
+    <rPh sb="59" eb="61">
+      <t>セツメイ</t>
+    </rPh>
+    <rPh sb="65" eb="67">
+      <t>フソク</t>
+    </rPh>
+    <rPh sb="72" eb="73">
+      <t>オモ</t>
+    </rPh>
+    <rPh sb="78" eb="79">
+      <t>ヒ</t>
+    </rPh>
+    <rPh sb="80" eb="81">
+      <t>シュウ</t>
+    </rPh>
+    <rPh sb="82" eb="83">
+      <t>ツキ</t>
+    </rPh>
+    <rPh sb="84" eb="85">
+      <t>ネン</t>
+    </rPh>
+    <rPh sb="86" eb="88">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="89" eb="90">
+      <t>サイ</t>
+    </rPh>
+    <rPh sb="100" eb="101">
+      <t>サイ</t>
+    </rPh>
+    <rPh sb="102" eb="104">
+      <t>ヒヅケ</t>
+    </rPh>
+    <rPh sb="105" eb="107">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="117" eb="118">
+      <t>ナド</t>
+    </rPh>
+    <rPh sb="119" eb="121">
+      <t>キサイ</t>
+    </rPh>
+    <rPh sb="123" eb="124">
+      <t>ネガ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>詳細設計書_20200908（支出概要画面）.xlsのイベント処理シートB41で、”日付を選択すると日付欄に反映される”とありますが、”2020/08”等の表示部分を選択すると日付欄に反映される　という意味ですか？（B47も同様で”日付を選択すると”というのはどういう意味ですか？）</t>
+    <rPh sb="42" eb="44">
+      <t>ヒヅケ</t>
+    </rPh>
+    <rPh sb="45" eb="47">
+      <t>センタク</t>
+    </rPh>
+    <rPh sb="50" eb="52">
+      <t>ヒヅケ</t>
+    </rPh>
+    <rPh sb="52" eb="53">
+      <t>ラン</t>
+    </rPh>
+    <rPh sb="54" eb="56">
+      <t>ハンエイ</t>
+    </rPh>
+    <rPh sb="76" eb="77">
+      <t>ナド</t>
+    </rPh>
+    <rPh sb="78" eb="80">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="80" eb="82">
+      <t>ブブン</t>
+    </rPh>
+    <rPh sb="83" eb="85">
+      <t>センタク</t>
+    </rPh>
+    <rPh sb="88" eb="90">
+      <t>ヒヅケ</t>
+    </rPh>
+    <rPh sb="90" eb="91">
+      <t>ラン</t>
+    </rPh>
+    <rPh sb="92" eb="94">
+      <t>ハンエイ</t>
+    </rPh>
+    <rPh sb="101" eb="103">
+      <t>イミ</t>
+    </rPh>
+    <rPh sb="112" eb="114">
+      <t>ドウヨウ</t>
+    </rPh>
+    <rPh sb="116" eb="118">
+      <t>ヒヅケ</t>
+    </rPh>
+    <rPh sb="119" eb="121">
+      <t>センタク</t>
+    </rPh>
+    <rPh sb="134" eb="136">
+      <t>イミ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>詳細設計書_20200908（支出概要画面）.xlsのイベント処理シートの検索画面の説明は”遷移する”、＋ボタンの説明は”起動する”となっていますが、遷移と起動でなにか違いはありますか？あるならそれを明記して頂きたいです。無い場合は文言を”遷移”に統一した方が良いかと思います。</t>
+    <rPh sb="37" eb="39">
+      <t>ケンサク</t>
+    </rPh>
+    <rPh sb="39" eb="41">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="42" eb="44">
+      <t>セツメイ</t>
+    </rPh>
+    <rPh sb="46" eb="48">
+      <t>センイ</t>
+    </rPh>
+    <rPh sb="57" eb="59">
+      <t>セツメイ</t>
+    </rPh>
+    <rPh sb="61" eb="63">
+      <t>キドウ</t>
+    </rPh>
+    <rPh sb="75" eb="77">
+      <t>センイ</t>
+    </rPh>
+    <rPh sb="78" eb="80">
+      <t>キドウ</t>
+    </rPh>
+    <rPh sb="84" eb="85">
+      <t>チガ</t>
+    </rPh>
+    <rPh sb="100" eb="102">
+      <t>メイキ</t>
+    </rPh>
+    <rPh sb="104" eb="105">
+      <t>イタダ</t>
+    </rPh>
+    <rPh sb="111" eb="112">
+      <t>ナ</t>
+    </rPh>
+    <rPh sb="113" eb="115">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="116" eb="118">
+      <t>モンゴン</t>
+    </rPh>
+    <rPh sb="120" eb="122">
+      <t>センイ</t>
+    </rPh>
+    <rPh sb="124" eb="126">
+      <t>トウイツ</t>
+    </rPh>
+    <rPh sb="128" eb="129">
+      <t>ホウ</t>
+    </rPh>
+    <rPh sb="130" eb="131">
+      <t>ヨ</t>
+    </rPh>
+    <rPh sb="134" eb="135">
+      <t>オモ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>詳細設計書_20200908（支出概要画面）.xlsのイベント処理シートで支出カテゴリー一覧表示についての説明が無いので、説明の記載をお願いしたいです。</t>
+    <rPh sb="37" eb="39">
+      <t>シシュツ</t>
+    </rPh>
+    <rPh sb="44" eb="46">
+      <t>イチラン</t>
+    </rPh>
+    <rPh sb="46" eb="48">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="53" eb="55">
+      <t>セツメイ</t>
+    </rPh>
+    <rPh sb="56" eb="57">
+      <t>ナ</t>
+    </rPh>
+    <rPh sb="61" eb="63">
+      <t>セツメイ</t>
+    </rPh>
+    <rPh sb="64" eb="66">
+      <t>キサイ</t>
+    </rPh>
+    <rPh sb="68" eb="69">
+      <t>ネガ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>詳細設計書_20200908（一覧画面）.xlsのIO関連シートのI/O関連図で、一覧画面に遷移できるのは検索画面からのみという認識で良かったですか？</t>
+    <rPh sb="27" eb="29">
+      <t>カンレン</t>
+    </rPh>
+    <rPh sb="36" eb="38">
+      <t>カンレン</t>
+    </rPh>
+    <rPh sb="38" eb="39">
+      <t>ズ</t>
+    </rPh>
+    <rPh sb="41" eb="43">
+      <t>イチラン</t>
+    </rPh>
+    <rPh sb="43" eb="45">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="46" eb="48">
+      <t>センイ</t>
+    </rPh>
+    <rPh sb="53" eb="55">
+      <t>ケンサク</t>
+    </rPh>
+    <rPh sb="55" eb="57">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="64" eb="66">
+      <t>ニンシキ</t>
+    </rPh>
+    <rPh sb="67" eb="68">
+      <t>ヨ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>詳細設計書_20200908（支出概要画面）.xlsのイベント処理シートB38で、”入力画面”という文言がありますが、”支出概要画面から初期画面へ遷移する”が正しいと思いますので、修正をお願いしたいです</t>
+    <rPh sb="42" eb="44">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="44" eb="46">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="50" eb="52">
+      <t>モンゴン</t>
+    </rPh>
+    <rPh sb="60" eb="62">
+      <t>シシュツ</t>
+    </rPh>
+    <rPh sb="62" eb="64">
+      <t>ガイヨウ</t>
+    </rPh>
+    <rPh sb="64" eb="66">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="68" eb="70">
+      <t>ショキ</t>
+    </rPh>
+    <rPh sb="70" eb="72">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="73" eb="75">
+      <t>センイ</t>
+    </rPh>
+    <rPh sb="79" eb="80">
+      <t>タダ</t>
+    </rPh>
+    <rPh sb="83" eb="84">
+      <t>オモ</t>
+    </rPh>
+    <rPh sb="90" eb="92">
+      <t>シュウセイ</t>
+    </rPh>
+    <rPh sb="94" eb="95">
+      <t>ネガ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>詳細設計書_20200908（検索画面）.xlsのイベント処理シートB37で、”入力画面”という文言がありますが、”検索画面から初期画面へ遷移する”が正しいと思いますので、修正をお願いしたいです（家計簿案_0907版_ver2.xlsxの機能概要（２）シートも同様）</t>
+    <rPh sb="15" eb="17">
+      <t>ケンサク</t>
+    </rPh>
+    <rPh sb="58" eb="60">
+      <t>ケンサク</t>
+    </rPh>
+    <rPh sb="130" eb="132">
+      <t>ドウヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>詳細設計書_20200908（検索画面）.xlsのイベント処理シートB37で、”入力画面から初期画面へ遷移する”という文言がありますが、”登録画面から初期画面へ遷移する”が正しいと思いますので、修正をお願いしたいです（家計簿案_0907版_ver2.xlsxの機能概要（２）シートも同様）</t>
+    <rPh sb="46" eb="48">
+      <t>ショキ</t>
+    </rPh>
+    <rPh sb="48" eb="50">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="51" eb="53">
+      <t>センイ</t>
+    </rPh>
+    <rPh sb="69" eb="71">
+      <t>トウロク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>詳細設計書_20200908（一覧画面）.xlsの画面項目シートで、”支出一覧”とは何か、詳細な仕様の明記をお願いしたいです。</t>
+    <rPh sb="25" eb="27">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>コウモク</t>
+    </rPh>
+    <rPh sb="35" eb="37">
+      <t>シシュツ</t>
+    </rPh>
+    <rPh sb="37" eb="39">
+      <t>イチラン</t>
+    </rPh>
+    <rPh sb="42" eb="43">
+      <t>ナニ</t>
+    </rPh>
+    <rPh sb="45" eb="47">
+      <t>ショウサイ</t>
+    </rPh>
+    <rPh sb="48" eb="50">
+      <t>シヨウ</t>
+    </rPh>
+    <rPh sb="51" eb="53">
+      <t>メイキ</t>
+    </rPh>
+    <rPh sb="55" eb="56">
+      <t>ネガ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>詳細設計書_20200908（一覧画面）.xlsのイベント処理シートB38で、”入力画面”という文言がありますが、”一覧画面から初期画面へ遷移する”が正しいと思いますので、修正をお願いしたいです</t>
+    <rPh sb="15" eb="17">
+      <t>イチラン</t>
+    </rPh>
+    <rPh sb="58" eb="60">
+      <t>イチラン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>詳細設計書_20200908（一覧画面）.xlsのイベント処理シート”②戻るを押下”で、”（検索画面から一覧画面を表示した場合）”とありますが、他の場合もあれば全て記載をお願いします。</t>
+    <rPh sb="36" eb="37">
+      <t>モド</t>
+    </rPh>
+    <rPh sb="39" eb="41">
+      <t>オウカ</t>
+    </rPh>
+    <rPh sb="46" eb="48">
+      <t>ケンサク</t>
+    </rPh>
+    <rPh sb="48" eb="50">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="52" eb="54">
+      <t>イチラン</t>
+    </rPh>
+    <rPh sb="54" eb="56">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="57" eb="59">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="61" eb="63">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="72" eb="73">
+      <t>ホカ</t>
+    </rPh>
+    <rPh sb="74" eb="76">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="80" eb="81">
+      <t>スベ</t>
+    </rPh>
+    <rPh sb="82" eb="84">
+      <t>キサイ</t>
+    </rPh>
+    <rPh sb="86" eb="87">
+      <t>ネガ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>詳細設計書_20200908（一覧画面）.xlsのイベント処理シート”②戻るを押下”で、”日付を選択すると日付欄に反映される”とありますが、画面上のどの項目のことですか？</t>
+    <rPh sb="45" eb="47">
+      <t>ヒヅケ</t>
+    </rPh>
+    <rPh sb="48" eb="50">
+      <t>センタク</t>
+    </rPh>
+    <rPh sb="53" eb="55">
+      <t>ヒヅケ</t>
+    </rPh>
+    <rPh sb="55" eb="56">
+      <t>ラン</t>
+    </rPh>
+    <rPh sb="57" eb="59">
+      <t>ハンエイ</t>
+    </rPh>
+    <rPh sb="70" eb="73">
+      <t>ガメンジョウ</t>
+    </rPh>
+    <rPh sb="76" eb="78">
+      <t>コウモク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>家計簿案_0907版_ver1.xlsxの機能概要（２）シートE46にある”CSVファイルで出力する”ですが、CSVファイルのレイアウトの提示と詳細設計書にも明記をお願いしたいです。</t>
+    <rPh sb="46" eb="48">
+      <t>シュツリョク</t>
+    </rPh>
+    <rPh sb="69" eb="71">
+      <t>テイジ</t>
+    </rPh>
+    <rPh sb="72" eb="74">
+      <t>ショウサイ</t>
+    </rPh>
+    <rPh sb="74" eb="77">
+      <t>セッケイショ</t>
+    </rPh>
+    <rPh sb="79" eb="81">
+      <t>メイキ</t>
+    </rPh>
+    <rPh sb="83" eb="84">
+      <t>ネガ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>詳細設計書_20200908（一覧画面）.xlsのイベント処理シート”④ &lt; を押下”の説明で、日付を選択すると日付欄に反映されるとありますが、画面上部にある”2020/08”を押下できるという意味ですか？押下した場合の処理としては、どのようになりますか？</t>
+    <rPh sb="44" eb="46">
+      <t>セツメイ</t>
+    </rPh>
+    <rPh sb="48" eb="50">
+      <t>ヒヅケ</t>
+    </rPh>
+    <rPh sb="51" eb="53">
+      <t>センタク</t>
+    </rPh>
+    <rPh sb="56" eb="58">
+      <t>ヒヅケ</t>
+    </rPh>
+    <rPh sb="58" eb="59">
+      <t>ラン</t>
+    </rPh>
+    <rPh sb="60" eb="62">
+      <t>ハンエイ</t>
+    </rPh>
+    <rPh sb="72" eb="74">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="74" eb="76">
+      <t>ジョウブ</t>
+    </rPh>
+    <rPh sb="89" eb="91">
+      <t>オウカ</t>
+    </rPh>
+    <rPh sb="97" eb="99">
+      <t>イミ</t>
+    </rPh>
+    <rPh sb="103" eb="105">
+      <t>オウカ</t>
+    </rPh>
+    <rPh sb="107" eb="109">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="110" eb="112">
+      <t>ショリ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>一覧画面上部にある” &lt; 2020/08 &gt;”の表示欄は、日・週・月・年の４パターンでどう変化するのか、詳細設計書に明記をお願いしたいです。</t>
+    <rPh sb="0" eb="2">
+      <t>イチラン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ジョウブ</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="26" eb="27">
+      <t>ラン</t>
+    </rPh>
+    <rPh sb="29" eb="30">
+      <t>ヒ</t>
+    </rPh>
+    <rPh sb="31" eb="32">
+      <t>シュウ</t>
+    </rPh>
+    <rPh sb="33" eb="34">
+      <t>ツキ</t>
+    </rPh>
+    <rPh sb="35" eb="36">
+      <t>ネン</t>
+    </rPh>
+    <rPh sb="45" eb="47">
+      <t>ヘンカ</t>
+    </rPh>
+    <rPh sb="52" eb="54">
+      <t>ショウサイ</t>
+    </rPh>
+    <rPh sb="54" eb="57">
+      <t>セッケイショ</t>
+    </rPh>
+    <rPh sb="58" eb="60">
+      <t>メイキ</t>
+    </rPh>
+    <rPh sb="62" eb="63">
+      <t>ネガ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>詳細設計書_20200908（一覧画面）.xlsのイベント処理シート”⑥タブ切替ボタンを押下”の説明で”支出合計金額を表示する”とありますが、どのような表示になるのかレイアウトの提示をお願いしたいです。</t>
+    <rPh sb="38" eb="40">
+      <t>キリカエ</t>
+    </rPh>
+    <rPh sb="52" eb="54">
+      <t>シシュツ</t>
+    </rPh>
+    <rPh sb="54" eb="56">
+      <t>ゴウケイ</t>
+    </rPh>
+    <rPh sb="56" eb="58">
+      <t>キンガク</t>
+    </rPh>
+    <rPh sb="59" eb="61">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="76" eb="78">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="89" eb="91">
+      <t>テイジ</t>
+    </rPh>
+    <rPh sb="93" eb="94">
+      <t>ネガ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>詳細設計書_20200908（一覧画面）.xlsのイベント処理シート”⑦タブ切替ボタンを押下”の説明で”残高合計金額を表示する”とありますが、どのような表示になるのかレイアウトの提示をお願いしたいです。</t>
+    <rPh sb="52" eb="54">
+      <t>ザンダカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>詳細設計書_20200908（一覧画面）.xlsのイベント処理シート”⑧該当データを押下”の説明で、該当データとはどのようなデータが表示されているのかもっと詳細な説明をお願いしたいです。（支出概要画面もそうでしたが、画面イメージに表示されている全ての項目を拾い切れていません。左部の\1,000とその隣にある項目/項目/項目…とは何か、グレーゾーンにある日付や金額\1,000とはなんなのか、しっかり詳細設計書の方では全て明記して下さい）</t>
+    <rPh sb="36" eb="38">
+      <t>ガイトウ</t>
+    </rPh>
+    <rPh sb="42" eb="44">
+      <t>オウカ</t>
+    </rPh>
+    <rPh sb="50" eb="52">
+      <t>ガイトウ</t>
+    </rPh>
+    <rPh sb="66" eb="68">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="78" eb="80">
+      <t>ショウサイ</t>
+    </rPh>
+    <rPh sb="81" eb="83">
+      <t>セツメイ</t>
+    </rPh>
+    <rPh sb="85" eb="86">
+      <t>ネガ</t>
+    </rPh>
+    <rPh sb="94" eb="96">
+      <t>シシュツ</t>
+    </rPh>
+    <rPh sb="96" eb="98">
+      <t>ガイヨウ</t>
+    </rPh>
+    <rPh sb="98" eb="100">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="108" eb="110">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="115" eb="117">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="122" eb="123">
+      <t>スベ</t>
+    </rPh>
+    <rPh sb="125" eb="127">
+      <t>コウモク</t>
+    </rPh>
+    <rPh sb="128" eb="129">
+      <t>ヒロ</t>
+    </rPh>
+    <rPh sb="130" eb="131">
+      <t>キ</t>
+    </rPh>
+    <rPh sb="138" eb="140">
+      <t>サブ</t>
+    </rPh>
+    <rPh sb="150" eb="151">
+      <t>トナリ</t>
+    </rPh>
+    <rPh sb="154" eb="156">
+      <t>コウモク</t>
+    </rPh>
+    <rPh sb="157" eb="159">
+      <t>コウモク</t>
+    </rPh>
+    <rPh sb="160" eb="162">
+      <t>コウモク</t>
+    </rPh>
+    <rPh sb="165" eb="166">
+      <t>ナニ</t>
+    </rPh>
+    <rPh sb="177" eb="179">
+      <t>ヒヅケ</t>
+    </rPh>
+    <rPh sb="180" eb="182">
+      <t>キンガク</t>
+    </rPh>
+    <rPh sb="200" eb="202">
+      <t>ショウサイ</t>
+    </rPh>
+    <rPh sb="202" eb="205">
+      <t>セッケイショ</t>
+    </rPh>
+    <rPh sb="206" eb="207">
+      <t>ホウ</t>
+    </rPh>
+    <rPh sb="209" eb="210">
+      <t>スベ</t>
+    </rPh>
+    <rPh sb="211" eb="213">
+      <t>メイキ</t>
+    </rPh>
+    <rPh sb="215" eb="216">
+      <t>クダ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>詳細設計書_20200908（一覧画面）.xlsのイベント処理シート”⑥タブ切替ボタンを押下”の説明にある支出合計ですが、画面上の全ての支出の合計を表示する　という認識で合っていますか？それは日・週・月・年も同様ですか？詳細設計書にその旨の記載をお願いしたいです。</t>
+    <rPh sb="38" eb="40">
+      <t>キリカエ</t>
+    </rPh>
+    <rPh sb="53" eb="55">
+      <t>シシュツ</t>
+    </rPh>
+    <rPh sb="55" eb="57">
+      <t>ゴウケイ</t>
+    </rPh>
+    <rPh sb="61" eb="64">
+      <t>ガメンジョウ</t>
+    </rPh>
+    <rPh sb="65" eb="66">
+      <t>スベ</t>
+    </rPh>
+    <rPh sb="68" eb="70">
+      <t>シシュツ</t>
+    </rPh>
+    <rPh sb="71" eb="73">
+      <t>ゴウケイ</t>
+    </rPh>
+    <rPh sb="74" eb="76">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="82" eb="84">
+      <t>ニンシキ</t>
+    </rPh>
+    <rPh sb="85" eb="86">
+      <t>ア</t>
+    </rPh>
+    <rPh sb="96" eb="97">
+      <t>ヒ</t>
+    </rPh>
+    <rPh sb="98" eb="99">
+      <t>シュウ</t>
+    </rPh>
+    <rPh sb="100" eb="101">
+      <t>ツキ</t>
+    </rPh>
+    <rPh sb="102" eb="103">
+      <t>ネン</t>
+    </rPh>
+    <rPh sb="104" eb="106">
+      <t>ドウヨウ</t>
+    </rPh>
+    <rPh sb="110" eb="115">
+      <t>ショウサイセッケイショ</t>
+    </rPh>
+    <rPh sb="118" eb="119">
+      <t>ムネ</t>
+    </rPh>
+    <rPh sb="120" eb="122">
+      <t>キサイ</t>
+    </rPh>
+    <rPh sb="124" eb="125">
+      <t>ネガ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>詳細設計書_20200908（一覧画面）.xlsのイベント処理シート”⑦タブ切替ボタンを押下”の説明にある残高合計ですが、一覧画面上に収入が無い場合は残高合計はマイナス表記になるという仕様の認識で合っていますか？単純に一覧画面上の検索結果で、収入と支出の差を表示するという認識で合っていますか？（もしそうであれば”残高合計”という文言に違和感があります）
+認識が間違っていた場合は残高合計について詳細な説明と、詳細設計書にも明記をお願いしたいです。</t>
+    <rPh sb="53" eb="55">
+      <t>ザンダカ</t>
+    </rPh>
+    <rPh sb="61" eb="63">
+      <t>イチラン</t>
+    </rPh>
+    <rPh sb="63" eb="65">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="65" eb="66">
+      <t>ジョウ</t>
+    </rPh>
+    <rPh sb="67" eb="69">
+      <t>シュウニュウ</t>
+    </rPh>
+    <rPh sb="70" eb="71">
+      <t>ナ</t>
+    </rPh>
+    <rPh sb="72" eb="74">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="75" eb="77">
+      <t>ザンダカ</t>
+    </rPh>
+    <rPh sb="77" eb="79">
+      <t>ゴウケイ</t>
+    </rPh>
+    <rPh sb="84" eb="86">
+      <t>ヒョウキ</t>
+    </rPh>
+    <rPh sb="92" eb="94">
+      <t>シヨウ</t>
+    </rPh>
+    <rPh sb="95" eb="97">
+      <t>ニンシキ</t>
+    </rPh>
+    <rPh sb="98" eb="99">
+      <t>ア</t>
+    </rPh>
+    <rPh sb="106" eb="108">
+      <t>タンジュン</t>
+    </rPh>
+    <rPh sb="109" eb="111">
+      <t>イチラン</t>
+    </rPh>
+    <rPh sb="111" eb="113">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="113" eb="114">
+      <t>ジョウ</t>
+    </rPh>
+    <rPh sb="115" eb="117">
+      <t>ケンサク</t>
+    </rPh>
+    <rPh sb="117" eb="119">
+      <t>ケッカ</t>
+    </rPh>
+    <rPh sb="121" eb="123">
+      <t>シュウニュウ</t>
+    </rPh>
+    <rPh sb="124" eb="126">
+      <t>シシュツ</t>
+    </rPh>
+    <rPh sb="127" eb="128">
+      <t>サ</t>
+    </rPh>
+    <rPh sb="129" eb="131">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="136" eb="138">
+      <t>ニンシキ</t>
+    </rPh>
+    <rPh sb="139" eb="140">
+      <t>ア</t>
+    </rPh>
+    <rPh sb="157" eb="159">
+      <t>ザンダカ</t>
+    </rPh>
+    <rPh sb="159" eb="161">
+      <t>ゴウケイ</t>
+    </rPh>
+    <rPh sb="165" eb="167">
+      <t>モンゴン</t>
+    </rPh>
+    <rPh sb="168" eb="171">
+      <t>イワカン</t>
+    </rPh>
+    <rPh sb="178" eb="180">
+      <t>ニンシキ</t>
+    </rPh>
+    <rPh sb="181" eb="183">
+      <t>マチガ</t>
+    </rPh>
+    <rPh sb="187" eb="189">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="190" eb="194">
+      <t>ザンダカゴウケイ</t>
+    </rPh>
+    <rPh sb="198" eb="200">
+      <t>ショウサイ</t>
+    </rPh>
+    <rPh sb="201" eb="203">
+      <t>セツメイ</t>
+    </rPh>
+    <rPh sb="205" eb="207">
+      <t>ショウサイ</t>
+    </rPh>
+    <rPh sb="207" eb="210">
+      <t>セッケイショ</t>
+    </rPh>
+    <rPh sb="212" eb="214">
+      <t>メイキ</t>
+    </rPh>
+    <rPh sb="216" eb="217">
+      <t>ネガ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3384,14 +5213,7 @@
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="4">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="3">
     <dxf>
       <fill>
         <patternFill>
@@ -3427,7 +5249,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office テーマ">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -3727,7 +5549,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="9" style="2"/>
     <col min="2" max="2" width="9" style="3"/>
@@ -3736,12 +5558,12 @@
     <col min="11" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="19.5" thickBot="1">
+    <row r="1" spans="1:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:10" s="3" customFormat="1">
+    <row r="2" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
@@ -3761,7 +5583,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:10">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.4">
       <c r="B3" s="8" t="s">
         <v>5</v>
       </c>
@@ -3778,7 +5600,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:10">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.4">
       <c r="B4" s="8" t="s">
         <v>8</v>
       </c>
@@ -3795,7 +5617,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:10">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.4">
       <c r="B5" s="8" t="s">
         <v>10</v>
       </c>
@@ -3812,7 +5634,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:10">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.4">
       <c r="B6" s="8" t="s">
         <v>13</v>
       </c>
@@ -3829,7 +5651,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="1:10">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.4">
       <c r="B7" s="8"/>
       <c r="C7" s="18"/>
       <c r="D7" s="18"/>
@@ -3840,7 +5662,7 @@
       <c r="I7" s="18"/>
       <c r="J7" s="6"/>
     </row>
-    <row r="8" spans="1:10">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.4">
       <c r="B8" s="8"/>
       <c r="C8" s="18"/>
       <c r="D8" s="18"/>
@@ -3851,7 +5673,7 @@
       <c r="I8" s="18"/>
       <c r="J8" s="6"/>
     </row>
-    <row r="9" spans="1:10">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.4">
       <c r="B9" s="8"/>
       <c r="C9" s="18"/>
       <c r="D9" s="18"/>
@@ -3862,7 +5684,7 @@
       <c r="I9" s="18"/>
       <c r="J9" s="6"/>
     </row>
-    <row r="10" spans="1:10">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.4">
       <c r="B10" s="8"/>
       <c r="C10" s="18"/>
       <c r="D10" s="18"/>
@@ -3873,7 +5695,7 @@
       <c r="I10" s="18"/>
       <c r="J10" s="6"/>
     </row>
-    <row r="11" spans="1:10">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.4">
       <c r="B11" s="8"/>
       <c r="C11" s="18"/>
       <c r="D11" s="18"/>
@@ -3884,7 +5706,7 @@
       <c r="I11" s="18"/>
       <c r="J11" s="6"/>
     </row>
-    <row r="12" spans="1:10">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.4">
       <c r="B12" s="8"/>
       <c r="C12" s="18"/>
       <c r="D12" s="18"/>
@@ -3895,7 +5717,7 @@
       <c r="I12" s="18"/>
       <c r="J12" s="6"/>
     </row>
-    <row r="13" spans="1:10">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.4">
       <c r="B13" s="8"/>
       <c r="C13" s="18"/>
       <c r="D13" s="18"/>
@@ -3906,7 +5728,7 @@
       <c r="I13" s="18"/>
       <c r="J13" s="6"/>
     </row>
-    <row r="14" spans="1:10">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.4">
       <c r="B14" s="8"/>
       <c r="C14" s="18"/>
       <c r="D14" s="18"/>
@@ -3917,7 +5739,7 @@
       <c r="I14" s="18"/>
       <c r="J14" s="6"/>
     </row>
-    <row r="15" spans="1:10">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.4">
       <c r="B15" s="8"/>
       <c r="C15" s="18"/>
       <c r="D15" s="18"/>
@@ -3928,7 +5750,7 @@
       <c r="I15" s="18"/>
       <c r="J15" s="6"/>
     </row>
-    <row r="16" spans="1:10">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.4">
       <c r="B16" s="8"/>
       <c r="C16" s="18"/>
       <c r="D16" s="18"/>
@@ -3939,7 +5761,7 @@
       <c r="I16" s="18"/>
       <c r="J16" s="6"/>
     </row>
-    <row r="17" spans="2:10">
+    <row r="17" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B17" s="8"/>
       <c r="C17" s="18"/>
       <c r="D17" s="18"/>
@@ -3950,7 +5772,7 @@
       <c r="I17" s="18"/>
       <c r="J17" s="6"/>
     </row>
-    <row r="18" spans="2:10">
+    <row r="18" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B18" s="8"/>
       <c r="C18" s="18"/>
       <c r="D18" s="18"/>
@@ -3961,7 +5783,7 @@
       <c r="I18" s="18"/>
       <c r="J18" s="6"/>
     </row>
-    <row r="19" spans="2:10">
+    <row r="19" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B19" s="8"/>
       <c r="C19" s="18"/>
       <c r="D19" s="18"/>
@@ -3972,7 +5794,7 @@
       <c r="I19" s="18"/>
       <c r="J19" s="6"/>
     </row>
-    <row r="20" spans="2:10">
+    <row r="20" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B20" s="8"/>
       <c r="C20" s="18"/>
       <c r="D20" s="18"/>
@@ -3983,7 +5805,7 @@
       <c r="I20" s="18"/>
       <c r="J20" s="6"/>
     </row>
-    <row r="21" spans="2:10">
+    <row r="21" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B21" s="8"/>
       <c r="C21" s="18"/>
       <c r="D21" s="18"/>
@@ -3994,7 +5816,7 @@
       <c r="I21" s="18"/>
       <c r="J21" s="6"/>
     </row>
-    <row r="22" spans="2:10">
+    <row r="22" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B22" s="8"/>
       <c r="C22" s="18"/>
       <c r="D22" s="18"/>
@@ -4005,7 +5827,7 @@
       <c r="I22" s="18"/>
       <c r="J22" s="6"/>
     </row>
-    <row r="23" spans="2:10">
+    <row r="23" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B23" s="8"/>
       <c r="C23" s="18"/>
       <c r="D23" s="18"/>
@@ -4016,7 +5838,7 @@
       <c r="I23" s="18"/>
       <c r="J23" s="6"/>
     </row>
-    <row r="24" spans="2:10">
+    <row r="24" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B24" s="8"/>
       <c r="C24" s="18"/>
       <c r="D24" s="18"/>
@@ -4027,7 +5849,7 @@
       <c r="I24" s="18"/>
       <c r="J24" s="6"/>
     </row>
-    <row r="25" spans="2:10" ht="19.5" thickBot="1">
+    <row r="25" spans="2:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B25" s="9"/>
       <c r="C25" s="19"/>
       <c r="D25" s="19"/>
@@ -4073,14 +5895,14 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="B2:M78"/>
+  <dimension ref="B2:M132"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A55" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C57" sqref="C57"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A53" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E56" sqref="E56"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="18.75"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="1.875" customWidth="1"/>
     <col min="3" max="3" width="10.125" style="13" bestFit="1" customWidth="1"/>
@@ -4097,7 +5919,7 @@
     <col min="14" max="14" width="3.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:13" s="13" customFormat="1">
+    <row r="2" spans="2:13" s="13" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B2" s="15" t="s">
         <v>16</v>
       </c>
@@ -4135,7 +5957,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="3" spans="2:13" ht="56.25">
+    <row r="3" spans="2:13" ht="56.25" x14ac:dyDescent="0.4">
       <c r="B3" s="1">
         <v>1</v>
       </c>
@@ -4169,7 +5991,7 @@
       </c>
       <c r="M3" s="1"/>
     </row>
-    <row r="4" spans="2:13" ht="75">
+    <row r="4" spans="2:13" ht="75" x14ac:dyDescent="0.4">
       <c r="B4" s="1">
         <v>2</v>
       </c>
@@ -4203,7 +6025,7 @@
       </c>
       <c r="M4" s="1"/>
     </row>
-    <row r="5" spans="2:13" ht="56.25">
+    <row r="5" spans="2:13" ht="56.25" x14ac:dyDescent="0.4">
       <c r="B5" s="1">
         <v>3</v>
       </c>
@@ -4237,7 +6059,7 @@
       </c>
       <c r="M5" s="1"/>
     </row>
-    <row r="6" spans="2:13" ht="75">
+    <row r="6" spans="2:13" ht="75" x14ac:dyDescent="0.4">
       <c r="B6" s="1">
         <v>4</v>
       </c>
@@ -4273,7 +6095,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="7" spans="2:13" ht="56.25">
+    <row r="7" spans="2:13" ht="56.25" x14ac:dyDescent="0.4">
       <c r="B7" s="1">
         <v>5</v>
       </c>
@@ -4309,7 +6131,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="8" spans="2:13" ht="75">
+    <row r="8" spans="2:13" ht="75" x14ac:dyDescent="0.4">
       <c r="B8" s="1">
         <v>6</v>
       </c>
@@ -4345,7 +6167,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="9" spans="2:13" ht="37.5">
+    <row r="9" spans="2:13" ht="37.5" x14ac:dyDescent="0.4">
       <c r="B9" s="1">
         <v>7</v>
       </c>
@@ -4377,7 +6199,7 @@
       </c>
       <c r="M9" s="1"/>
     </row>
-    <row r="10" spans="2:13" ht="56.25">
+    <row r="10" spans="2:13" ht="56.25" x14ac:dyDescent="0.4">
       <c r="B10" s="1">
         <v>8</v>
       </c>
@@ -4409,7 +6231,7 @@
       </c>
       <c r="M10" s="1"/>
     </row>
-    <row r="11" spans="2:13" ht="75">
+    <row r="11" spans="2:13" ht="75" x14ac:dyDescent="0.4">
       <c r="B11" s="1">
         <v>9</v>
       </c>
@@ -4445,7 +6267,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="12" spans="2:13" ht="93.75">
+    <row r="12" spans="2:13" ht="93.75" x14ac:dyDescent="0.4">
       <c r="B12" s="1">
         <v>10</v>
       </c>
@@ -4479,7 +6301,7 @@
       </c>
       <c r="M12" s="1"/>
     </row>
-    <row r="13" spans="2:13" ht="56.25">
+    <row r="13" spans="2:13" ht="56.25" x14ac:dyDescent="0.4">
       <c r="B13" s="1">
         <v>11</v>
       </c>
@@ -4515,7 +6337,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="14" spans="2:13" ht="56.25">
+    <row r="14" spans="2:13" ht="56.25" x14ac:dyDescent="0.4">
       <c r="B14" s="1">
         <v>12</v>
       </c>
@@ -4549,7 +6371,7 @@
       </c>
       <c r="M14" s="1"/>
     </row>
-    <row r="15" spans="2:13" ht="93.75">
+    <row r="15" spans="2:13" ht="93.75" x14ac:dyDescent="0.4">
       <c r="B15" s="1">
         <v>13</v>
       </c>
@@ -4583,7 +6405,7 @@
       </c>
       <c r="M15" s="1"/>
     </row>
-    <row r="16" spans="2:13" ht="75">
+    <row r="16" spans="2:13" ht="75" x14ac:dyDescent="0.4">
       <c r="B16" s="1">
         <v>14</v>
       </c>
@@ -4617,7 +6439,7 @@
       </c>
       <c r="M16" s="1"/>
     </row>
-    <row r="17" spans="2:13" ht="56.25">
+    <row r="17" spans="2:13" ht="56.25" x14ac:dyDescent="0.4">
       <c r="B17" s="1">
         <v>15</v>
       </c>
@@ -4651,7 +6473,7 @@
       </c>
       <c r="M17" s="1"/>
     </row>
-    <row r="18" spans="2:13" ht="37.5">
+    <row r="18" spans="2:13" ht="37.5" x14ac:dyDescent="0.4">
       <c r="B18" s="1">
         <v>16</v>
       </c>
@@ -4685,7 +6507,7 @@
       </c>
       <c r="M18" s="1"/>
     </row>
-    <row r="19" spans="2:13" ht="75">
+    <row r="19" spans="2:13" ht="75" x14ac:dyDescent="0.4">
       <c r="B19" s="1">
         <v>17</v>
       </c>
@@ -4719,7 +6541,7 @@
       </c>
       <c r="M19" s="1"/>
     </row>
-    <row r="20" spans="2:13" ht="93.75">
+    <row r="20" spans="2:13" ht="93.75" x14ac:dyDescent="0.4">
       <c r="B20" s="1">
         <v>18</v>
       </c>
@@ -4755,7 +6577,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="21" spans="2:13" ht="56.25">
+    <row r="21" spans="2:13" ht="56.25" x14ac:dyDescent="0.4">
       <c r="B21" s="1">
         <v>19</v>
       </c>
@@ -4789,7 +6611,7 @@
       </c>
       <c r="M21" s="1"/>
     </row>
-    <row r="22" spans="2:13" ht="56.25">
+    <row r="22" spans="2:13" ht="56.25" x14ac:dyDescent="0.4">
       <c r="B22" s="1">
         <v>20</v>
       </c>
@@ -4823,7 +6645,7 @@
       </c>
       <c r="M22" s="1"/>
     </row>
-    <row r="23" spans="2:13" ht="56.25">
+    <row r="23" spans="2:13" ht="56.25" x14ac:dyDescent="0.4">
       <c r="B23" s="1">
         <v>21</v>
       </c>
@@ -4859,7 +6681,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="24" spans="2:13" ht="75">
+    <row r="24" spans="2:13" ht="75" x14ac:dyDescent="0.4">
       <c r="B24" s="1">
         <v>22</v>
       </c>
@@ -4895,7 +6717,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="25" spans="2:13" ht="37.5">
+    <row r="25" spans="2:13" ht="37.5" x14ac:dyDescent="0.4">
       <c r="B25" s="1">
         <v>23</v>
       </c>
@@ -4931,7 +6753,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="26" spans="2:13" ht="75">
+    <row r="26" spans="2:13" ht="75" x14ac:dyDescent="0.4">
       <c r="B26" s="1">
         <v>24</v>
       </c>
@@ -4965,7 +6787,7 @@
       </c>
       <c r="M26" s="1"/>
     </row>
-    <row r="27" spans="2:13" ht="37.5">
+    <row r="27" spans="2:13" ht="37.5" x14ac:dyDescent="0.4">
       <c r="B27" s="1">
         <v>25</v>
       </c>
@@ -5001,7 +6823,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="28" spans="2:13" ht="75">
+    <row r="28" spans="2:13" ht="75" x14ac:dyDescent="0.4">
       <c r="B28" s="1">
         <v>26</v>
       </c>
@@ -5035,7 +6857,7 @@
       </c>
       <c r="M28" s="1"/>
     </row>
-    <row r="29" spans="2:13" ht="56.25">
+    <row r="29" spans="2:13" ht="56.25" x14ac:dyDescent="0.4">
       <c r="B29" s="1">
         <v>27</v>
       </c>
@@ -5071,7 +6893,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="30" spans="2:13" ht="56.25">
+    <row r="30" spans="2:13" ht="56.25" x14ac:dyDescent="0.4">
       <c r="B30" s="1">
         <v>28</v>
       </c>
@@ -5105,7 +6927,7 @@
       </c>
       <c r="M30" s="1"/>
     </row>
-    <row r="31" spans="2:13" ht="37.5">
+    <row r="31" spans="2:13" ht="37.5" x14ac:dyDescent="0.4">
       <c r="B31" s="1">
         <v>29</v>
       </c>
@@ -5139,7 +6961,7 @@
       </c>
       <c r="M31" s="1"/>
     </row>
-    <row r="32" spans="2:13" ht="56.25">
+    <row r="32" spans="2:13" ht="56.25" x14ac:dyDescent="0.4">
       <c r="B32" s="1">
         <v>30</v>
       </c>
@@ -5173,7 +6995,7 @@
       </c>
       <c r="M32" s="1"/>
     </row>
-    <row r="33" spans="2:13" ht="75">
+    <row r="33" spans="2:13" ht="75" x14ac:dyDescent="0.4">
       <c r="B33" s="1">
         <v>31</v>
       </c>
@@ -5207,7 +7029,7 @@
       </c>
       <c r="M33" s="1"/>
     </row>
-    <row r="34" spans="2:13" ht="37.5">
+    <row r="34" spans="2:13" ht="37.5" x14ac:dyDescent="0.4">
       <c r="B34" s="1">
         <v>32</v>
       </c>
@@ -5241,7 +7063,7 @@
       </c>
       <c r="M34" s="1"/>
     </row>
-    <row r="35" spans="2:13" ht="56.25">
+    <row r="35" spans="2:13" ht="56.25" x14ac:dyDescent="0.4">
       <c r="B35" s="1">
         <v>33</v>
       </c>
@@ -5275,7 +7097,7 @@
       </c>
       <c r="M35" s="1"/>
     </row>
-    <row r="36" spans="2:13" ht="131.25">
+    <row r="36" spans="2:13" ht="131.25" x14ac:dyDescent="0.4">
       <c r="B36" s="1">
         <v>34</v>
       </c>
@@ -5309,7 +7131,7 @@
       </c>
       <c r="M36" s="1"/>
     </row>
-    <row r="37" spans="2:13" ht="75">
+    <row r="37" spans="2:13" ht="75" x14ac:dyDescent="0.4">
       <c r="B37" s="1">
         <v>35</v>
       </c>
@@ -5345,7 +7167,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="38" spans="2:13" ht="56.25">
+    <row r="38" spans="2:13" ht="56.25" x14ac:dyDescent="0.4">
       <c r="B38" s="1">
         <v>36</v>
       </c>
@@ -5379,7 +7201,7 @@
       </c>
       <c r="M38" s="1"/>
     </row>
-    <row r="39" spans="2:13" ht="150">
+    <row r="39" spans="2:13" ht="150" x14ac:dyDescent="0.4">
       <c r="B39" s="1">
         <v>37</v>
       </c>
@@ -5413,7 +7235,7 @@
       </c>
       <c r="M39" s="1"/>
     </row>
-    <row r="40" spans="2:13" ht="112.5">
+    <row r="40" spans="2:13" ht="112.5" x14ac:dyDescent="0.4">
       <c r="B40" s="1">
         <v>38</v>
       </c>
@@ -5447,7 +7269,7 @@
       </c>
       <c r="M40" s="1"/>
     </row>
-    <row r="41" spans="2:13" ht="112.5">
+    <row r="41" spans="2:13" ht="112.5" x14ac:dyDescent="0.4">
       <c r="B41" s="1">
         <v>39</v>
       </c>
@@ -5469,7 +7291,9 @@
       <c r="H41" s="11" t="s">
         <v>126</v>
       </c>
-      <c r="I41" s="12"/>
+      <c r="I41" s="12" t="s">
+        <v>28</v>
+      </c>
       <c r="J41" s="1"/>
       <c r="K41" s="10">
         <v>44077</v>
@@ -5479,7 +7303,7 @@
       </c>
       <c r="M41" s="1"/>
     </row>
-    <row r="42" spans="2:13" ht="93.75">
+    <row r="42" spans="2:13" ht="75" x14ac:dyDescent="0.4">
       <c r="B42" s="1">
         <v>40</v>
       </c>
@@ -5515,7 +7339,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="43" spans="2:13" ht="112.5">
+    <row r="43" spans="2:13" ht="112.5" x14ac:dyDescent="0.4">
       <c r="B43" s="1">
         <v>41</v>
       </c>
@@ -5549,7 +7373,7 @@
       </c>
       <c r="M43" s="1"/>
     </row>
-    <row r="44" spans="2:13" ht="56.25">
+    <row r="44" spans="2:13" ht="56.25" x14ac:dyDescent="0.4">
       <c r="B44" s="1">
         <v>42</v>
       </c>
@@ -5583,7 +7407,7 @@
       </c>
       <c r="M44" s="1"/>
     </row>
-    <row r="45" spans="2:13" ht="56.25">
+    <row r="45" spans="2:13" ht="56.25" x14ac:dyDescent="0.4">
       <c r="B45" s="1">
         <v>43</v>
       </c>
@@ -5617,7 +7441,7 @@
       </c>
       <c r="M45" s="1"/>
     </row>
-    <row r="46" spans="2:13" ht="75">
+    <row r="46" spans="2:13" ht="75" x14ac:dyDescent="0.4">
       <c r="B46" s="1">
         <v>44</v>
       </c>
@@ -5651,7 +7475,7 @@
       </c>
       <c r="M46" s="1"/>
     </row>
-    <row r="47" spans="2:13" ht="56.25">
+    <row r="47" spans="2:13" ht="56.25" x14ac:dyDescent="0.4">
       <c r="B47" s="1">
         <v>45</v>
       </c>
@@ -5673,7 +7497,9 @@
       <c r="H47" s="11" t="s">
         <v>126</v>
       </c>
-      <c r="I47" s="12"/>
+      <c r="I47" s="12" t="s">
+        <v>174</v>
+      </c>
       <c r="J47" s="1"/>
       <c r="K47" s="10">
         <v>44077</v>
@@ -5685,7 +7511,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="48" spans="2:13" ht="93.75">
+    <row r="48" spans="2:13" ht="75" x14ac:dyDescent="0.4">
       <c r="B48" s="1">
         <v>46</v>
       </c>
@@ -5719,7 +7545,7 @@
       </c>
       <c r="M48" s="1"/>
     </row>
-    <row r="49" spans="2:13" ht="93.75">
+    <row r="49" spans="2:13" ht="75" x14ac:dyDescent="0.4">
       <c r="B49" s="1">
         <v>47</v>
       </c>
@@ -5755,7 +7581,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="50" spans="2:13" ht="112.5">
+    <row r="50" spans="2:13" ht="93.75" x14ac:dyDescent="0.4">
       <c r="B50" s="1">
         <v>48</v>
       </c>
@@ -5787,9 +7613,11 @@
       <c r="L50" s="11" t="s">
         <v>161</v>
       </c>
-      <c r="M50" s="1"/>
-    </row>
-    <row r="51" spans="2:13" ht="75">
+      <c r="M50" s="1" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="51" spans="2:13" ht="75" x14ac:dyDescent="0.4">
       <c r="B51" s="1">
         <v>49</v>
       </c>
@@ -5808,14 +7636,22 @@
       <c r="G51" s="12" t="s">
         <v>146</v>
       </c>
-      <c r="H51" s="1"/>
-      <c r="I51" s="12"/>
+      <c r="H51" s="11" t="s">
+        <v>126</v>
+      </c>
+      <c r="I51" s="12" t="s">
+        <v>174</v>
+      </c>
       <c r="J51" s="1"/>
-      <c r="K51" s="1"/>
-      <c r="L51" s="1"/>
+      <c r="K51" s="10">
+        <v>44082</v>
+      </c>
+      <c r="L51" s="1" t="s">
+        <v>166</v>
+      </c>
       <c r="M51" s="1"/>
     </row>
-    <row r="52" spans="2:13" ht="75">
+    <row r="52" spans="2:13" ht="75" x14ac:dyDescent="0.4">
       <c r="B52" s="1">
         <v>50</v>
       </c>
@@ -5829,19 +7665,29 @@
         <v>144</v>
       </c>
       <c r="F52" s="11" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="G52" s="12" t="s">
         <v>146</v>
       </c>
-      <c r="H52" s="1"/>
-      <c r="I52" s="12"/>
+      <c r="H52" s="11" t="s">
+        <v>126</v>
+      </c>
+      <c r="I52" s="12" t="s">
+        <v>28</v>
+      </c>
       <c r="J52" s="1"/>
-      <c r="K52" s="1"/>
-      <c r="L52" s="1"/>
-      <c r="M52" s="1"/>
-    </row>
-    <row r="53" spans="2:13" ht="112.5">
+      <c r="K52" s="10">
+        <v>44082</v>
+      </c>
+      <c r="L52" s="11" t="s">
+        <v>168</v>
+      </c>
+      <c r="M52" s="1" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="53" spans="2:13" ht="112.5" x14ac:dyDescent="0.4">
       <c r="B53" s="1">
         <v>51</v>
       </c>
@@ -5855,19 +7701,27 @@
         <v>79</v>
       </c>
       <c r="F53" s="11" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="G53" s="12" t="s">
         <v>146</v>
       </c>
-      <c r="H53" s="1"/>
-      <c r="I53" s="12"/>
+      <c r="H53" s="11" t="s">
+        <v>126</v>
+      </c>
+      <c r="I53" s="12" t="s">
+        <v>28</v>
+      </c>
       <c r="J53" s="1"/>
-      <c r="K53" s="1"/>
-      <c r="L53" s="1"/>
+      <c r="K53" s="10">
+        <v>44082</v>
+      </c>
+      <c r="L53" s="1" t="s">
+        <v>170</v>
+      </c>
       <c r="M53" s="1"/>
     </row>
-    <row r="54" spans="2:13" ht="150">
+    <row r="54" spans="2:13" ht="131.25" x14ac:dyDescent="0.4">
       <c r="B54" s="1">
         <v>52</v>
       </c>
@@ -5881,19 +7735,27 @@
         <v>79</v>
       </c>
       <c r="F54" s="11" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="G54" s="12" t="s">
         <v>146</v>
       </c>
-      <c r="H54" s="1"/>
-      <c r="I54" s="12"/>
+      <c r="H54" s="11" t="s">
+        <v>126</v>
+      </c>
+      <c r="I54" s="12" t="s">
+        <v>174</v>
+      </c>
       <c r="J54" s="1"/>
-      <c r="K54" s="1"/>
-      <c r="L54" s="1"/>
+      <c r="K54" s="10">
+        <v>44082</v>
+      </c>
+      <c r="L54" s="1" t="s">
+        <v>170</v>
+      </c>
       <c r="M54" s="1"/>
     </row>
-    <row r="55" spans="2:13" ht="150">
+    <row r="55" spans="2:13" ht="150" x14ac:dyDescent="0.4">
       <c r="B55" s="1">
         <v>53</v>
       </c>
@@ -5907,24 +7769,36 @@
         <v>79</v>
       </c>
       <c r="F55" s="11" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="G55" s="12" t="s">
         <v>146</v>
       </c>
-      <c r="H55" s="1"/>
-      <c r="I55" s="12"/>
+      <c r="H55" s="11" t="s">
+        <v>126</v>
+      </c>
+      <c r="I55" s="12" t="s">
+        <v>174</v>
+      </c>
       <c r="J55" s="1"/>
-      <c r="K55" s="1"/>
-      <c r="L55" s="1"/>
+      <c r="K55" s="10">
+        <v>44082</v>
+      </c>
+      <c r="L55" s="11" t="s">
+        <v>173</v>
+      </c>
       <c r="M55" s="1"/>
     </row>
-    <row r="56" spans="2:13">
+    <row r="56" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B56" s="1">
         <v>54</v>
       </c>
-      <c r="C56" s="17"/>
-      <c r="D56" s="17"/>
+      <c r="C56" s="16">
+        <v>44082</v>
+      </c>
+      <c r="D56" s="17" t="s">
+        <v>52</v>
+      </c>
       <c r="E56" s="17"/>
       <c r="F56" s="11"/>
       <c r="G56" s="12"/>
@@ -5935,15 +7809,25 @@
       <c r="L56" s="1"/>
       <c r="M56" s="1"/>
     </row>
-    <row r="57" spans="2:13">
+    <row r="57" spans="2:13" ht="168.75" x14ac:dyDescent="0.4">
       <c r="B57" s="1">
         <v>55</v>
       </c>
-      <c r="C57" s="17"/>
-      <c r="D57" s="17"/>
-      <c r="E57" s="17"/>
-      <c r="F57" s="11"/>
-      <c r="G57" s="12"/>
+      <c r="C57" s="16">
+        <v>44082</v>
+      </c>
+      <c r="D57" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="E57" s="17" t="s">
+        <v>107</v>
+      </c>
+      <c r="F57" s="11" t="s">
+        <v>176</v>
+      </c>
+      <c r="G57" s="12" t="s">
+        <v>177</v>
+      </c>
       <c r="H57" s="1"/>
       <c r="I57" s="12"/>
       <c r="J57" s="1"/>
@@ -5951,15 +7835,25 @@
       <c r="L57" s="1"/>
       <c r="M57" s="1"/>
     </row>
-    <row r="58" spans="2:13">
+    <row r="58" spans="2:13" ht="75" x14ac:dyDescent="0.4">
       <c r="B58" s="1">
         <v>56</v>
       </c>
-      <c r="C58" s="17"/>
-      <c r="D58" s="17"/>
-      <c r="E58" s="17"/>
-      <c r="F58" s="11"/>
-      <c r="G58" s="12"/>
+      <c r="C58" s="16">
+        <v>44082</v>
+      </c>
+      <c r="D58" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="E58" s="17" t="s">
+        <v>178</v>
+      </c>
+      <c r="F58" s="11" t="s">
+        <v>179</v>
+      </c>
+      <c r="G58" s="12" t="s">
+        <v>180</v>
+      </c>
       <c r="H58" s="1"/>
       <c r="I58" s="12"/>
       <c r="J58" s="1"/>
@@ -5967,15 +7861,25 @@
       <c r="L58" s="1"/>
       <c r="M58" s="1"/>
     </row>
-    <row r="59" spans="2:13">
+    <row r="59" spans="2:13" ht="75" x14ac:dyDescent="0.4">
       <c r="B59" s="1">
         <v>57</v>
       </c>
-      <c r="C59" s="17"/>
-      <c r="D59" s="17"/>
-      <c r="E59" s="17"/>
-      <c r="F59" s="11"/>
-      <c r="G59" s="12"/>
+      <c r="C59" s="16">
+        <v>44082</v>
+      </c>
+      <c r="D59" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="E59" s="17" t="s">
+        <v>178</v>
+      </c>
+      <c r="F59" s="11" t="s">
+        <v>181</v>
+      </c>
+      <c r="G59" s="12" t="s">
+        <v>180</v>
+      </c>
       <c r="H59" s="1"/>
       <c r="I59" s="12"/>
       <c r="J59" s="1"/>
@@ -5983,15 +7887,25 @@
       <c r="L59" s="1"/>
       <c r="M59" s="1"/>
     </row>
-    <row r="60" spans="2:13">
+    <row r="60" spans="2:13" ht="56.25" x14ac:dyDescent="0.4">
       <c r="B60" s="1">
         <v>58</v>
       </c>
-      <c r="C60" s="17"/>
-      <c r="D60" s="17"/>
-      <c r="E60" s="17"/>
-      <c r="F60" s="11"/>
-      <c r="G60" s="12"/>
+      <c r="C60" s="16">
+        <v>44082</v>
+      </c>
+      <c r="D60" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="E60" s="17" t="s">
+        <v>178</v>
+      </c>
+      <c r="F60" s="11" t="s">
+        <v>183</v>
+      </c>
+      <c r="G60" s="12" t="s">
+        <v>180</v>
+      </c>
       <c r="H60" s="1"/>
       <c r="I60" s="12"/>
       <c r="J60" s="1"/>
@@ -5999,15 +7913,25 @@
       <c r="L60" s="1"/>
       <c r="M60" s="1"/>
     </row>
-    <row r="61" spans="2:13">
+    <row r="61" spans="2:13" ht="56.25" x14ac:dyDescent="0.4">
       <c r="B61" s="1">
         <v>59</v>
       </c>
-      <c r="C61" s="17"/>
-      <c r="D61" s="17"/>
-      <c r="E61" s="17"/>
-      <c r="F61" s="11"/>
-      <c r="G61" s="12"/>
+      <c r="C61" s="16">
+        <v>44082</v>
+      </c>
+      <c r="D61" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="E61" s="17" t="s">
+        <v>185</v>
+      </c>
+      <c r="F61" s="11" t="s">
+        <v>184</v>
+      </c>
+      <c r="G61" s="12" t="s">
+        <v>177</v>
+      </c>
       <c r="H61" s="1"/>
       <c r="I61" s="12"/>
       <c r="J61" s="1"/>
@@ -6015,15 +7939,25 @@
       <c r="L61" s="1"/>
       <c r="M61" s="1"/>
     </row>
-    <row r="62" spans="2:13">
+    <row r="62" spans="2:13" ht="75" x14ac:dyDescent="0.4">
       <c r="B62" s="1">
         <v>60</v>
       </c>
-      <c r="C62" s="17"/>
-      <c r="D62" s="17"/>
-      <c r="E62" s="17"/>
-      <c r="F62" s="11"/>
-      <c r="G62" s="12"/>
+      <c r="C62" s="16">
+        <v>44082</v>
+      </c>
+      <c r="D62" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="E62" s="17" t="s">
+        <v>185</v>
+      </c>
+      <c r="F62" s="11" t="s">
+        <v>186</v>
+      </c>
+      <c r="G62" s="12" t="s">
+        <v>180</v>
+      </c>
       <c r="H62" s="1"/>
       <c r="I62" s="12"/>
       <c r="J62" s="1"/>
@@ -6031,15 +7965,25 @@
       <c r="L62" s="1"/>
       <c r="M62" s="1"/>
     </row>
-    <row r="63" spans="2:13">
+    <row r="63" spans="2:13" ht="75" x14ac:dyDescent="0.4">
       <c r="B63" s="1">
         <v>61</v>
       </c>
-      <c r="C63" s="17"/>
-      <c r="D63" s="17"/>
-      <c r="E63" s="17"/>
-      <c r="F63" s="11"/>
-      <c r="G63" s="12"/>
+      <c r="C63" s="16">
+        <v>44082</v>
+      </c>
+      <c r="D63" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="E63" s="17" t="s">
+        <v>187</v>
+      </c>
+      <c r="F63" s="11" t="s">
+        <v>188</v>
+      </c>
+      <c r="G63" s="12" t="s">
+        <v>177</v>
+      </c>
       <c r="H63" s="1"/>
       <c r="I63" s="12"/>
       <c r="J63" s="1"/>
@@ -6047,15 +7991,25 @@
       <c r="L63" s="1"/>
       <c r="M63" s="1"/>
     </row>
-    <row r="64" spans="2:13">
+    <row r="64" spans="2:13" ht="75" x14ac:dyDescent="0.4">
       <c r="B64" s="1">
         <v>62</v>
       </c>
-      <c r="C64" s="17"/>
-      <c r="D64" s="17"/>
-      <c r="E64" s="17"/>
-      <c r="F64" s="11"/>
-      <c r="G64" s="12"/>
+      <c r="C64" s="16">
+        <v>44082</v>
+      </c>
+      <c r="D64" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="E64" s="17" t="s">
+        <v>187</v>
+      </c>
+      <c r="F64" s="11" t="s">
+        <v>189</v>
+      </c>
+      <c r="G64" s="12" t="s">
+        <v>180</v>
+      </c>
       <c r="H64" s="1"/>
       <c r="I64" s="12"/>
       <c r="J64" s="1"/>
@@ -6063,15 +8017,25 @@
       <c r="L64" s="1"/>
       <c r="M64" s="1"/>
     </row>
-    <row r="65" spans="2:13">
+    <row r="65" spans="2:13" ht="75" x14ac:dyDescent="0.4">
       <c r="B65" s="1">
         <v>63</v>
       </c>
-      <c r="C65" s="17"/>
-      <c r="D65" s="17"/>
-      <c r="E65" s="17"/>
-      <c r="F65" s="11"/>
-      <c r="G65" s="12"/>
+      <c r="C65" s="16">
+        <v>44082</v>
+      </c>
+      <c r="D65" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="E65" s="17" t="s">
+        <v>190</v>
+      </c>
+      <c r="F65" s="11" t="s">
+        <v>240</v>
+      </c>
+      <c r="G65" s="12" t="s">
+        <v>177</v>
+      </c>
       <c r="H65" s="1"/>
       <c r="I65" s="12"/>
       <c r="J65" s="1"/>
@@ -6079,15 +8043,25 @@
       <c r="L65" s="1"/>
       <c r="M65" s="1"/>
     </row>
-    <row r="66" spans="2:13">
+    <row r="66" spans="2:13" ht="93.75" x14ac:dyDescent="0.4">
       <c r="B66" s="1">
         <v>64</v>
       </c>
-      <c r="C66" s="17"/>
-      <c r="D66" s="17"/>
-      <c r="E66" s="17"/>
-      <c r="F66" s="11"/>
-      <c r="G66" s="12"/>
+      <c r="C66" s="16">
+        <v>44082</v>
+      </c>
+      <c r="D66" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="E66" s="17" t="s">
+        <v>191</v>
+      </c>
+      <c r="F66" s="11" t="s">
+        <v>192</v>
+      </c>
+      <c r="G66" s="12" t="s">
+        <v>180</v>
+      </c>
       <c r="H66" s="1"/>
       <c r="I66" s="12"/>
       <c r="J66" s="1"/>
@@ -6095,15 +8069,25 @@
       <c r="L66" s="1"/>
       <c r="M66" s="1"/>
     </row>
-    <row r="67" spans="2:13">
+    <row r="67" spans="2:13" ht="131.25" x14ac:dyDescent="0.4">
       <c r="B67" s="1">
         <v>65</v>
       </c>
-      <c r="C67" s="17"/>
-      <c r="D67" s="17"/>
-      <c r="E67" s="17"/>
-      <c r="F67" s="11"/>
-      <c r="G67" s="12"/>
+      <c r="C67" s="16">
+        <v>44082</v>
+      </c>
+      <c r="D67" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="E67" s="17" t="s">
+        <v>193</v>
+      </c>
+      <c r="F67" s="11" t="s">
+        <v>194</v>
+      </c>
+      <c r="G67" s="12" t="s">
+        <v>180</v>
+      </c>
       <c r="H67" s="1"/>
       <c r="I67" s="12"/>
       <c r="J67" s="1"/>
@@ -6111,15 +8095,25 @@
       <c r="L67" s="1"/>
       <c r="M67" s="1"/>
     </row>
-    <row r="68" spans="2:13">
+    <row r="68" spans="2:13" ht="56.25" x14ac:dyDescent="0.4">
       <c r="B68" s="1">
         <v>66</v>
       </c>
-      <c r="C68" s="17"/>
-      <c r="D68" s="17"/>
-      <c r="E68" s="17"/>
-      <c r="F68" s="11"/>
-      <c r="G68" s="12"/>
+      <c r="C68" s="16">
+        <v>44082</v>
+      </c>
+      <c r="D68" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="E68" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="F68" s="11" t="s">
+        <v>195</v>
+      </c>
+      <c r="G68" s="12" t="s">
+        <v>177</v>
+      </c>
       <c r="H68" s="1"/>
       <c r="I68" s="12"/>
       <c r="J68" s="1"/>
@@ -6127,15 +8121,25 @@
       <c r="L68" s="1"/>
       <c r="M68" s="1"/>
     </row>
-    <row r="69" spans="2:13">
+    <row r="69" spans="2:13" ht="75" x14ac:dyDescent="0.4">
       <c r="B69" s="1">
         <v>67</v>
       </c>
-      <c r="C69" s="17"/>
-      <c r="D69" s="17"/>
-      <c r="E69" s="17"/>
-      <c r="F69" s="11"/>
-      <c r="G69" s="12"/>
+      <c r="C69" s="16">
+        <v>44082</v>
+      </c>
+      <c r="D69" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="E69" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="F69" s="11" t="s">
+        <v>196</v>
+      </c>
+      <c r="G69" s="12" t="s">
+        <v>177</v>
+      </c>
       <c r="H69" s="1"/>
       <c r="I69" s="12"/>
       <c r="J69" s="1"/>
@@ -6143,15 +8147,25 @@
       <c r="L69" s="1"/>
       <c r="M69" s="1"/>
     </row>
-    <row r="70" spans="2:13">
+    <row r="70" spans="2:13" ht="93.75" x14ac:dyDescent="0.4">
       <c r="B70" s="1">
         <v>68</v>
       </c>
-      <c r="C70" s="17"/>
-      <c r="D70" s="17"/>
-      <c r="E70" s="17"/>
-      <c r="F70" s="11"/>
-      <c r="G70" s="12"/>
+      <c r="C70" s="16">
+        <v>44082</v>
+      </c>
+      <c r="D70" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="E70" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="F70" s="11" t="s">
+        <v>197</v>
+      </c>
+      <c r="G70" s="12" t="s">
+        <v>177</v>
+      </c>
       <c r="H70" s="1"/>
       <c r="I70" s="12"/>
       <c r="J70" s="1"/>
@@ -6159,14 +8173,22 @@
       <c r="L70" s="1"/>
       <c r="M70" s="1"/>
     </row>
-    <row r="71" spans="2:13">
+    <row r="71" spans="2:13" ht="112.5" x14ac:dyDescent="0.4">
       <c r="B71" s="1">
         <v>69</v>
       </c>
-      <c r="C71" s="17"/>
-      <c r="D71" s="17"/>
-      <c r="E71" s="17"/>
-      <c r="F71" s="11"/>
+      <c r="C71" s="16">
+        <v>44082</v>
+      </c>
+      <c r="D71" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="E71" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="F71" s="11" t="s">
+        <v>235</v>
+      </c>
       <c r="G71" s="12"/>
       <c r="H71" s="1"/>
       <c r="I71" s="12"/>
@@ -6175,15 +8197,25 @@
       <c r="L71" s="1"/>
       <c r="M71" s="1"/>
     </row>
-    <row r="72" spans="2:13">
+    <row r="72" spans="2:13" ht="112.5" x14ac:dyDescent="0.4">
       <c r="B72" s="1">
         <v>70</v>
       </c>
-      <c r="C72" s="17"/>
-      <c r="D72" s="17"/>
-      <c r="E72" s="17"/>
-      <c r="F72" s="11"/>
-      <c r="G72" s="12"/>
+      <c r="C72" s="16">
+        <v>44082</v>
+      </c>
+      <c r="D72" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="E72" s="17" t="s">
+        <v>46</v>
+      </c>
+      <c r="F72" s="11" t="s">
+        <v>198</v>
+      </c>
+      <c r="G72" s="12" t="s">
+        <v>177</v>
+      </c>
       <c r="H72" s="1"/>
       <c r="I72" s="12"/>
       <c r="J72" s="1"/>
@@ -6191,15 +8223,25 @@
       <c r="L72" s="1"/>
       <c r="M72" s="1"/>
     </row>
-    <row r="73" spans="2:13">
+    <row r="73" spans="2:13" ht="75" x14ac:dyDescent="0.4">
       <c r="B73" s="1">
         <v>71</v>
       </c>
-      <c r="C73" s="17"/>
-      <c r="D73" s="17"/>
-      <c r="E73" s="17"/>
-      <c r="F73" s="11"/>
-      <c r="G73" s="12"/>
+      <c r="C73" s="16">
+        <v>44082</v>
+      </c>
+      <c r="D73" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="E73" s="17" t="s">
+        <v>46</v>
+      </c>
+      <c r="F73" s="11" t="s">
+        <v>199</v>
+      </c>
+      <c r="G73" s="12" t="s">
+        <v>177</v>
+      </c>
       <c r="H73" s="1"/>
       <c r="I73" s="12"/>
       <c r="J73" s="1"/>
@@ -6207,15 +8249,25 @@
       <c r="L73" s="1"/>
       <c r="M73" s="1"/>
     </row>
-    <row r="74" spans="2:13">
+    <row r="74" spans="2:13" ht="112.5" x14ac:dyDescent="0.4">
       <c r="B74" s="1">
         <v>72</v>
       </c>
-      <c r="C74" s="17"/>
-      <c r="D74" s="17"/>
-      <c r="E74" s="17"/>
-      <c r="F74" s="11"/>
-      <c r="G74" s="12"/>
+      <c r="C74" s="16">
+        <v>44082</v>
+      </c>
+      <c r="D74" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="E74" s="17" t="s">
+        <v>46</v>
+      </c>
+      <c r="F74" s="11" t="s">
+        <v>221</v>
+      </c>
+      <c r="G74" s="12" t="s">
+        <v>177</v>
+      </c>
       <c r="H74" s="1"/>
       <c r="I74" s="12"/>
       <c r="J74" s="1"/>
@@ -6223,15 +8275,25 @@
       <c r="L74" s="1"/>
       <c r="M74" s="1"/>
     </row>
-    <row r="75" spans="2:13">
+    <row r="75" spans="2:13" ht="56.25" x14ac:dyDescent="0.4">
       <c r="B75" s="1">
         <v>73</v>
       </c>
-      <c r="C75" s="17"/>
-      <c r="D75" s="17"/>
-      <c r="E75" s="17"/>
-      <c r="F75" s="11"/>
-      <c r="G75" s="12"/>
+      <c r="C75" s="16">
+        <v>44082</v>
+      </c>
+      <c r="D75" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="E75" s="17" t="s">
+        <v>46</v>
+      </c>
+      <c r="F75" s="11" t="s">
+        <v>200</v>
+      </c>
+      <c r="G75" s="12" t="s">
+        <v>180</v>
+      </c>
       <c r="H75" s="1"/>
       <c r="I75" s="12"/>
       <c r="J75" s="1"/>
@@ -6239,15 +8301,25 @@
       <c r="L75" s="1"/>
       <c r="M75" s="1"/>
     </row>
-    <row r="76" spans="2:13">
+    <row r="76" spans="2:13" ht="56.25" x14ac:dyDescent="0.4">
       <c r="B76" s="1">
         <v>74</v>
       </c>
-      <c r="C76" s="17"/>
-      <c r="D76" s="17"/>
-      <c r="E76" s="17"/>
-      <c r="F76" s="11"/>
-      <c r="G76" s="12"/>
+      <c r="C76" s="16">
+        <v>44082</v>
+      </c>
+      <c r="D76" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="E76" s="17" t="s">
+        <v>46</v>
+      </c>
+      <c r="F76" s="11" t="s">
+        <v>201</v>
+      </c>
+      <c r="G76" s="12" t="s">
+        <v>177</v>
+      </c>
       <c r="H76" s="1"/>
       <c r="I76" s="12"/>
       <c r="J76" s="1"/>
@@ -6255,15 +8327,25 @@
       <c r="L76" s="1"/>
       <c r="M76" s="1"/>
     </row>
-    <row r="77" spans="2:13">
+    <row r="77" spans="2:13" ht="56.25" x14ac:dyDescent="0.4">
       <c r="B77" s="1">
         <v>75</v>
       </c>
-      <c r="C77" s="17"/>
-      <c r="D77" s="17"/>
-      <c r="E77" s="17"/>
-      <c r="F77" s="11"/>
-      <c r="G77" s="12"/>
+      <c r="C77" s="16">
+        <v>44082</v>
+      </c>
+      <c r="D77" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="E77" s="17" t="s">
+        <v>46</v>
+      </c>
+      <c r="F77" s="11" t="s">
+        <v>202</v>
+      </c>
+      <c r="G77" s="12" t="s">
+        <v>177</v>
+      </c>
       <c r="H77" s="1"/>
       <c r="I77" s="12"/>
       <c r="J77" s="1"/>
@@ -6271,15 +8353,25 @@
       <c r="L77" s="1"/>
       <c r="M77" s="1"/>
     </row>
-    <row r="78" spans="2:13">
+    <row r="78" spans="2:13" ht="112.5" x14ac:dyDescent="0.4">
       <c r="B78" s="1">
         <v>76</v>
       </c>
-      <c r="C78" s="17"/>
-      <c r="D78" s="17"/>
-      <c r="E78" s="17"/>
-      <c r="F78" s="11"/>
-      <c r="G78" s="12"/>
+      <c r="C78" s="16">
+        <v>44082</v>
+      </c>
+      <c r="D78" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="E78" s="17" t="s">
+        <v>46</v>
+      </c>
+      <c r="F78" s="11" t="s">
+        <v>227</v>
+      </c>
+      <c r="G78" s="12" t="s">
+        <v>222</v>
+      </c>
       <c r="H78" s="1"/>
       <c r="I78" s="12"/>
       <c r="J78" s="1"/>
@@ -6287,27 +8379,1274 @@
       <c r="L78" s="1"/>
       <c r="M78" s="1"/>
     </row>
+    <row r="79" spans="2:13" ht="56.25" x14ac:dyDescent="0.4">
+      <c r="B79" s="1">
+        <v>77</v>
+      </c>
+      <c r="C79" s="16">
+        <v>44082</v>
+      </c>
+      <c r="D79" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="E79" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="F79" s="11" t="s">
+        <v>203</v>
+      </c>
+      <c r="G79" s="12" t="s">
+        <v>177</v>
+      </c>
+      <c r="H79" s="1"/>
+      <c r="I79" s="12"/>
+      <c r="J79" s="1"/>
+      <c r="K79" s="1"/>
+      <c r="L79" s="1"/>
+      <c r="M79" s="1"/>
+    </row>
+    <row r="80" spans="2:13" ht="75" x14ac:dyDescent="0.4">
+      <c r="B80" s="1">
+        <v>78</v>
+      </c>
+      <c r="C80" s="16">
+        <v>44082</v>
+      </c>
+      <c r="D80" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="E80" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="F80" s="11" t="s">
+        <v>204</v>
+      </c>
+      <c r="G80" s="12" t="s">
+        <v>177</v>
+      </c>
+      <c r="H80" s="1"/>
+      <c r="I80" s="12"/>
+      <c r="J80" s="1"/>
+      <c r="K80" s="1"/>
+      <c r="L80" s="1"/>
+      <c r="M80" s="1"/>
+    </row>
+    <row r="81" spans="2:13" ht="75" x14ac:dyDescent="0.4">
+      <c r="B81" s="1">
+        <v>79</v>
+      </c>
+      <c r="C81" s="16">
+        <v>44082</v>
+      </c>
+      <c r="D81" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="E81" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="F81" s="11" t="s">
+        <v>205</v>
+      </c>
+      <c r="G81" s="12" t="s">
+        <v>177</v>
+      </c>
+      <c r="H81" s="1"/>
+      <c r="I81" s="12"/>
+      <c r="J81" s="1"/>
+      <c r="K81" s="1"/>
+      <c r="L81" s="1"/>
+      <c r="M81" s="1"/>
+    </row>
+    <row r="82" spans="2:13" ht="150" x14ac:dyDescent="0.4">
+      <c r="B82" s="1">
+        <v>80</v>
+      </c>
+      <c r="C82" s="16">
+        <v>44082</v>
+      </c>
+      <c r="D82" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="E82" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="F82" s="11" t="s">
+        <v>206</v>
+      </c>
+      <c r="G82" s="12" t="s">
+        <v>177</v>
+      </c>
+      <c r="H82" s="1"/>
+      <c r="I82" s="12"/>
+      <c r="J82" s="1"/>
+      <c r="K82" s="1"/>
+      <c r="L82" s="1"/>
+      <c r="M82" s="1"/>
+    </row>
+    <row r="83" spans="2:13" ht="56.25" x14ac:dyDescent="0.4">
+      <c r="B83" s="1">
+        <v>81</v>
+      </c>
+      <c r="C83" s="16">
+        <v>44082</v>
+      </c>
+      <c r="D83" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="E83" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="F83" s="11" t="s">
+        <v>207</v>
+      </c>
+      <c r="G83" s="12" t="s">
+        <v>177</v>
+      </c>
+      <c r="H83" s="1"/>
+      <c r="I83" s="12"/>
+      <c r="J83" s="1"/>
+      <c r="K83" s="1"/>
+      <c r="L83" s="1"/>
+      <c r="M83" s="1"/>
+    </row>
+    <row r="84" spans="2:13" ht="93.75" x14ac:dyDescent="0.4">
+      <c r="B84" s="1">
+        <v>82</v>
+      </c>
+      <c r="C84" s="16">
+        <v>44082</v>
+      </c>
+      <c r="D84" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="E84" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="F84" s="11" t="s">
+        <v>208</v>
+      </c>
+      <c r="G84" s="12" t="s">
+        <v>177</v>
+      </c>
+      <c r="H84" s="1"/>
+      <c r="I84" s="12"/>
+      <c r="J84" s="1"/>
+      <c r="K84" s="1"/>
+      <c r="L84" s="1"/>
+      <c r="M84" s="1"/>
+    </row>
+    <row r="85" spans="2:13" ht="93.75" x14ac:dyDescent="0.4">
+      <c r="B85" s="1">
+        <v>83</v>
+      </c>
+      <c r="C85" s="16">
+        <v>44082</v>
+      </c>
+      <c r="D85" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="E85" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="F85" s="11" t="s">
+        <v>209</v>
+      </c>
+      <c r="G85" s="12" t="s">
+        <v>177</v>
+      </c>
+      <c r="H85" s="1"/>
+      <c r="I85" s="12"/>
+      <c r="J85" s="1"/>
+      <c r="K85" s="1"/>
+      <c r="L85" s="1"/>
+      <c r="M85" s="1"/>
+    </row>
+    <row r="86" spans="2:13" ht="93.75" x14ac:dyDescent="0.4">
+      <c r="B86" s="1">
+        <v>84</v>
+      </c>
+      <c r="C86" s="16">
+        <v>44082</v>
+      </c>
+      <c r="D86" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="E86" s="17" t="s">
+        <v>107</v>
+      </c>
+      <c r="F86" s="11" t="s">
+        <v>210</v>
+      </c>
+      <c r="G86" s="12" t="s">
+        <v>177</v>
+      </c>
+      <c r="H86" s="1"/>
+      <c r="I86" s="12"/>
+      <c r="J86" s="1"/>
+      <c r="K86" s="1"/>
+      <c r="L86" s="1"/>
+      <c r="M86" s="1"/>
+    </row>
+    <row r="87" spans="2:13" ht="93.75" x14ac:dyDescent="0.4">
+      <c r="B87" s="1">
+        <v>85</v>
+      </c>
+      <c r="C87" s="16">
+        <v>44082</v>
+      </c>
+      <c r="D87" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="E87" s="17" t="s">
+        <v>107</v>
+      </c>
+      <c r="F87" s="11" t="s">
+        <v>211</v>
+      </c>
+      <c r="G87" s="12" t="s">
+        <v>177</v>
+      </c>
+      <c r="H87" s="1"/>
+      <c r="I87" s="12"/>
+      <c r="J87" s="1"/>
+      <c r="K87" s="1"/>
+      <c r="L87" s="1"/>
+      <c r="M87" s="1"/>
+    </row>
+    <row r="88" spans="2:13" ht="56.25" x14ac:dyDescent="0.4">
+      <c r="B88" s="1">
+        <v>86</v>
+      </c>
+      <c r="C88" s="16">
+        <v>44082</v>
+      </c>
+      <c r="D88" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="E88" s="17" t="s">
+        <v>107</v>
+      </c>
+      <c r="F88" s="11" t="s">
+        <v>212</v>
+      </c>
+      <c r="G88" s="12" t="s">
+        <v>177</v>
+      </c>
+      <c r="H88" s="1"/>
+      <c r="I88" s="12"/>
+      <c r="J88" s="1"/>
+      <c r="K88" s="1"/>
+      <c r="L88" s="1"/>
+      <c r="M88" s="1"/>
+    </row>
+    <row r="89" spans="2:13" ht="75" x14ac:dyDescent="0.4">
+      <c r="B89" s="1">
+        <v>87</v>
+      </c>
+      <c r="C89" s="16">
+        <v>44082</v>
+      </c>
+      <c r="D89" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="E89" s="17" t="s">
+        <v>107</v>
+      </c>
+      <c r="F89" s="11" t="s">
+        <v>213</v>
+      </c>
+      <c r="G89" s="12" t="s">
+        <v>177</v>
+      </c>
+      <c r="H89" s="1"/>
+      <c r="I89" s="12"/>
+      <c r="J89" s="1"/>
+      <c r="K89" s="1"/>
+      <c r="L89" s="1"/>
+      <c r="M89" s="1"/>
+    </row>
+    <row r="90" spans="2:13" ht="75" x14ac:dyDescent="0.4">
+      <c r="B90" s="1">
+        <v>88</v>
+      </c>
+      <c r="C90" s="16">
+        <v>44082</v>
+      </c>
+      <c r="D90" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="E90" s="17" t="s">
+        <v>107</v>
+      </c>
+      <c r="F90" s="11" t="s">
+        <v>214</v>
+      </c>
+      <c r="G90" s="12" t="s">
+        <v>177</v>
+      </c>
+      <c r="H90" s="1"/>
+      <c r="I90" s="12"/>
+      <c r="J90" s="1"/>
+      <c r="K90" s="1"/>
+      <c r="L90" s="1"/>
+      <c r="M90" s="1"/>
+    </row>
+    <row r="91" spans="2:13" ht="75" x14ac:dyDescent="0.4">
+      <c r="B91" s="1">
+        <v>89</v>
+      </c>
+      <c r="C91" s="16">
+        <v>44082</v>
+      </c>
+      <c r="D91" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="E91" s="17" t="s">
+        <v>107</v>
+      </c>
+      <c r="F91" s="11" t="s">
+        <v>215</v>
+      </c>
+      <c r="G91" s="12" t="s">
+        <v>177</v>
+      </c>
+      <c r="H91" s="1"/>
+      <c r="I91" s="12"/>
+      <c r="J91" s="1"/>
+      <c r="K91" s="1"/>
+      <c r="L91" s="1"/>
+      <c r="M91" s="1"/>
+    </row>
+    <row r="92" spans="2:13" ht="75" x14ac:dyDescent="0.4">
+      <c r="B92" s="1">
+        <v>90</v>
+      </c>
+      <c r="C92" s="16">
+        <v>44082</v>
+      </c>
+      <c r="D92" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="E92" s="17" t="s">
+        <v>107</v>
+      </c>
+      <c r="F92" s="11" t="s">
+        <v>216</v>
+      </c>
+      <c r="G92" s="12" t="s">
+        <v>177</v>
+      </c>
+      <c r="H92" s="1"/>
+      <c r="I92" s="12"/>
+      <c r="J92" s="1"/>
+      <c r="K92" s="1"/>
+      <c r="L92" s="1"/>
+      <c r="M92" s="1"/>
+    </row>
+    <row r="93" spans="2:13" ht="75" x14ac:dyDescent="0.4">
+      <c r="B93" s="1">
+        <v>91</v>
+      </c>
+      <c r="C93" s="16">
+        <v>44082</v>
+      </c>
+      <c r="D93" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="E93" s="17" t="s">
+        <v>217</v>
+      </c>
+      <c r="F93" s="11" t="s">
+        <v>218</v>
+      </c>
+      <c r="G93" s="12" t="s">
+        <v>177</v>
+      </c>
+      <c r="H93" s="1"/>
+      <c r="I93" s="12"/>
+      <c r="J93" s="1"/>
+      <c r="K93" s="1"/>
+      <c r="L93" s="1"/>
+      <c r="M93" s="1"/>
+    </row>
+    <row r="94" spans="2:13" ht="93.75" x14ac:dyDescent="0.4">
+      <c r="B94" s="1">
+        <v>92</v>
+      </c>
+      <c r="C94" s="16">
+        <v>44082</v>
+      </c>
+      <c r="D94" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="E94" s="17" t="s">
+        <v>107</v>
+      </c>
+      <c r="F94" s="11" t="s">
+        <v>219</v>
+      </c>
+      <c r="G94" s="12" t="s">
+        <v>177</v>
+      </c>
+      <c r="H94" s="1"/>
+      <c r="I94" s="12"/>
+      <c r="J94" s="1"/>
+      <c r="K94" s="1"/>
+      <c r="L94" s="1"/>
+      <c r="M94" s="1"/>
+    </row>
+    <row r="95" spans="2:13" ht="75" x14ac:dyDescent="0.4">
+      <c r="B95" s="1">
+        <v>93</v>
+      </c>
+      <c r="C95" s="16">
+        <v>44082</v>
+      </c>
+      <c r="D95" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="E95" s="17" t="s">
+        <v>107</v>
+      </c>
+      <c r="F95" s="11" t="s">
+        <v>220</v>
+      </c>
+      <c r="G95" s="12" t="s">
+        <v>177</v>
+      </c>
+      <c r="H95" s="1"/>
+      <c r="I95" s="12"/>
+      <c r="J95" s="1"/>
+      <c r="K95" s="1"/>
+      <c r="L95" s="1"/>
+      <c r="M95" s="1"/>
+    </row>
+    <row r="96" spans="2:13" ht="93.75" x14ac:dyDescent="0.4">
+      <c r="B96" s="1">
+        <v>94</v>
+      </c>
+      <c r="C96" s="16">
+        <v>44082</v>
+      </c>
+      <c r="D96" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="E96" s="17" t="s">
+        <v>107</v>
+      </c>
+      <c r="F96" s="11" t="s">
+        <v>234</v>
+      </c>
+      <c r="G96" s="12"/>
+      <c r="H96" s="1"/>
+      <c r="I96" s="12"/>
+      <c r="J96" s="1"/>
+      <c r="K96" s="1"/>
+      <c r="L96" s="1"/>
+      <c r="M96" s="1"/>
+    </row>
+    <row r="97" spans="2:13" ht="56.25" x14ac:dyDescent="0.4">
+      <c r="B97" s="1">
+        <v>95</v>
+      </c>
+      <c r="C97" s="16">
+        <v>44082</v>
+      </c>
+      <c r="D97" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="E97" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="F97" s="11" t="s">
+        <v>223</v>
+      </c>
+      <c r="G97" s="12" t="s">
+        <v>222</v>
+      </c>
+      <c r="H97" s="1"/>
+      <c r="I97" s="12"/>
+      <c r="J97" s="1"/>
+      <c r="K97" s="1"/>
+      <c r="L97" s="1"/>
+      <c r="M97" s="1"/>
+    </row>
+    <row r="98" spans="2:13" ht="75" x14ac:dyDescent="0.4">
+      <c r="B98" s="1">
+        <v>96</v>
+      </c>
+      <c r="C98" s="16">
+        <v>44082</v>
+      </c>
+      <c r="D98" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="E98" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="F98" s="11" t="s">
+        <v>224</v>
+      </c>
+      <c r="G98" s="12" t="s">
+        <v>222</v>
+      </c>
+      <c r="H98" s="1"/>
+      <c r="I98" s="12"/>
+      <c r="J98" s="1"/>
+      <c r="K98" s="1"/>
+      <c r="L98" s="1"/>
+      <c r="M98" s="1"/>
+    </row>
+    <row r="99" spans="2:13" ht="112.5" x14ac:dyDescent="0.4">
+      <c r="B99" s="1">
+        <v>97</v>
+      </c>
+      <c r="C99" s="16">
+        <v>44082</v>
+      </c>
+      <c r="D99" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="E99" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="F99" s="11" t="s">
+        <v>225</v>
+      </c>
+      <c r="G99" s="12" t="s">
+        <v>222</v>
+      </c>
+      <c r="H99" s="1"/>
+      <c r="I99" s="12"/>
+      <c r="J99" s="1"/>
+      <c r="K99" s="1"/>
+      <c r="L99" s="1"/>
+      <c r="M99" s="1"/>
+    </row>
+    <row r="100" spans="2:13" ht="93.75" x14ac:dyDescent="0.4">
+      <c r="B100" s="1">
+        <v>98</v>
+      </c>
+      <c r="C100" s="16">
+        <v>44082</v>
+      </c>
+      <c r="D100" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="E100" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="F100" s="11" t="s">
+        <v>226</v>
+      </c>
+      <c r="G100" s="12" t="s">
+        <v>222</v>
+      </c>
+      <c r="H100" s="1"/>
+      <c r="I100" s="12"/>
+      <c r="J100" s="1"/>
+      <c r="K100" s="1"/>
+      <c r="L100" s="1"/>
+      <c r="M100" s="1"/>
+    </row>
+    <row r="101" spans="2:13" ht="75" x14ac:dyDescent="0.4">
+      <c r="B101" s="1">
+        <v>99</v>
+      </c>
+      <c r="C101" s="16">
+        <v>44082</v>
+      </c>
+      <c r="D101" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="E101" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="F101" s="11" t="s">
+        <v>233</v>
+      </c>
+      <c r="G101" s="12" t="s">
+        <v>222</v>
+      </c>
+      <c r="H101" s="1"/>
+      <c r="I101" s="12"/>
+      <c r="J101" s="1"/>
+      <c r="K101" s="1"/>
+      <c r="L101" s="1"/>
+      <c r="M101" s="1"/>
+    </row>
+    <row r="102" spans="2:13" ht="112.5" x14ac:dyDescent="0.4">
+      <c r="B102" s="1">
+        <v>100</v>
+      </c>
+      <c r="C102" s="16">
+        <v>44082</v>
+      </c>
+      <c r="D102" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="E102" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="F102" s="11" t="s">
+        <v>228</v>
+      </c>
+      <c r="G102" s="12" t="s">
+        <v>222</v>
+      </c>
+      <c r="H102" s="1"/>
+      <c r="I102" s="12"/>
+      <c r="J102" s="1"/>
+      <c r="K102" s="1"/>
+      <c r="L102" s="1"/>
+      <c r="M102" s="1"/>
+    </row>
+    <row r="103" spans="2:13" ht="112.5" x14ac:dyDescent="0.4">
+      <c r="B103" s="1">
+        <v>101</v>
+      </c>
+      <c r="C103" s="16">
+        <v>44082</v>
+      </c>
+      <c r="D103" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="E103" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="F103" s="11" t="s">
+        <v>229</v>
+      </c>
+      <c r="G103" s="12" t="s">
+        <v>222</v>
+      </c>
+      <c r="H103" s="1"/>
+      <c r="I103" s="12"/>
+      <c r="J103" s="1"/>
+      <c r="K103" s="1"/>
+      <c r="L103" s="1"/>
+      <c r="M103" s="1"/>
+    </row>
+    <row r="104" spans="2:13" ht="112.5" x14ac:dyDescent="0.4">
+      <c r="B104" s="1">
+        <v>102</v>
+      </c>
+      <c r="C104" s="16">
+        <v>44082</v>
+      </c>
+      <c r="D104" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="E104" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="F104" s="11" t="s">
+        <v>230</v>
+      </c>
+      <c r="G104" s="12" t="s">
+        <v>222</v>
+      </c>
+      <c r="H104" s="1"/>
+      <c r="I104" s="12"/>
+      <c r="J104" s="1"/>
+      <c r="K104" s="1"/>
+      <c r="L104" s="1"/>
+      <c r="M104" s="1"/>
+    </row>
+    <row r="105" spans="2:13" ht="56.25" x14ac:dyDescent="0.4">
+      <c r="B105" s="1">
+        <v>103</v>
+      </c>
+      <c r="C105" s="16">
+        <v>44082</v>
+      </c>
+      <c r="D105" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="E105" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="F105" s="11" t="s">
+        <v>231</v>
+      </c>
+      <c r="G105" s="12" t="s">
+        <v>222</v>
+      </c>
+      <c r="H105" s="1"/>
+      <c r="I105" s="12"/>
+      <c r="J105" s="1"/>
+      <c r="K105" s="1"/>
+      <c r="L105" s="1"/>
+      <c r="M105" s="1"/>
+    </row>
+    <row r="106" spans="2:13" ht="56.25" x14ac:dyDescent="0.4">
+      <c r="B106" s="1">
+        <v>104</v>
+      </c>
+      <c r="C106" s="16">
+        <v>44082</v>
+      </c>
+      <c r="D106" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="E106" s="17" t="s">
+        <v>96</v>
+      </c>
+      <c r="F106" s="11" t="s">
+        <v>232</v>
+      </c>
+      <c r="G106" s="12" t="s">
+        <v>222</v>
+      </c>
+      <c r="H106" s="1"/>
+      <c r="I106" s="12"/>
+      <c r="J106" s="1"/>
+      <c r="K106" s="1"/>
+      <c r="L106" s="1"/>
+      <c r="M106" s="1"/>
+    </row>
+    <row r="107" spans="2:13" ht="56.25" x14ac:dyDescent="0.4">
+      <c r="B107" s="1">
+        <v>105</v>
+      </c>
+      <c r="C107" s="16">
+        <v>44082</v>
+      </c>
+      <c r="D107" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="E107" s="17" t="s">
+        <v>96</v>
+      </c>
+      <c r="F107" s="11" t="s">
+        <v>236</v>
+      </c>
+      <c r="G107" s="12" t="s">
+        <v>222</v>
+      </c>
+      <c r="H107" s="1"/>
+      <c r="I107" s="12"/>
+      <c r="J107" s="1"/>
+      <c r="K107" s="1"/>
+      <c r="L107" s="1"/>
+      <c r="M107" s="1"/>
+    </row>
+    <row r="108" spans="2:13" ht="75" x14ac:dyDescent="0.4">
+      <c r="B108" s="1">
+        <v>106</v>
+      </c>
+      <c r="C108" s="16">
+        <v>44082</v>
+      </c>
+      <c r="D108" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="E108" s="17" t="s">
+        <v>96</v>
+      </c>
+      <c r="F108" s="11" t="s">
+        <v>237</v>
+      </c>
+      <c r="G108" s="12" t="s">
+        <v>222</v>
+      </c>
+      <c r="H108" s="1"/>
+      <c r="I108" s="12"/>
+      <c r="J108" s="1"/>
+      <c r="K108" s="1"/>
+      <c r="L108" s="1"/>
+      <c r="M108" s="1"/>
+    </row>
+    <row r="109" spans="2:13" ht="75" x14ac:dyDescent="0.4">
+      <c r="B109" s="1">
+        <v>107</v>
+      </c>
+      <c r="C109" s="16">
+        <v>44082</v>
+      </c>
+      <c r="D109" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="E109" s="17" t="s">
+        <v>96</v>
+      </c>
+      <c r="F109" s="11" t="s">
+        <v>238</v>
+      </c>
+      <c r="G109" s="12" t="s">
+        <v>222</v>
+      </c>
+      <c r="H109" s="1"/>
+      <c r="I109" s="12"/>
+      <c r="J109" s="1"/>
+      <c r="K109" s="1"/>
+      <c r="L109" s="1"/>
+      <c r="M109" s="1"/>
+    </row>
+    <row r="110" spans="2:13" ht="75" x14ac:dyDescent="0.4">
+      <c r="B110" s="1">
+        <v>108</v>
+      </c>
+      <c r="C110" s="16">
+        <v>44082</v>
+      </c>
+      <c r="D110" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="E110" s="17" t="s">
+        <v>96</v>
+      </c>
+      <c r="F110" s="11" t="s">
+        <v>239</v>
+      </c>
+      <c r="G110" s="12" t="s">
+        <v>222</v>
+      </c>
+      <c r="H110" s="1"/>
+      <c r="I110" s="12"/>
+      <c r="J110" s="1"/>
+      <c r="K110" s="1"/>
+      <c r="L110" s="1"/>
+      <c r="M110" s="1"/>
+    </row>
+    <row r="111" spans="2:13" ht="93.75" x14ac:dyDescent="0.4">
+      <c r="B111" s="1">
+        <v>109</v>
+      </c>
+      <c r="C111" s="16">
+        <v>44082</v>
+      </c>
+      <c r="D111" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="E111" s="17" t="s">
+        <v>96</v>
+      </c>
+      <c r="F111" s="11" t="s">
+        <v>241</v>
+      </c>
+      <c r="G111" s="12" t="s">
+        <v>222</v>
+      </c>
+      <c r="H111" s="1"/>
+      <c r="I111" s="12"/>
+      <c r="J111" s="1"/>
+      <c r="K111" s="1"/>
+      <c r="L111" s="1"/>
+      <c r="M111" s="1"/>
+    </row>
+    <row r="112" spans="2:13" ht="56.25" x14ac:dyDescent="0.4">
+      <c r="B112" s="1">
+        <v>110</v>
+      </c>
+      <c r="C112" s="16">
+        <v>44082</v>
+      </c>
+      <c r="D112" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="E112" s="17" t="s">
+        <v>96</v>
+      </c>
+      <c r="F112" s="11" t="s">
+        <v>242</v>
+      </c>
+      <c r="G112" s="12" t="s">
+        <v>222</v>
+      </c>
+      <c r="H112" s="1"/>
+      <c r="I112" s="12"/>
+      <c r="J112" s="1"/>
+      <c r="K112" s="1"/>
+      <c r="L112" s="1"/>
+      <c r="M112" s="1"/>
+    </row>
+    <row r="113" spans="2:13" ht="75" x14ac:dyDescent="0.4">
+      <c r="B113" s="1">
+        <v>111</v>
+      </c>
+      <c r="C113" s="16">
+        <v>44082</v>
+      </c>
+      <c r="D113" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="E113" s="17" t="s">
+        <v>96</v>
+      </c>
+      <c r="F113" s="11" t="s">
+        <v>243</v>
+      </c>
+      <c r="G113" s="12" t="s">
+        <v>222</v>
+      </c>
+      <c r="H113" s="1"/>
+      <c r="I113" s="12"/>
+      <c r="J113" s="1"/>
+      <c r="K113" s="1"/>
+      <c r="L113" s="1"/>
+      <c r="M113" s="1"/>
+    </row>
+    <row r="114" spans="2:13" ht="112.5" x14ac:dyDescent="0.4">
+      <c r="B114" s="1">
+        <v>112</v>
+      </c>
+      <c r="C114" s="16">
+        <v>44082</v>
+      </c>
+      <c r="D114" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="E114" s="17" t="s">
+        <v>96</v>
+      </c>
+      <c r="F114" s="11" t="s">
+        <v>246</v>
+      </c>
+      <c r="G114" s="12" t="s">
+        <v>222</v>
+      </c>
+      <c r="H114" s="1"/>
+      <c r="I114" s="12"/>
+      <c r="J114" s="1"/>
+      <c r="K114" s="1"/>
+      <c r="L114" s="1"/>
+      <c r="M114" s="1"/>
+    </row>
+    <row r="115" spans="2:13" ht="187.5" x14ac:dyDescent="0.4">
+      <c r="B115" s="1">
+        <v>113</v>
+      </c>
+      <c r="C115" s="16">
+        <v>44082</v>
+      </c>
+      <c r="D115" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="E115" s="17" t="s">
+        <v>96</v>
+      </c>
+      <c r="F115" s="11" t="s">
+        <v>247</v>
+      </c>
+      <c r="G115" s="12" t="s">
+        <v>222</v>
+      </c>
+      <c r="H115" s="1"/>
+      <c r="I115" s="12"/>
+      <c r="J115" s="1"/>
+      <c r="K115" s="1"/>
+      <c r="L115" s="1"/>
+      <c r="M115" s="1"/>
+    </row>
+    <row r="116" spans="2:13" ht="75" x14ac:dyDescent="0.4">
+      <c r="B116" s="1">
+        <v>114</v>
+      </c>
+      <c r="C116" s="16">
+        <v>44082</v>
+      </c>
+      <c r="D116" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="E116" s="17" t="s">
+        <v>96</v>
+      </c>
+      <c r="F116" s="11" t="s">
+        <v>244</v>
+      </c>
+      <c r="G116" s="12" t="s">
+        <v>222</v>
+      </c>
+      <c r="H116" s="1"/>
+      <c r="I116" s="12"/>
+      <c r="J116" s="1"/>
+      <c r="K116" s="1"/>
+      <c r="L116" s="1"/>
+      <c r="M116" s="1"/>
+    </row>
+    <row r="117" spans="2:13" ht="168.75" x14ac:dyDescent="0.4">
+      <c r="B117" s="1">
+        <v>115</v>
+      </c>
+      <c r="C117" s="16">
+        <v>44082</v>
+      </c>
+      <c r="D117" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="E117" s="17" t="s">
+        <v>96</v>
+      </c>
+      <c r="F117" s="11" t="s">
+        <v>245</v>
+      </c>
+      <c r="G117" s="12" t="s">
+        <v>222</v>
+      </c>
+      <c r="H117" s="1"/>
+      <c r="I117" s="12"/>
+      <c r="J117" s="1"/>
+      <c r="K117" s="1"/>
+      <c r="L117" s="1"/>
+      <c r="M117" s="1"/>
+    </row>
+    <row r="118" spans="2:13" x14ac:dyDescent="0.4">
+      <c r="B118" s="1">
+        <v>116</v>
+      </c>
+      <c r="C118" s="17"/>
+      <c r="D118" s="17"/>
+      <c r="E118" s="17"/>
+      <c r="F118" s="11"/>
+      <c r="G118" s="12"/>
+      <c r="H118" s="1"/>
+      <c r="I118" s="12"/>
+      <c r="J118" s="1"/>
+      <c r="K118" s="1"/>
+      <c r="L118" s="1"/>
+      <c r="M118" s="1"/>
+    </row>
+    <row r="119" spans="2:13" x14ac:dyDescent="0.4">
+      <c r="B119" s="1">
+        <v>117</v>
+      </c>
+      <c r="C119" s="17"/>
+      <c r="D119" s="17"/>
+      <c r="E119" s="17"/>
+      <c r="F119" s="11"/>
+      <c r="G119" s="12"/>
+      <c r="H119" s="1"/>
+      <c r="I119" s="12"/>
+      <c r="J119" s="1"/>
+      <c r="K119" s="1"/>
+      <c r="L119" s="1"/>
+      <c r="M119" s="1"/>
+    </row>
+    <row r="120" spans="2:13" x14ac:dyDescent="0.4">
+      <c r="B120" s="1">
+        <v>118</v>
+      </c>
+      <c r="C120" s="17"/>
+      <c r="D120" s="17"/>
+      <c r="E120" s="17"/>
+      <c r="F120" s="11"/>
+      <c r="G120" s="12"/>
+      <c r="H120" s="1"/>
+      <c r="I120" s="12"/>
+      <c r="J120" s="1"/>
+      <c r="K120" s="1"/>
+      <c r="L120" s="1"/>
+      <c r="M120" s="1"/>
+    </row>
+    <row r="121" spans="2:13" x14ac:dyDescent="0.4">
+      <c r="B121" s="1">
+        <v>119</v>
+      </c>
+      <c r="C121" s="17"/>
+      <c r="D121" s="17"/>
+      <c r="E121" s="17"/>
+      <c r="F121" s="11"/>
+      <c r="G121" s="12"/>
+      <c r="H121" s="1"/>
+      <c r="I121" s="12"/>
+      <c r="J121" s="1"/>
+      <c r="K121" s="1"/>
+      <c r="L121" s="1"/>
+      <c r="M121" s="1"/>
+    </row>
+    <row r="122" spans="2:13" x14ac:dyDescent="0.4">
+      <c r="B122" s="1">
+        <v>120</v>
+      </c>
+      <c r="C122" s="17"/>
+      <c r="D122" s="17"/>
+      <c r="E122" s="17"/>
+      <c r="F122" s="11"/>
+      <c r="G122" s="12"/>
+      <c r="H122" s="1"/>
+      <c r="I122" s="12"/>
+      <c r="J122" s="1"/>
+      <c r="K122" s="1"/>
+      <c r="L122" s="1"/>
+      <c r="M122" s="1"/>
+    </row>
+    <row r="123" spans="2:13" x14ac:dyDescent="0.4">
+      <c r="B123" s="1">
+        <v>121</v>
+      </c>
+      <c r="C123" s="17"/>
+      <c r="D123" s="17"/>
+      <c r="E123" s="17"/>
+      <c r="F123" s="11"/>
+      <c r="G123" s="12"/>
+      <c r="H123" s="1"/>
+      <c r="I123" s="12"/>
+      <c r="J123" s="1"/>
+      <c r="K123" s="1"/>
+      <c r="L123" s="1"/>
+      <c r="M123" s="1"/>
+    </row>
+    <row r="124" spans="2:13" x14ac:dyDescent="0.4">
+      <c r="B124" s="1">
+        <v>122</v>
+      </c>
+      <c r="C124" s="17"/>
+      <c r="D124" s="17"/>
+      <c r="E124" s="17"/>
+      <c r="F124" s="11"/>
+      <c r="G124" s="12"/>
+      <c r="H124" s="1"/>
+      <c r="I124" s="12"/>
+      <c r="J124" s="1"/>
+      <c r="K124" s="1"/>
+      <c r="L124" s="1"/>
+      <c r="M124" s="1"/>
+    </row>
+    <row r="125" spans="2:13" x14ac:dyDescent="0.4">
+      <c r="B125" s="1">
+        <v>123</v>
+      </c>
+      <c r="C125" s="17"/>
+      <c r="D125" s="17"/>
+      <c r="E125" s="17"/>
+      <c r="F125" s="11"/>
+      <c r="G125" s="12"/>
+      <c r="H125" s="1"/>
+      <c r="I125" s="12"/>
+      <c r="J125" s="1"/>
+      <c r="K125" s="1"/>
+      <c r="L125" s="1"/>
+      <c r="M125" s="1"/>
+    </row>
+    <row r="126" spans="2:13" x14ac:dyDescent="0.4">
+      <c r="B126" s="1">
+        <v>124</v>
+      </c>
+      <c r="C126" s="17"/>
+      <c r="D126" s="17"/>
+      <c r="E126" s="17"/>
+      <c r="F126" s="11"/>
+      <c r="G126" s="12"/>
+      <c r="H126" s="1"/>
+      <c r="I126" s="12"/>
+      <c r="J126" s="1"/>
+      <c r="K126" s="1"/>
+      <c r="L126" s="1"/>
+      <c r="M126" s="1"/>
+    </row>
+    <row r="127" spans="2:13" x14ac:dyDescent="0.4">
+      <c r="B127" s="1">
+        <v>125</v>
+      </c>
+      <c r="C127" s="17"/>
+      <c r="D127" s="17"/>
+      <c r="E127" s="17"/>
+      <c r="F127" s="11"/>
+      <c r="G127" s="12"/>
+      <c r="H127" s="1"/>
+      <c r="I127" s="12"/>
+      <c r="J127" s="1"/>
+      <c r="K127" s="1"/>
+      <c r="L127" s="1"/>
+      <c r="M127" s="1"/>
+    </row>
+    <row r="128" spans="2:13" x14ac:dyDescent="0.4">
+      <c r="B128" s="1">
+        <v>126</v>
+      </c>
+      <c r="C128" s="17"/>
+      <c r="D128" s="17"/>
+      <c r="E128" s="17"/>
+      <c r="F128" s="11"/>
+      <c r="G128" s="12"/>
+      <c r="H128" s="1"/>
+      <c r="I128" s="12"/>
+      <c r="J128" s="1"/>
+      <c r="K128" s="1"/>
+      <c r="L128" s="1"/>
+      <c r="M128" s="1"/>
+    </row>
+    <row r="129" spans="2:13" x14ac:dyDescent="0.4">
+      <c r="B129" s="1">
+        <v>127</v>
+      </c>
+      <c r="C129" s="17"/>
+      <c r="D129" s="17"/>
+      <c r="E129" s="17"/>
+      <c r="F129" s="11"/>
+      <c r="G129" s="12"/>
+      <c r="H129" s="1"/>
+      <c r="I129" s="12"/>
+      <c r="J129" s="1"/>
+      <c r="K129" s="1"/>
+      <c r="L129" s="1"/>
+      <c r="M129" s="1"/>
+    </row>
+    <row r="130" spans="2:13" x14ac:dyDescent="0.4">
+      <c r="B130" s="1">
+        <v>128</v>
+      </c>
+      <c r="C130" s="17"/>
+      <c r="D130" s="17"/>
+      <c r="E130" s="17"/>
+      <c r="F130" s="11"/>
+      <c r="G130" s="12"/>
+      <c r="H130" s="1"/>
+      <c r="I130" s="12"/>
+      <c r="J130" s="1"/>
+      <c r="K130" s="1"/>
+      <c r="L130" s="1"/>
+      <c r="M130" s="1"/>
+    </row>
+    <row r="131" spans="2:13" x14ac:dyDescent="0.4">
+      <c r="B131" s="1">
+        <v>129</v>
+      </c>
+      <c r="C131" s="17"/>
+      <c r="D131" s="17"/>
+      <c r="E131" s="17"/>
+      <c r="F131" s="11"/>
+      <c r="G131" s="12"/>
+      <c r="H131" s="1"/>
+      <c r="I131" s="12"/>
+      <c r="J131" s="1"/>
+      <c r="K131" s="1"/>
+      <c r="L131" s="1"/>
+      <c r="M131" s="1"/>
+    </row>
+    <row r="132" spans="2:13" x14ac:dyDescent="0.4">
+      <c r="B132" s="1">
+        <v>130</v>
+      </c>
+      <c r="C132" s="17"/>
+      <c r="D132" s="17"/>
+      <c r="E132" s="17"/>
+      <c r="F132" s="11"/>
+      <c r="G132" s="12"/>
+      <c r="H132" s="1"/>
+      <c r="I132" s="12"/>
+      <c r="J132" s="1"/>
+      <c r="K132" s="1"/>
+      <c r="L132" s="1"/>
+      <c r="M132" s="1"/>
+    </row>
   </sheetData>
   <autoFilter ref="B2:M60" xr:uid="{00000000-0009-0000-0000-000001000000}"/>
   <phoneticPr fontId="1"/>
-  <conditionalFormatting sqref="B3:M40 M41 B51:M60 I43:M50 I41:J42 B41:H50">
-    <cfRule type="expression" dxfId="3" priority="4">
+  <conditionalFormatting sqref="B3:M40 M41 I43:M50 I41:J42 B41:H50 B51:M132">
+    <cfRule type="expression" dxfId="2" priority="6">
       <formula>AND($I3 &lt;&gt; "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K41:L41">
-    <cfRule type="expression" dxfId="2" priority="3">
+    <cfRule type="expression" dxfId="1" priority="5">
       <formula>AND($I41 &lt;&gt; "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K42:M42">
-    <cfRule type="expression" dxfId="1" priority="2">
+    <cfRule type="expression" dxfId="0" priority="4">
       <formula>AND($I42 &lt;&gt; "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B61:M78">
-    <cfRule type="expression" dxfId="0" priority="1">
-      <formula>AND($I61 &lt;&gt; "")</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6316,21 +9655,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x010100AC3CE858FB295540B5DE7630D250C364" ma:contentTypeVersion="6" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="d1b51e41a82ef2929feb227f42bcce47">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="b0bce737-b0aa-42b7-a1df-335df910e9b2" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="8eac2d54d99ca51f902e3590e4374505" ns2:_="">
     <xsd:import namespace="b0bce737-b0aa-42b7-a1df-335df910e9b2"/>
@@ -6488,14 +9812,52 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BFD1A9C8-A29C-40FA-83F1-A4A8E6C433BB}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BA50F61E-C53D-4A07-A314-70616507FBE9}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="b0bce737-b0aa-42b7-a1df-335df910e9b2"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F29D5C17-BBB1-4018-A557-AAEBE59183A8}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BFD1A9C8-A29C-40FA-83F1-A4A8E6C433BB}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BA50F61E-C53D-4A07-A314-70616507FBE9}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F29D5C17-BBB1-4018-A557-AAEBE59183A8}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/PJ/MoneyLife/Docment/QAシート_Ver1.3.xlsx
+++ b/PJ/MoneyLife/Docment/QAシート_Ver1.3.xlsx
@@ -8,16 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\horo\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98C5197B-CAA3-4E90-8477-2A216ACFC310}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{173D673A-B5A8-40DB-B5B7-DEA191E75224}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12945" yWindow="11355" windowWidth="15300" windowHeight="7875" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="20280" yWindow="5025" windowWidth="29040" windowHeight="15840" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="更新履歴" sheetId="2" r:id="rId1"/>
     <sheet name="QAシート" sheetId="1" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">QAシート!$B$2:$M$60</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">QAシート!$B$2:$M$59</definedName>
   </definedNames>
   <calcPr calcId="191028"/>
   <extLst>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="658" uniqueCount="248">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="671" uniqueCount="251">
   <si>
     <t>更新履歴</t>
     <rPh sb="0" eb="2">
@@ -3085,6 +3085,13 @@
     <t>家計簿案_0820版_ver4.xlsxの基本機能シートにあるその他機能で、”記入したらスタンプが押される”という記載がありますが、機能概要（２）シートの初期画面にはその旨の記載がありません。スタンプ機能は廃止されたということで良かったでしょうか？</t>
   </si>
   <si>
+    <t>関連：58</t>
+    <rPh sb="0" eb="2">
+      <t>カンレン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
     <t>詳細設計書_20200904（検索画面）.xlsのイベント処理シートで、セルA59の説明（新規登録時は～）は登録画面での説明と思われるので、削除をお願いします。</t>
   </si>
   <si>
@@ -3123,6 +3130,13 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
+    <t>関連：No55</t>
+    <rPh sb="0" eb="2">
+      <t>カンレン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
     <t>登録画面の”削除”ボタンについて
 詳細設計書_20200904（登録画面）.xlsのイベント処理シートセルA47の説明で、”削除したいデータを選択すると～”とありますが、どの画面から選択をしますか？その旨を詳細設計書にも記載をお願いしたいです。</t>
   </si>
@@ -3154,20 +3168,6 @@
     </rPh>
     <rPh sb="11" eb="13">
       <t>サクジヨ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>西原</t>
-    <rPh sb="0" eb="2">
-      <t>ニシハラ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>関連：No55</t>
-    <rPh sb="0" eb="2">
-      <t>カンレン</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -3190,13 +3190,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>中</t>
-    <rPh sb="0" eb="1">
-      <t>チュウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>設計（基本機能）</t>
     <rPh sb="0" eb="2">
       <t>セッケイ</t>
@@ -3215,13 +3208,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>高</t>
-    <rPh sb="0" eb="1">
-      <t>コウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>家計簿案_0907版_ver1.xlsxの基本機能シートのB11”目標消費性向を百分率（％）で表示”とありますが、この機能はどうなりますか？必要であればシートの修正をお願いしたいです。</t>
     <rPh sb="33" eb="35">
       <t>モクヒョウ</t>
@@ -3253,13 +3239,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>関連：58</t>
-    <rPh sb="0" eb="2">
-      <t>カンレン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>No48でスタンプ機能の廃止とありますが、計簿案_0907版_ver1.xlsxの基本機能シートのB15に記載がありますので、内容の削除をお願いしたいです。</t>
     <rPh sb="9" eb="11">
       <t>キノウ</t>
@@ -3282,6 +3261,16 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
+    <t>設計（初期）</t>
+    <rPh sb="0" eb="2">
+      <t>セッケイ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ショキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
     <t>家計簿案_0907版_ver1.xlsxの機能概要（２）シートE5にある”詳細画面”の文言は、”詳細設定画面”のことでよかったですか？</t>
     <rPh sb="43" eb="45">
       <t>モンゴン</t>
@@ -3289,16 +3278,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>設計（初期）</t>
-    <rPh sb="0" eb="2">
-      <t>セッケイ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>ショキ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>家計簿案_0907版_ver1.xlsxの機能概要（２）シートE28にある”入金情報を～”ですが、支出情報を入力した時は残高更新を行わないということでよかったですか？</t>
     <rPh sb="38" eb="40">
       <t>ニュウキン</t>
@@ -3412,6 +3391,28 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
+    <t>家計簿案_0907版_ver1.xlsxの機能概要（２）シートE46にある”CSVファイルで出力する”ですが、CSVファイルのレイアウトの提示と詳細設計書にも明記をお願いしたいです。</t>
+    <rPh sb="46" eb="48">
+      <t>シュツリョク</t>
+    </rPh>
+    <rPh sb="69" eb="71">
+      <t>テイジ</t>
+    </rPh>
+    <rPh sb="72" eb="74">
+      <t>ショウサイ</t>
+    </rPh>
+    <rPh sb="74" eb="77">
+      <t>セッケイショ</t>
+    </rPh>
+    <rPh sb="79" eb="81">
+      <t>メイキ</t>
+    </rPh>
+    <rPh sb="83" eb="84">
+      <t>ネガ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
     <t>設計（詳細）</t>
     <rPh sb="0" eb="2">
       <t>セッケイ</t>
@@ -3464,13 +3465,6 @@
     </rPh>
     <rPh sb="105" eb="106">
       <t>ネガ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>設計（DB）</t>
-    <rPh sb="0" eb="2">
-      <t>セッケイ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -3603,6 +3597,22 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
+    <t>詳細設計書_20200908（検索画面）.xlsのイベント処理シートB37で、”入力画面から初期画面へ遷移する”という文言がありますが、”登録画面から初期画面へ遷移する”が正しいと思いますので、修正をお願いしたいです（家計簿案_0907版_ver2.xlsxの機能概要（２）シートも同様）</t>
+    <rPh sb="46" eb="48">
+      <t>ショキ</t>
+    </rPh>
+    <rPh sb="48" eb="50">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="51" eb="53">
+      <t>センイ</t>
+    </rPh>
+    <rPh sb="69" eb="71">
+      <t>トウロク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
     <t>詳細設計書_20200908（詳細設定画面）.xlsのイベント処理シートA36の説明での”日付を選択すると日付欄に反映される”日付とは"2020/08"のことですか？
 また、その項目は選択可能ということですか？選択が可能であれば、選択時にはどういった画面になるか教えてほしいです。</t>
     <phoneticPr fontId="1"/>
@@ -3618,6 +3628,37 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
+    <t>目標金額と月初めは入力可能で他項目（当月残高、当月支出、当月収入）は入力不可だと思われますが、レイアウト（色など）が全ての項目で同じなので、ユーザが混乱しないか懸念点として挙げさせて頂きます。（初期画面の目標金額や、支出概要にある当月残高も同様）</t>
+    <rPh sb="97" eb="99">
+      <t>ショキ</t>
+    </rPh>
+    <rPh sb="99" eb="101">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="102" eb="104">
+      <t>モクヒョウ</t>
+    </rPh>
+    <rPh sb="104" eb="106">
+      <t>キンガク</t>
+    </rPh>
+    <rPh sb="108" eb="110">
+      <t>シシュツ</t>
+    </rPh>
+    <rPh sb="110" eb="112">
+      <t>ガイヨウ</t>
+    </rPh>
+    <rPh sb="115" eb="117">
+      <t>トウゲツ</t>
+    </rPh>
+    <rPh sb="117" eb="119">
+      <t>ザンダカ</t>
+    </rPh>
+    <rPh sb="120" eb="122">
+      <t>ドウヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
     <t>”月初め設定”がDB上登録する箇所が無いように見受けられます。このままだと起動時に毎回初期化されると思いますが、設計の再検討をお願いします。</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -3645,6 +3686,13 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
+    <t>詳細設計書_20200908（詳細設定画面）.xlsのイベント処理シートで、”当月残高”、”当月支出”、”当月収入”の詳細な説明が無いので、説明の記載をお願いしたいです。（入力できない＝イベントではない　ではなく、画面初期表示の際になにか動くのであれば、それもイベントです）</t>
+    <rPh sb="31" eb="33">
+      <t>ショリ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
     <t>詳細設計書_20200908（初期画面).xlsのIO関連シートで、入出金カテゴリーテーブルの情報も必要かと思います（カレンダー押下でデータ参照可能な為）</t>
     <rPh sb="27" eb="29">
       <t>カンレン</t>
@@ -3915,16 +3963,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>画面（検索）</t>
-    <rPh sb="0" eb="2">
-      <t>ガメン</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>ケンサク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>詳細設計書_20200908（検索画面）.xlsの画面項目シートで、日付の桁数は10桁ですが、画面では”yyyy/MM/d”までしか表示されなくなりますので、　桁数の再設定をお願いします。</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -3973,40 +4011,15 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>目標金額と月初めは入力可能で他項目（当月残高、当月支出、当月収入）は入力不可だと思われますが、レイアウト（色など）が全ての項目で同じなので、ユーザが混乱しないか懸念点として挙げさせて頂きます。（初期画面の目標金額や、支出概要にある当月残高も同様）</t>
-    <rPh sb="97" eb="99">
-      <t>ショキ</t>
-    </rPh>
-    <rPh sb="99" eb="101">
-      <t>ガメン</t>
-    </rPh>
-    <rPh sb="102" eb="104">
-      <t>モクヒョウ</t>
-    </rPh>
-    <rPh sb="104" eb="106">
-      <t>キンガク</t>
-    </rPh>
-    <rPh sb="108" eb="110">
-      <t>シシュツ</t>
-    </rPh>
-    <rPh sb="110" eb="112">
-      <t>ガイヨウ</t>
-    </rPh>
-    <rPh sb="115" eb="117">
-      <t>トウゲツ</t>
-    </rPh>
-    <rPh sb="117" eb="119">
-      <t>ザンダカ</t>
-    </rPh>
-    <rPh sb="120" eb="122">
+    <t>詳細設計書_20200908（検索画面）.xlsのイベント処理シートB37で、”入力画面”という文言がありますが、”検索画面から初期画面へ遷移する”が正しいと思いますので、修正をお願いしたいです（家計簿案_0907版_ver2.xlsxの機能概要（２）シートも同様）</t>
+    <rPh sb="15" eb="17">
+      <t>ケンサク</t>
+    </rPh>
+    <rPh sb="58" eb="60">
+      <t>ケンサク</t>
+    </rPh>
+    <rPh sb="130" eb="132">
       <t>ドウヨウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>中</t>
-    <rPh sb="0" eb="1">
-      <t>チュウ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -4071,7 +4084,7 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>詳細設計書_20200908（支出概要画面）.xlsのイベント処理シートで、”当月残高”について詳細な説明がありませんので、記載をお願いします（入力できない＝イベントではない　ではなく、画面初期表示の際になにか動くのであれば、それもイベントです）</t>
+    <t>詳細設計書_20200908（支出概要画面）.xlsのイベント処理シートで、”当月残高”について詳細な説明がありませんので、記載をお願いします（入力できない＝イベントではない　ではなく、画面初期表示の際になにか動くのであれば、それもイベントとなります）</t>
     <rPh sb="72" eb="74">
       <t>ニュウリョク</t>
     </rPh>
@@ -4093,9 +4106,45 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>詳細設計書_20200908（詳細設定画面）.xlsのイベント処理シートで、”当月残高”、”当月支出”、”当月収入”の詳細な説明が無いので、説明の記載をお願いしたいです。（入力できない＝イベントではない　ではなく、画面初期表示の際になにか動くのであれば、それもイベントです）</t>
-    <rPh sb="31" eb="33">
-      <t>ショリ</t>
+    <t>詳細設計書_20200908（支出概要画面）.xlsのイベント処理シートB38で、”入力画面”という文言がありますが、”支出概要画面から初期画面へ遷移する”が正しいと思いますので、修正をお願いしたいです。</t>
+    <rPh sb="42" eb="44">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="44" eb="46">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="50" eb="52">
+      <t>モンゴン</t>
+    </rPh>
+    <rPh sb="60" eb="62">
+      <t>シシュツ</t>
+    </rPh>
+    <rPh sb="62" eb="64">
+      <t>ガイヨウ</t>
+    </rPh>
+    <rPh sb="64" eb="66">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="68" eb="70">
+      <t>ショキ</t>
+    </rPh>
+    <rPh sb="70" eb="72">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="73" eb="75">
+      <t>センイ</t>
+    </rPh>
+    <rPh sb="79" eb="80">
+      <t>タダ</t>
+    </rPh>
+    <rPh sb="83" eb="84">
+      <t>オモ</t>
+    </rPh>
+    <rPh sb="90" eb="92">
+      <t>シュウセイ</t>
+    </rPh>
+    <rPh sb="94" eb="95">
+      <t>ネガ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -4158,7 +4207,7 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>詳細設計書_20200908（支出概要画面）.xlsのイベント処理シートB41で、”日付を選択すると日付欄に反映される”とありますが、”2020/08”等の表示部分を選択すると日付欄に反映される　という意味ですか？（B47も同様で”日付を選択すると”というのはどういう意味ですか？）</t>
+    <t>詳細設計書_20200908（支出概要画面）.xlsのイベント処理シートB41で、”日付を選択すると日付欄に反映される”とありますが、”2020/08”等の表示部分を選択すると日付欄に反映される　という意味ですか？（B47も同様で”日付を選択すると”というのはどういう意味となりますか？）</t>
     <rPh sb="42" eb="44">
       <t>ヒヅケ</t>
     </rPh>
@@ -4213,7 +4262,7 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>詳細設計書_20200908（支出概要画面）.xlsのイベント処理シートの検索画面の説明は”遷移する”、＋ボタンの説明は”起動する”となっていますが、遷移と起動でなにか違いはありますか？あるならそれを明記して頂きたいです。無い場合は文言を”遷移”に統一した方が良いかと思います。</t>
+    <t>詳細設計書_20200908（支出概要画面）.xlsのイベント処理シートの検索画面の説明は”遷移する”、＋ボタンの説明は”起動する”となっていますが、遷移と起動でなにか違いはありますか？あるならそれの明記をお願いいたします。無い場合は文言を”遷移”に統一した方が良いかと思います。</t>
     <rPh sb="37" eb="39">
       <t>ケンサク</t>
     </rPh>
@@ -4245,30 +4294,30 @@
       <t>メイキ</t>
     </rPh>
     <rPh sb="104" eb="105">
-      <t>イタダ</t>
-    </rPh>
-    <rPh sb="111" eb="112">
+      <t>ネガ</t>
+    </rPh>
+    <rPh sb="112" eb="113">
       <t>ナ</t>
     </rPh>
-    <rPh sb="113" eb="115">
+    <rPh sb="114" eb="116">
       <t>バアイ</t>
     </rPh>
-    <rPh sb="116" eb="118">
+    <rPh sb="117" eb="119">
       <t>モンゴン</t>
     </rPh>
-    <rPh sb="120" eb="122">
+    <rPh sb="121" eb="123">
       <t>センイ</t>
     </rPh>
-    <rPh sb="124" eb="126">
+    <rPh sb="125" eb="127">
       <t>トウイツ</t>
     </rPh>
-    <rPh sb="128" eb="129">
+    <rPh sb="129" eb="130">
       <t>ホウ</t>
     </rPh>
-    <rPh sb="130" eb="131">
+    <rPh sb="131" eb="132">
       <t>ヨ</t>
     </rPh>
-    <rPh sb="134" eb="135">
+    <rPh sb="135" eb="136">
       <t>オモ</t>
     </rPh>
     <phoneticPr fontId="1"/>
@@ -4336,78 +4385,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>詳細設計書_20200908（支出概要画面）.xlsのイベント処理シートB38で、”入力画面”という文言がありますが、”支出概要画面から初期画面へ遷移する”が正しいと思いますので、修正をお願いしたいです</t>
-    <rPh sb="42" eb="44">
-      <t>ニュウリョク</t>
-    </rPh>
-    <rPh sb="44" eb="46">
-      <t>ガメン</t>
-    </rPh>
-    <rPh sb="50" eb="52">
-      <t>モンゴン</t>
-    </rPh>
-    <rPh sb="60" eb="62">
-      <t>シシュツ</t>
-    </rPh>
-    <rPh sb="62" eb="64">
-      <t>ガイヨウ</t>
-    </rPh>
-    <rPh sb="64" eb="66">
-      <t>ガメン</t>
-    </rPh>
-    <rPh sb="68" eb="70">
-      <t>ショキ</t>
-    </rPh>
-    <rPh sb="70" eb="72">
-      <t>ガメン</t>
-    </rPh>
-    <rPh sb="73" eb="75">
-      <t>センイ</t>
-    </rPh>
-    <rPh sb="79" eb="80">
-      <t>タダ</t>
-    </rPh>
-    <rPh sb="83" eb="84">
-      <t>オモ</t>
-    </rPh>
-    <rPh sb="90" eb="92">
-      <t>シュウセイ</t>
-    </rPh>
-    <rPh sb="94" eb="95">
-      <t>ネガ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>詳細設計書_20200908（検索画面）.xlsのイベント処理シートB37で、”入力画面”という文言がありますが、”検索画面から初期画面へ遷移する”が正しいと思いますので、修正をお願いしたいです（家計簿案_0907版_ver2.xlsxの機能概要（２）シートも同様）</t>
-    <rPh sb="15" eb="17">
-      <t>ケンサク</t>
-    </rPh>
-    <rPh sb="58" eb="60">
-      <t>ケンサク</t>
-    </rPh>
-    <rPh sb="130" eb="132">
-      <t>ドウヨウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>詳細設計書_20200908（検索画面）.xlsのイベント処理シートB37で、”入力画面から初期画面へ遷移する”という文言がありますが、”登録画面から初期画面へ遷移する”が正しいと思いますので、修正をお願いしたいです（家計簿案_0907版_ver2.xlsxの機能概要（２）シートも同様）</t>
-    <rPh sb="46" eb="48">
-      <t>ショキ</t>
-    </rPh>
-    <rPh sb="48" eb="50">
-      <t>ガメン</t>
-    </rPh>
-    <rPh sb="51" eb="53">
-      <t>センイ</t>
-    </rPh>
-    <rPh sb="69" eb="71">
-      <t>トウロク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>詳細設計書_20200908（一覧画面）.xlsの画面項目シートで、”支出一覧”とは何か、詳細な仕様の明記をお願いしたいです。</t>
     <rPh sb="25" eb="27">
       <t>ガメン</t>
@@ -4439,7 +4416,7 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>詳細設計書_20200908（一覧画面）.xlsのイベント処理シートB38で、”入力画面”という文言がありますが、”一覧画面から初期画面へ遷移する”が正しいと思いますので、修正をお願いしたいです</t>
+    <t>詳細設計書_20200908（一覧画面）.xlsのイベント処理シートB38で、”入力画面”という文言がありますが、”一覧画面から初期画面へ遷移する”が正しいと思いますので、修正をお願いしたいです。</t>
     <rPh sb="15" eb="17">
       <t>イチラン</t>
     </rPh>
@@ -4517,28 +4494,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>家計簿案_0907版_ver1.xlsxの機能概要（２）シートE46にある”CSVファイルで出力する”ですが、CSVファイルのレイアウトの提示と詳細設計書にも明記をお願いしたいです。</t>
-    <rPh sb="46" eb="48">
-      <t>シュツリョク</t>
-    </rPh>
-    <rPh sb="69" eb="71">
-      <t>テイジ</t>
-    </rPh>
-    <rPh sb="72" eb="74">
-      <t>ショウサイ</t>
-    </rPh>
-    <rPh sb="74" eb="77">
-      <t>セッケイショ</t>
-    </rPh>
-    <rPh sb="79" eb="81">
-      <t>メイキ</t>
-    </rPh>
-    <rPh sb="83" eb="84">
-      <t>ネガ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>詳細設計書_20200908（一覧画面）.xlsのイベント処理シート”④ &lt; を押下”の説明で、日付を選択すると日付欄に反映されるとありますが、画面上部にある”2020/08”を押下できるという意味ですか？押下した場合の処理としては、どのようになりますか？</t>
     <rPh sb="44" eb="46">
       <t>セツメイ</t>
@@ -4652,107 +4607,6 @@
     </rPh>
     <rPh sb="93" eb="94">
       <t>ネガ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>詳細設計書_20200908（一覧画面）.xlsのイベント処理シート”⑦タブ切替ボタンを押下”の説明で”残高合計金額を表示する”とありますが、どのような表示になるのかレイアウトの提示をお願いしたいです。</t>
-    <rPh sb="52" eb="54">
-      <t>ザンダカ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>詳細設計書_20200908（一覧画面）.xlsのイベント処理シート”⑧該当データを押下”の説明で、該当データとはどのようなデータが表示されているのかもっと詳細な説明をお願いしたいです。（支出概要画面もそうでしたが、画面イメージに表示されている全ての項目を拾い切れていません。左部の\1,000とその隣にある項目/項目/項目…とは何か、グレーゾーンにある日付や金額\1,000とはなんなのか、しっかり詳細設計書の方では全て明記して下さい）</t>
-    <rPh sb="36" eb="38">
-      <t>ガイトウ</t>
-    </rPh>
-    <rPh sb="42" eb="44">
-      <t>オウカ</t>
-    </rPh>
-    <rPh sb="50" eb="52">
-      <t>ガイトウ</t>
-    </rPh>
-    <rPh sb="66" eb="68">
-      <t>ヒョウジ</t>
-    </rPh>
-    <rPh sb="78" eb="80">
-      <t>ショウサイ</t>
-    </rPh>
-    <rPh sb="81" eb="83">
-      <t>セツメイ</t>
-    </rPh>
-    <rPh sb="85" eb="86">
-      <t>ネガ</t>
-    </rPh>
-    <rPh sb="94" eb="96">
-      <t>シシュツ</t>
-    </rPh>
-    <rPh sb="96" eb="98">
-      <t>ガイヨウ</t>
-    </rPh>
-    <rPh sb="98" eb="100">
-      <t>ガメン</t>
-    </rPh>
-    <rPh sb="108" eb="110">
-      <t>ガメン</t>
-    </rPh>
-    <rPh sb="115" eb="117">
-      <t>ヒョウジ</t>
-    </rPh>
-    <rPh sb="122" eb="123">
-      <t>スベ</t>
-    </rPh>
-    <rPh sb="125" eb="127">
-      <t>コウモク</t>
-    </rPh>
-    <rPh sb="128" eb="129">
-      <t>ヒロ</t>
-    </rPh>
-    <rPh sb="130" eb="131">
-      <t>キ</t>
-    </rPh>
-    <rPh sb="138" eb="140">
-      <t>サブ</t>
-    </rPh>
-    <rPh sb="150" eb="151">
-      <t>トナリ</t>
-    </rPh>
-    <rPh sb="154" eb="156">
-      <t>コウモク</t>
-    </rPh>
-    <rPh sb="157" eb="159">
-      <t>コウモク</t>
-    </rPh>
-    <rPh sb="160" eb="162">
-      <t>コウモク</t>
-    </rPh>
-    <rPh sb="165" eb="166">
-      <t>ナニ</t>
-    </rPh>
-    <rPh sb="177" eb="179">
-      <t>ヒヅケ</t>
-    </rPh>
-    <rPh sb="180" eb="182">
-      <t>キンガク</t>
-    </rPh>
-    <rPh sb="200" eb="202">
-      <t>ショウサイ</t>
-    </rPh>
-    <rPh sb="202" eb="205">
-      <t>セッケイショ</t>
-    </rPh>
-    <rPh sb="206" eb="207">
-      <t>ホウ</t>
-    </rPh>
-    <rPh sb="209" eb="210">
-      <t>スベ</t>
-    </rPh>
-    <rPh sb="211" eb="213">
-      <t>メイキ</t>
-    </rPh>
-    <rPh sb="215" eb="216">
-      <t>クダ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -4936,6 +4790,146 @@
     </rPh>
     <rPh sb="216" eb="217">
       <t>ネガ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>詳細設計書_20200908（一覧画面）.xlsのイベント処理シート”⑦タブ切替ボタンを押下”の説明で”残高合計金額を表示する”とありますが、どのような表示になるのかレイアウトの提示をお願いしたいです。</t>
+    <rPh sb="52" eb="54">
+      <t>ザンダカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>詳細設計書_20200908（一覧画面）.xlsのイベント処理シート”⑧該当データを押下”の説明で、該当データとはどのようなデータが表示されているのかもっと詳細な説明をお願いしたいです。（支出概要画面もそうでしたが、画面イメージに表示されている全ての項目を拾い切れていません。左部の\1,000とその隣にある項目/項目/項目…とは何か、グレーゾーンにある日付や金額\1,000とはなんなのか、しっかり詳細設計書の方では全て明記をお願いします）</t>
+    <rPh sb="36" eb="38">
+      <t>ガイトウ</t>
+    </rPh>
+    <rPh sb="42" eb="44">
+      <t>オウカ</t>
+    </rPh>
+    <rPh sb="50" eb="52">
+      <t>ガイトウ</t>
+    </rPh>
+    <rPh sb="66" eb="68">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="78" eb="80">
+      <t>ショウサイ</t>
+    </rPh>
+    <rPh sb="81" eb="83">
+      <t>セツメイ</t>
+    </rPh>
+    <rPh sb="85" eb="86">
+      <t>ネガ</t>
+    </rPh>
+    <rPh sb="94" eb="96">
+      <t>シシュツ</t>
+    </rPh>
+    <rPh sb="96" eb="98">
+      <t>ガイヨウ</t>
+    </rPh>
+    <rPh sb="98" eb="100">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="108" eb="110">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="115" eb="117">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="122" eb="123">
+      <t>スベ</t>
+    </rPh>
+    <rPh sb="125" eb="127">
+      <t>コウモク</t>
+    </rPh>
+    <rPh sb="128" eb="129">
+      <t>ヒロ</t>
+    </rPh>
+    <rPh sb="130" eb="131">
+      <t>キ</t>
+    </rPh>
+    <rPh sb="138" eb="140">
+      <t>サブ</t>
+    </rPh>
+    <rPh sb="150" eb="151">
+      <t>トナリ</t>
+    </rPh>
+    <rPh sb="154" eb="156">
+      <t>コウモク</t>
+    </rPh>
+    <rPh sb="157" eb="159">
+      <t>コウモク</t>
+    </rPh>
+    <rPh sb="160" eb="162">
+      <t>コウモク</t>
+    </rPh>
+    <rPh sb="165" eb="166">
+      <t>ナニ</t>
+    </rPh>
+    <rPh sb="177" eb="179">
+      <t>ヒヅケ</t>
+    </rPh>
+    <rPh sb="180" eb="182">
+      <t>キンガク</t>
+    </rPh>
+    <rPh sb="200" eb="202">
+      <t>ショウサイ</t>
+    </rPh>
+    <rPh sb="202" eb="205">
+      <t>セッケイショ</t>
+    </rPh>
+    <rPh sb="206" eb="207">
+      <t>ホウ</t>
+    </rPh>
+    <rPh sb="209" eb="210">
+      <t>スベ</t>
+    </rPh>
+    <rPh sb="211" eb="213">
+      <t>メイキ</t>
+    </rPh>
+    <rPh sb="215" eb="216">
+      <t>ネガ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>全体</t>
+  </si>
+  <si>
+    <t>各詳細設計書の【初期表示処理】部分について
+⇒　画面のスクショが貼り付けられているだけで、
+　　画面の初期処理時、
+　　どのような処理を行うか、記載されていない。
+※　どのデータをどのコントロールに表示するとか、
+　　各コントロールの初期値はどうなるとか、　
+　　遷移元の画面で選択した日付のデータを取得し、
+　　表示させるとか（例として、支出データを表示する画面なら）</t>
+  </si>
+  <si>
+    <t>高</t>
+  </si>
+  <si>
+    <t>田和</t>
+  </si>
+  <si>
+    <t>設計（機能概要）</t>
+  </si>
+  <si>
+    <t>家計簿案_0907版_ver2.xlsx　シート：機能概要 (2)　E13のトリガーが反映はおかしいと思います。
+質問ですが、E13とE14はセルを結合してはまずいのでしょうか。</t>
+  </si>
+  <si>
+    <t>設計（画面フロー）</t>
+  </si>
+  <si>
+    <t>あまり今回のアプリを知らない状態でフロー図を見ましたが、少し理解するのが難しく感じました。フローの線をもし交わるとかが必要なのであれば、飛び越え線などを用いた方がいいかと思います。</t>
+  </si>
+  <si>
+    <t>高</t>
+    <rPh sb="0" eb="1">
+      <t>コウ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -5895,20 +5889,21 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="B2:M132"/>
+  <dimension ref="B2:M131"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A53" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E56" sqref="E56"/>
+      <pane ySplit="2" topLeftCell="A117" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C120" sqref="C120"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="1.875" customWidth="1"/>
-    <col min="3" max="3" width="10.125" style="13" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.875" style="13"/>
-    <col min="5" max="5" width="19.125" style="13" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="45" customWidth="1"/>
+    <col min="1" max="1" width="0.75" customWidth="1"/>
+    <col min="2" max="2" width="6" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.375" style="13" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.25" style="13" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.375" style="13" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="58.375" customWidth="1"/>
     <col min="7" max="7" width="7.875" style="13" customWidth="1"/>
     <col min="8" max="8" width="10" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="13" style="13" bestFit="1" customWidth="1"/>
@@ -5991,7 +5986,7 @@
       </c>
       <c r="M3" s="1"/>
     </row>
-    <row r="4" spans="2:13" ht="75" x14ac:dyDescent="0.4">
+    <row r="4" spans="2:13" ht="56.25" x14ac:dyDescent="0.4">
       <c r="B4" s="1">
         <v>2</v>
       </c>
@@ -6025,7 +6020,7 @@
       </c>
       <c r="M4" s="1"/>
     </row>
-    <row r="5" spans="2:13" ht="56.25" x14ac:dyDescent="0.4">
+    <row r="5" spans="2:13" ht="37.5" x14ac:dyDescent="0.4">
       <c r="B5" s="1">
         <v>3</v>
       </c>
@@ -6131,7 +6126,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="8" spans="2:13" ht="75" x14ac:dyDescent="0.4">
+    <row r="8" spans="2:13" ht="56.25" x14ac:dyDescent="0.4">
       <c r="B8" s="1">
         <v>6</v>
       </c>
@@ -6199,7 +6194,7 @@
       </c>
       <c r="M9" s="1"/>
     </row>
-    <row r="10" spans="2:13" ht="56.25" x14ac:dyDescent="0.4">
+    <row r="10" spans="2:13" ht="37.5" x14ac:dyDescent="0.4">
       <c r="B10" s="1">
         <v>8</v>
       </c>
@@ -6231,7 +6226,7 @@
       </c>
       <c r="M10" s="1"/>
     </row>
-    <row r="11" spans="2:13" ht="75" x14ac:dyDescent="0.4">
+    <row r="11" spans="2:13" ht="56.25" x14ac:dyDescent="0.4">
       <c r="B11" s="1">
         <v>9</v>
       </c>
@@ -6267,7 +6262,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="12" spans="2:13" ht="93.75" x14ac:dyDescent="0.4">
+    <row r="12" spans="2:13" ht="75" x14ac:dyDescent="0.4">
       <c r="B12" s="1">
         <v>10</v>
       </c>
@@ -6371,7 +6366,7 @@
       </c>
       <c r="M14" s="1"/>
     </row>
-    <row r="15" spans="2:13" ht="93.75" x14ac:dyDescent="0.4">
+    <row r="15" spans="2:13" ht="75" x14ac:dyDescent="0.4">
       <c r="B15" s="1">
         <v>13</v>
       </c>
@@ -6405,7 +6400,7 @@
       </c>
       <c r="M15" s="1"/>
     </row>
-    <row r="16" spans="2:13" ht="75" x14ac:dyDescent="0.4">
+    <row r="16" spans="2:13" ht="56.25" x14ac:dyDescent="0.4">
       <c r="B16" s="1">
         <v>14</v>
       </c>
@@ -6507,7 +6502,7 @@
       </c>
       <c r="M18" s="1"/>
     </row>
-    <row r="19" spans="2:13" ht="75" x14ac:dyDescent="0.4">
+    <row r="19" spans="2:13" ht="56.25" x14ac:dyDescent="0.4">
       <c r="B19" s="1">
         <v>17</v>
       </c>
@@ -6541,7 +6536,7 @@
       </c>
       <c r="M19" s="1"/>
     </row>
-    <row r="20" spans="2:13" ht="93.75" x14ac:dyDescent="0.4">
+    <row r="20" spans="2:13" ht="75" x14ac:dyDescent="0.4">
       <c r="B20" s="1">
         <v>18</v>
       </c>
@@ -6577,7 +6572,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="21" spans="2:13" ht="56.25" x14ac:dyDescent="0.4">
+    <row r="21" spans="2:13" ht="37.5" x14ac:dyDescent="0.4">
       <c r="B21" s="1">
         <v>19</v>
       </c>
@@ -6611,7 +6606,7 @@
       </c>
       <c r="M21" s="1"/>
     </row>
-    <row r="22" spans="2:13" ht="56.25" x14ac:dyDescent="0.4">
+    <row r="22" spans="2:13" ht="37.5" x14ac:dyDescent="0.4">
       <c r="B22" s="1">
         <v>20</v>
       </c>
@@ -6753,7 +6748,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="26" spans="2:13" ht="75" x14ac:dyDescent="0.4">
+    <row r="26" spans="2:13" ht="56.25" x14ac:dyDescent="0.4">
       <c r="B26" s="1">
         <v>24</v>
       </c>
@@ -6823,7 +6818,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="28" spans="2:13" ht="75" x14ac:dyDescent="0.4">
+    <row r="28" spans="2:13" ht="56.25" x14ac:dyDescent="0.4">
       <c r="B28" s="1">
         <v>26</v>
       </c>
@@ -6857,7 +6852,7 @@
       </c>
       <c r="M28" s="1"/>
     </row>
-    <row r="29" spans="2:13" ht="56.25" x14ac:dyDescent="0.4">
+    <row r="29" spans="2:13" ht="37.5" x14ac:dyDescent="0.4">
       <c r="B29" s="1">
         <v>27</v>
       </c>
@@ -6893,7 +6888,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="30" spans="2:13" ht="56.25" x14ac:dyDescent="0.4">
+    <row r="30" spans="2:13" ht="37.5" x14ac:dyDescent="0.4">
       <c r="B30" s="1">
         <v>28</v>
       </c>
@@ -6961,7 +6956,7 @@
       </c>
       <c r="M31" s="1"/>
     </row>
-    <row r="32" spans="2:13" ht="56.25" x14ac:dyDescent="0.4">
+    <row r="32" spans="2:13" ht="37.5" x14ac:dyDescent="0.4">
       <c r="B32" s="1">
         <v>30</v>
       </c>
@@ -6995,7 +6990,7 @@
       </c>
       <c r="M32" s="1"/>
     </row>
-    <row r="33" spans="2:13" ht="75" x14ac:dyDescent="0.4">
+    <row r="33" spans="2:13" ht="56.25" x14ac:dyDescent="0.4">
       <c r="B33" s="1">
         <v>31</v>
       </c>
@@ -7063,7 +7058,7 @@
       </c>
       <c r="M34" s="1"/>
     </row>
-    <row r="35" spans="2:13" ht="56.25" x14ac:dyDescent="0.4">
+    <row r="35" spans="2:13" ht="37.5" x14ac:dyDescent="0.4">
       <c r="B35" s="1">
         <v>33</v>
       </c>
@@ -7097,7 +7092,7 @@
       </c>
       <c r="M35" s="1"/>
     </row>
-    <row r="36" spans="2:13" ht="131.25" x14ac:dyDescent="0.4">
+    <row r="36" spans="2:13" ht="93.75" x14ac:dyDescent="0.4">
       <c r="B36" s="1">
         <v>34</v>
       </c>
@@ -7167,7 +7162,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="38" spans="2:13" ht="56.25" x14ac:dyDescent="0.4">
+    <row r="38" spans="2:13" ht="37.5" x14ac:dyDescent="0.4">
       <c r="B38" s="1">
         <v>36</v>
       </c>
@@ -7201,7 +7196,7 @@
       </c>
       <c r="M38" s="1"/>
     </row>
-    <row r="39" spans="2:13" ht="150" x14ac:dyDescent="0.4">
+    <row r="39" spans="2:13" ht="131.25" x14ac:dyDescent="0.4">
       <c r="B39" s="1">
         <v>37</v>
       </c>
@@ -7235,7 +7230,7 @@
       </c>
       <c r="M39" s="1"/>
     </row>
-    <row r="40" spans="2:13" ht="112.5" x14ac:dyDescent="0.4">
+    <row r="40" spans="2:13" ht="93.75" x14ac:dyDescent="0.4">
       <c r="B40" s="1">
         <v>38</v>
       </c>
@@ -7269,7 +7264,7 @@
       </c>
       <c r="M40" s="1"/>
     </row>
-    <row r="41" spans="2:13" ht="112.5" x14ac:dyDescent="0.4">
+    <row r="41" spans="2:13" ht="75" x14ac:dyDescent="0.4">
       <c r="B41" s="1">
         <v>39</v>
       </c>
@@ -7303,7 +7298,7 @@
       </c>
       <c r="M41" s="1"/>
     </row>
-    <row r="42" spans="2:13" ht="75" x14ac:dyDescent="0.4">
+    <row r="42" spans="2:13" ht="56.25" x14ac:dyDescent="0.4">
       <c r="B42" s="1">
         <v>40</v>
       </c>
@@ -7339,7 +7334,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="43" spans="2:13" ht="112.5" x14ac:dyDescent="0.4">
+    <row r="43" spans="2:13" ht="75" x14ac:dyDescent="0.4">
       <c r="B43" s="1">
         <v>41</v>
       </c>
@@ -7441,7 +7436,7 @@
       </c>
       <c r="M45" s="1"/>
     </row>
-    <row r="46" spans="2:13" ht="75" x14ac:dyDescent="0.4">
+    <row r="46" spans="2:13" ht="56.25" x14ac:dyDescent="0.4">
       <c r="B46" s="1">
         <v>44</v>
       </c>
@@ -7498,7 +7493,7 @@
         <v>126</v>
       </c>
       <c r="I47" s="12" t="s">
-        <v>174</v>
+        <v>28</v>
       </c>
       <c r="J47" s="1"/>
       <c r="K47" s="10">
@@ -7545,7 +7540,7 @@
       </c>
       <c r="M48" s="1"/>
     </row>
-    <row r="49" spans="2:13" ht="75" x14ac:dyDescent="0.4">
+    <row r="49" spans="2:13" ht="56.25" x14ac:dyDescent="0.4">
       <c r="B49" s="1">
         <v>47</v>
       </c>
@@ -7581,7 +7576,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="50" spans="2:13" ht="93.75" x14ac:dyDescent="0.4">
+    <row r="50" spans="2:13" ht="75" x14ac:dyDescent="0.4">
       <c r="B50" s="1">
         <v>48</v>
       </c>
@@ -7614,10 +7609,10 @@
         <v>161</v>
       </c>
       <c r="M50" s="1" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="51" spans="2:13" ht="75" x14ac:dyDescent="0.4">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="51" spans="2:13" ht="56.25" x14ac:dyDescent="0.4">
       <c r="B51" s="1">
         <v>49</v>
       </c>
@@ -7631,7 +7626,7 @@
         <v>144</v>
       </c>
       <c r="F51" s="11" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="G51" s="12" t="s">
         <v>146</v>
@@ -7640,18 +7635,18 @@
         <v>126</v>
       </c>
       <c r="I51" s="12" t="s">
-        <v>174</v>
+        <v>28</v>
       </c>
       <c r="J51" s="1"/>
       <c r="K51" s="10">
         <v>44082</v>
       </c>
       <c r="L51" s="1" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="M51" s="1"/>
     </row>
-    <row r="52" spans="2:13" ht="75" x14ac:dyDescent="0.4">
+    <row r="52" spans="2:13" ht="56.25" x14ac:dyDescent="0.4">
       <c r="B52" s="1">
         <v>50</v>
       </c>
@@ -7665,7 +7660,7 @@
         <v>144</v>
       </c>
       <c r="F52" s="11" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="G52" s="12" t="s">
         <v>146</v>
@@ -7681,13 +7676,13 @@
         <v>44082</v>
       </c>
       <c r="L52" s="11" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="M52" s="1" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="53" spans="2:13" ht="112.5" x14ac:dyDescent="0.4">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="53" spans="2:13" ht="93.75" x14ac:dyDescent="0.4">
       <c r="B53" s="1">
         <v>51</v>
       </c>
@@ -7701,7 +7696,7 @@
         <v>79</v>
       </c>
       <c r="F53" s="11" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="G53" s="12" t="s">
         <v>146</v>
@@ -7717,11 +7712,11 @@
         <v>44082</v>
       </c>
       <c r="L53" s="1" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="M53" s="1"/>
     </row>
-    <row r="54" spans="2:13" ht="131.25" x14ac:dyDescent="0.4">
+    <row r="54" spans="2:13" ht="112.5" x14ac:dyDescent="0.4">
       <c r="B54" s="1">
         <v>52</v>
       </c>
@@ -7735,7 +7730,7 @@
         <v>79</v>
       </c>
       <c r="F54" s="11" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="G54" s="12" t="s">
         <v>146</v>
@@ -7744,18 +7739,18 @@
         <v>126</v>
       </c>
       <c r="I54" s="12" t="s">
-        <v>174</v>
+        <v>28</v>
       </c>
       <c r="J54" s="1"/>
       <c r="K54" s="10">
         <v>44082</v>
       </c>
       <c r="L54" s="1" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="M54" s="1"/>
     </row>
-    <row r="55" spans="2:13" ht="150" x14ac:dyDescent="0.4">
+    <row r="55" spans="2:13" ht="112.5" x14ac:dyDescent="0.4">
       <c r="B55" s="1">
         <v>53</v>
       </c>
@@ -7769,7 +7764,7 @@
         <v>79</v>
       </c>
       <c r="F55" s="11" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="G55" s="12" t="s">
         <v>146</v>
@@ -7778,18 +7773,18 @@
         <v>126</v>
       </c>
       <c r="I55" s="12" t="s">
-        <v>174</v>
+        <v>28</v>
       </c>
       <c r="J55" s="1"/>
       <c r="K55" s="10">
         <v>44082</v>
       </c>
       <c r="L55" s="11" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="M55" s="1"/>
     </row>
-    <row r="56" spans="2:13" x14ac:dyDescent="0.4">
+    <row r="56" spans="2:13" ht="131.25" x14ac:dyDescent="0.4">
       <c r="B56" s="1">
         <v>54</v>
       </c>
@@ -7797,11 +7792,17 @@
         <v>44082</v>
       </c>
       <c r="D56" s="17" t="s">
-        <v>52</v>
-      </c>
-      <c r="E56" s="17"/>
-      <c r="F56" s="11"/>
-      <c r="G56" s="12"/>
+        <v>28</v>
+      </c>
+      <c r="E56" s="17" t="s">
+        <v>107</v>
+      </c>
+      <c r="F56" s="11" t="s">
+        <v>176</v>
+      </c>
+      <c r="G56" s="12" t="s">
+        <v>36</v>
+      </c>
       <c r="H56" s="1"/>
       <c r="I56" s="12"/>
       <c r="J56" s="1"/>
@@ -7809,7 +7810,7 @@
       <c r="L56" s="1"/>
       <c r="M56" s="1"/>
     </row>
-    <row r="57" spans="2:13" ht="168.75" x14ac:dyDescent="0.4">
+    <row r="57" spans="2:13" ht="75" x14ac:dyDescent="0.4">
       <c r="B57" s="1">
         <v>55</v>
       </c>
@@ -7820,13 +7821,13 @@
         <v>28</v>
       </c>
       <c r="E57" s="17" t="s">
-        <v>107</v>
+        <v>177</v>
       </c>
       <c r="F57" s="11" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="G57" s="12" t="s">
-        <v>177</v>
+        <v>31</v>
       </c>
       <c r="H57" s="1"/>
       <c r="I57" s="12"/>
@@ -7835,7 +7836,7 @@
       <c r="L57" s="1"/>
       <c r="M57" s="1"/>
     </row>
-    <row r="58" spans="2:13" ht="75" x14ac:dyDescent="0.4">
+    <row r="58" spans="2:13" ht="56.25" x14ac:dyDescent="0.4">
       <c r="B58" s="1">
         <v>56</v>
       </c>
@@ -7846,13 +7847,13 @@
         <v>28</v>
       </c>
       <c r="E58" s="17" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="F58" s="11" t="s">
         <v>179</v>
       </c>
       <c r="G58" s="12" t="s">
-        <v>180</v>
+        <v>31</v>
       </c>
       <c r="H58" s="1"/>
       <c r="I58" s="12"/>
@@ -7861,7 +7862,7 @@
       <c r="L58" s="1"/>
       <c r="M58" s="1"/>
     </row>
-    <row r="59" spans="2:13" ht="75" x14ac:dyDescent="0.4">
+    <row r="59" spans="2:13" ht="56.25" x14ac:dyDescent="0.4">
       <c r="B59" s="1">
         <v>57</v>
       </c>
@@ -7872,13 +7873,13 @@
         <v>28</v>
       </c>
       <c r="E59" s="17" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="F59" s="11" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="G59" s="12" t="s">
-        <v>180</v>
+        <v>31</v>
       </c>
       <c r="H59" s="1"/>
       <c r="I59" s="12"/>
@@ -7887,7 +7888,7 @@
       <c r="L59" s="1"/>
       <c r="M59" s="1"/>
     </row>
-    <row r="60" spans="2:13" ht="56.25" x14ac:dyDescent="0.4">
+    <row r="60" spans="2:13" ht="37.5" x14ac:dyDescent="0.4">
       <c r="B60" s="1">
         <v>58</v>
       </c>
@@ -7898,13 +7899,13 @@
         <v>28</v>
       </c>
       <c r="E60" s="17" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="F60" s="11" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="G60" s="12" t="s">
-        <v>180</v>
+        <v>36</v>
       </c>
       <c r="H60" s="1"/>
       <c r="I60" s="12"/>
@@ -7924,13 +7925,13 @@
         <v>28</v>
       </c>
       <c r="E61" s="17" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="F61" s="11" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="G61" s="12" t="s">
-        <v>177</v>
+        <v>31</v>
       </c>
       <c r="H61" s="1"/>
       <c r="I61" s="12"/>
@@ -7939,7 +7940,7 @@
       <c r="L61" s="1"/>
       <c r="M61" s="1"/>
     </row>
-    <row r="62" spans="2:13" ht="75" x14ac:dyDescent="0.4">
+    <row r="62" spans="2:13" ht="56.25" x14ac:dyDescent="0.4">
       <c r="B62" s="1">
         <v>60</v>
       </c>
@@ -7950,13 +7951,13 @@
         <v>28</v>
       </c>
       <c r="E62" s="17" t="s">
+        <v>184</v>
+      </c>
+      <c r="F62" s="11" t="s">
         <v>185</v>
       </c>
-      <c r="F62" s="11" t="s">
-        <v>186</v>
-      </c>
       <c r="G62" s="12" t="s">
-        <v>180</v>
+        <v>36</v>
       </c>
       <c r="H62" s="1"/>
       <c r="I62" s="12"/>
@@ -7965,7 +7966,7 @@
       <c r="L62" s="1"/>
       <c r="M62" s="1"/>
     </row>
-    <row r="63" spans="2:13" ht="75" x14ac:dyDescent="0.4">
+    <row r="63" spans="2:13" ht="56.25" x14ac:dyDescent="0.4">
       <c r="B63" s="1">
         <v>61</v>
       </c>
@@ -7976,13 +7977,13 @@
         <v>28</v>
       </c>
       <c r="E63" s="17" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="F63" s="11" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="G63" s="12" t="s">
-        <v>177</v>
+        <v>31</v>
       </c>
       <c r="H63" s="1"/>
       <c r="I63" s="12"/>
@@ -7991,7 +7992,7 @@
       <c r="L63" s="1"/>
       <c r="M63" s="1"/>
     </row>
-    <row r="64" spans="2:13" ht="75" x14ac:dyDescent="0.4">
+    <row r="64" spans="2:13" ht="56.25" x14ac:dyDescent="0.4">
       <c r="B64" s="1">
         <v>62</v>
       </c>
@@ -8005,10 +8006,10 @@
         <v>187</v>
       </c>
       <c r="F64" s="11" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="G64" s="12" t="s">
-        <v>180</v>
+        <v>36</v>
       </c>
       <c r="H64" s="1"/>
       <c r="I64" s="12"/>
@@ -8028,13 +8029,13 @@
         <v>28</v>
       </c>
       <c r="E65" s="17" t="s">
+        <v>189</v>
+      </c>
+      <c r="F65" s="11" t="s">
         <v>190</v>
       </c>
-      <c r="F65" s="11" t="s">
-        <v>240</v>
-      </c>
       <c r="G65" s="12" t="s">
-        <v>177</v>
+        <v>31</v>
       </c>
       <c r="H65" s="1"/>
       <c r="I65" s="12"/>
@@ -8043,7 +8044,7 @@
       <c r="L65" s="1"/>
       <c r="M65" s="1"/>
     </row>
-    <row r="66" spans="2:13" ht="93.75" x14ac:dyDescent="0.4">
+    <row r="66" spans="2:13" ht="112.5" x14ac:dyDescent="0.4">
       <c r="B66" s="1">
         <v>64</v>
       </c>
@@ -8054,13 +8055,13 @@
         <v>28</v>
       </c>
       <c r="E66" s="17" t="s">
+        <v>122</v>
+      </c>
+      <c r="F66" s="11" t="s">
         <v>191</v>
       </c>
-      <c r="F66" s="11" t="s">
-        <v>192</v>
-      </c>
       <c r="G66" s="12" t="s">
-        <v>180</v>
+        <v>31</v>
       </c>
       <c r="H66" s="1"/>
       <c r="I66" s="12"/>
@@ -8069,7 +8070,7 @@
       <c r="L66" s="1"/>
       <c r="M66" s="1"/>
     </row>
-    <row r="67" spans="2:13" ht="131.25" x14ac:dyDescent="0.4">
+    <row r="67" spans="2:13" ht="56.25" x14ac:dyDescent="0.4">
       <c r="B67" s="1">
         <v>65</v>
       </c>
@@ -8080,13 +8081,13 @@
         <v>28</v>
       </c>
       <c r="E67" s="17" t="s">
-        <v>193</v>
+        <v>41</v>
       </c>
       <c r="F67" s="11" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="G67" s="12" t="s">
-        <v>180</v>
+        <v>36</v>
       </c>
       <c r="H67" s="1"/>
       <c r="I67" s="12"/>
@@ -8095,7 +8096,7 @@
       <c r="L67" s="1"/>
       <c r="M67" s="1"/>
     </row>
-    <row r="68" spans="2:13" ht="56.25" x14ac:dyDescent="0.4">
+    <row r="68" spans="2:13" ht="75" x14ac:dyDescent="0.4">
       <c r="B68" s="1">
         <v>66</v>
       </c>
@@ -8109,10 +8110,10 @@
         <v>41</v>
       </c>
       <c r="F68" s="11" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="G68" s="12" t="s">
-        <v>177</v>
+        <v>36</v>
       </c>
       <c r="H68" s="1"/>
       <c r="I68" s="12"/>
@@ -8135,10 +8136,10 @@
         <v>41</v>
       </c>
       <c r="F69" s="11" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="G69" s="12" t="s">
-        <v>177</v>
+        <v>36</v>
       </c>
       <c r="H69" s="1"/>
       <c r="I69" s="12"/>
@@ -8161,10 +8162,10 @@
         <v>41</v>
       </c>
       <c r="F70" s="11" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="G70" s="12" t="s">
-        <v>177</v>
+        <v>36</v>
       </c>
       <c r="H70" s="1"/>
       <c r="I70" s="12"/>
@@ -8173,7 +8174,7 @@
       <c r="L70" s="1"/>
       <c r="M70" s="1"/>
     </row>
-    <row r="71" spans="2:13" ht="112.5" x14ac:dyDescent="0.4">
+    <row r="71" spans="2:13" ht="93.75" x14ac:dyDescent="0.4">
       <c r="B71" s="1">
         <v>69</v>
       </c>
@@ -8184,12 +8185,14 @@
         <v>28</v>
       </c>
       <c r="E71" s="17" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="F71" s="11" t="s">
-        <v>235</v>
-      </c>
-      <c r="G71" s="12"/>
+        <v>196</v>
+      </c>
+      <c r="G71" s="12" t="s">
+        <v>36</v>
+      </c>
       <c r="H71" s="1"/>
       <c r="I71" s="12"/>
       <c r="J71" s="1"/>
@@ -8197,7 +8200,7 @@
       <c r="L71" s="1"/>
       <c r="M71" s="1"/>
     </row>
-    <row r="72" spans="2:13" ht="112.5" x14ac:dyDescent="0.4">
+    <row r="72" spans="2:13" ht="56.25" x14ac:dyDescent="0.4">
       <c r="B72" s="1">
         <v>70</v>
       </c>
@@ -8211,10 +8214,10 @@
         <v>46</v>
       </c>
       <c r="F72" s="11" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="G72" s="12" t="s">
-        <v>177</v>
+        <v>36</v>
       </c>
       <c r="H72" s="1"/>
       <c r="I72" s="12"/>
@@ -8223,7 +8226,7 @@
       <c r="L72" s="1"/>
       <c r="M72" s="1"/>
     </row>
-    <row r="73" spans="2:13" ht="75" x14ac:dyDescent="0.4">
+    <row r="73" spans="2:13" ht="93.75" x14ac:dyDescent="0.4">
       <c r="B73" s="1">
         <v>71</v>
       </c>
@@ -8237,10 +8240,10 @@
         <v>46</v>
       </c>
       <c r="F73" s="11" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="G73" s="12" t="s">
-        <v>177</v>
+        <v>36</v>
       </c>
       <c r="H73" s="1"/>
       <c r="I73" s="12"/>
@@ -8249,7 +8252,7 @@
       <c r="L73" s="1"/>
       <c r="M73" s="1"/>
     </row>
-    <row r="74" spans="2:13" ht="112.5" x14ac:dyDescent="0.4">
+    <row r="74" spans="2:13" ht="56.25" x14ac:dyDescent="0.4">
       <c r="B74" s="1">
         <v>72</v>
       </c>
@@ -8263,10 +8266,10 @@
         <v>46</v>
       </c>
       <c r="F74" s="11" t="s">
-        <v>221</v>
+        <v>199</v>
       </c>
       <c r="G74" s="12" t="s">
-        <v>177</v>
+        <v>31</v>
       </c>
       <c r="H74" s="1"/>
       <c r="I74" s="12"/>
@@ -8292,7 +8295,7 @@
         <v>200</v>
       </c>
       <c r="G75" s="12" t="s">
-        <v>180</v>
+        <v>36</v>
       </c>
       <c r="H75" s="1"/>
       <c r="I75" s="12"/>
@@ -8301,7 +8304,7 @@
       <c r="L75" s="1"/>
       <c r="M75" s="1"/>
     </row>
-    <row r="76" spans="2:13" ht="56.25" x14ac:dyDescent="0.4">
+    <row r="76" spans="2:13" ht="37.5" x14ac:dyDescent="0.4">
       <c r="B76" s="1">
         <v>74</v>
       </c>
@@ -8318,7 +8321,7 @@
         <v>201</v>
       </c>
       <c r="G76" s="12" t="s">
-        <v>177</v>
+        <v>36</v>
       </c>
       <c r="H76" s="1"/>
       <c r="I76" s="12"/>
@@ -8327,7 +8330,7 @@
       <c r="L76" s="1"/>
       <c r="M76" s="1"/>
     </row>
-    <row r="77" spans="2:13" ht="56.25" x14ac:dyDescent="0.4">
+    <row r="77" spans="2:13" ht="93.75" x14ac:dyDescent="0.4">
       <c r="B77" s="1">
         <v>75</v>
       </c>
@@ -8344,7 +8347,7 @@
         <v>202</v>
       </c>
       <c r="G77" s="12" t="s">
-        <v>177</v>
+        <v>36</v>
       </c>
       <c r="H77" s="1"/>
       <c r="I77" s="12"/>
@@ -8353,7 +8356,7 @@
       <c r="L77" s="1"/>
       <c r="M77" s="1"/>
     </row>
-    <row r="78" spans="2:13" ht="112.5" x14ac:dyDescent="0.4">
+    <row r="78" spans="2:13" ht="56.25" x14ac:dyDescent="0.4">
       <c r="B78" s="1">
         <v>76</v>
       </c>
@@ -8364,13 +8367,13 @@
         <v>28</v>
       </c>
       <c r="E78" s="17" t="s">
-        <v>46</v>
+        <v>29</v>
       </c>
       <c r="F78" s="11" t="s">
-        <v>227</v>
+        <v>203</v>
       </c>
       <c r="G78" s="12" t="s">
-        <v>222</v>
+        <v>36</v>
       </c>
       <c r="H78" s="1"/>
       <c r="I78" s="12"/>
@@ -8393,10 +8396,10 @@
         <v>29</v>
       </c>
       <c r="F79" s="11" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="G79" s="12" t="s">
-        <v>177</v>
+        <v>36</v>
       </c>
       <c r="H79" s="1"/>
       <c r="I79" s="12"/>
@@ -8405,7 +8408,7 @@
       <c r="L79" s="1"/>
       <c r="M79" s="1"/>
     </row>
-    <row r="80" spans="2:13" ht="75" x14ac:dyDescent="0.4">
+    <row r="80" spans="2:13" ht="56.25" x14ac:dyDescent="0.4">
       <c r="B80" s="1">
         <v>78</v>
       </c>
@@ -8419,10 +8422,10 @@
         <v>29</v>
       </c>
       <c r="F80" s="11" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="G80" s="12" t="s">
-        <v>177</v>
+        <v>36</v>
       </c>
       <c r="H80" s="1"/>
       <c r="I80" s="12"/>
@@ -8431,7 +8434,7 @@
       <c r="L80" s="1"/>
       <c r="M80" s="1"/>
     </row>
-    <row r="81" spans="2:13" ht="75" x14ac:dyDescent="0.4">
+    <row r="81" spans="2:13" ht="112.5" x14ac:dyDescent="0.4">
       <c r="B81" s="1">
         <v>79</v>
       </c>
@@ -8445,10 +8448,10 @@
         <v>29</v>
       </c>
       <c r="F81" s="11" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="G81" s="12" t="s">
-        <v>177</v>
+        <v>36</v>
       </c>
       <c r="H81" s="1"/>
       <c r="I81" s="12"/>
@@ -8457,7 +8460,7 @@
       <c r="L81" s="1"/>
       <c r="M81" s="1"/>
     </row>
-    <row r="82" spans="2:13" ht="150" x14ac:dyDescent="0.4">
+    <row r="82" spans="2:13" ht="37.5" x14ac:dyDescent="0.4">
       <c r="B82" s="1">
         <v>80</v>
       </c>
@@ -8471,10 +8474,10 @@
         <v>29</v>
       </c>
       <c r="F82" s="11" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="G82" s="12" t="s">
-        <v>177</v>
+        <v>36</v>
       </c>
       <c r="H82" s="1"/>
       <c r="I82" s="12"/>
@@ -8483,7 +8486,7 @@
       <c r="L82" s="1"/>
       <c r="M82" s="1"/>
     </row>
-    <row r="83" spans="2:13" ht="56.25" x14ac:dyDescent="0.4">
+    <row r="83" spans="2:13" ht="75" x14ac:dyDescent="0.4">
       <c r="B83" s="1">
         <v>81</v>
       </c>
@@ -8497,10 +8500,10 @@
         <v>29</v>
       </c>
       <c r="F83" s="11" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="G83" s="12" t="s">
-        <v>177</v>
+        <v>36</v>
       </c>
       <c r="H83" s="1"/>
       <c r="I83" s="12"/>
@@ -8509,7 +8512,7 @@
       <c r="L83" s="1"/>
       <c r="M83" s="1"/>
     </row>
-    <row r="84" spans="2:13" ht="93.75" x14ac:dyDescent="0.4">
+    <row r="84" spans="2:13" ht="75" x14ac:dyDescent="0.4">
       <c r="B84" s="1">
         <v>82</v>
       </c>
@@ -8523,10 +8526,10 @@
         <v>29</v>
       </c>
       <c r="F84" s="11" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="G84" s="12" t="s">
-        <v>177</v>
+        <v>36</v>
       </c>
       <c r="H84" s="1"/>
       <c r="I84" s="12"/>
@@ -8535,7 +8538,7 @@
       <c r="L84" s="1"/>
       <c r="M84" s="1"/>
     </row>
-    <row r="85" spans="2:13" ht="93.75" x14ac:dyDescent="0.4">
+    <row r="85" spans="2:13" ht="75" x14ac:dyDescent="0.4">
       <c r="B85" s="1">
         <v>83</v>
       </c>
@@ -8546,13 +8549,13 @@
         <v>28</v>
       </c>
       <c r="E85" s="17" t="s">
-        <v>29</v>
+        <v>107</v>
       </c>
       <c r="F85" s="11" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="G85" s="12" t="s">
-        <v>177</v>
+        <v>36</v>
       </c>
       <c r="H85" s="1"/>
       <c r="I85" s="12"/>
@@ -8575,10 +8578,10 @@
         <v>107</v>
       </c>
       <c r="F86" s="11" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="G86" s="12" t="s">
-        <v>177</v>
+        <v>36</v>
       </c>
       <c r="H86" s="1"/>
       <c r="I86" s="12"/>
@@ -8587,7 +8590,7 @@
       <c r="L86" s="1"/>
       <c r="M86" s="1"/>
     </row>
-    <row r="87" spans="2:13" ht="93.75" x14ac:dyDescent="0.4">
+    <row r="87" spans="2:13" ht="37.5" x14ac:dyDescent="0.4">
       <c r="B87" s="1">
         <v>85</v>
       </c>
@@ -8601,10 +8604,10 @@
         <v>107</v>
       </c>
       <c r="F87" s="11" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="G87" s="12" t="s">
-        <v>177</v>
+        <v>36</v>
       </c>
       <c r="H87" s="1"/>
       <c r="I87" s="12"/>
@@ -8627,10 +8630,10 @@
         <v>107</v>
       </c>
       <c r="F88" s="11" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="G88" s="12" t="s">
-        <v>177</v>
+        <v>36</v>
       </c>
       <c r="H88" s="1"/>
       <c r="I88" s="12"/>
@@ -8639,7 +8642,7 @@
       <c r="L88" s="1"/>
       <c r="M88" s="1"/>
     </row>
-    <row r="89" spans="2:13" ht="75" x14ac:dyDescent="0.4">
+    <row r="89" spans="2:13" ht="56.25" x14ac:dyDescent="0.4">
       <c r="B89" s="1">
         <v>87</v>
       </c>
@@ -8653,10 +8656,10 @@
         <v>107</v>
       </c>
       <c r="F89" s="11" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="G89" s="12" t="s">
-        <v>177</v>
+        <v>36</v>
       </c>
       <c r="H89" s="1"/>
       <c r="I89" s="12"/>
@@ -8665,7 +8668,7 @@
       <c r="L89" s="1"/>
       <c r="M89" s="1"/>
     </row>
-    <row r="90" spans="2:13" ht="75" x14ac:dyDescent="0.4">
+    <row r="90" spans="2:13" ht="56.25" x14ac:dyDescent="0.4">
       <c r="B90" s="1">
         <v>88</v>
       </c>
@@ -8679,10 +8682,10 @@
         <v>107</v>
       </c>
       <c r="F90" s="11" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="G90" s="12" t="s">
-        <v>177</v>
+        <v>36</v>
       </c>
       <c r="H90" s="1"/>
       <c r="I90" s="12"/>
@@ -8691,7 +8694,7 @@
       <c r="L90" s="1"/>
       <c r="M90" s="1"/>
     </row>
-    <row r="91" spans="2:13" ht="75" x14ac:dyDescent="0.4">
+    <row r="91" spans="2:13" ht="56.25" x14ac:dyDescent="0.4">
       <c r="B91" s="1">
         <v>89</v>
       </c>
@@ -8705,10 +8708,10 @@
         <v>107</v>
       </c>
       <c r="F91" s="11" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="G91" s="12" t="s">
-        <v>177</v>
+        <v>36</v>
       </c>
       <c r="H91" s="1"/>
       <c r="I91" s="12"/>
@@ -8717,7 +8720,7 @@
       <c r="L91" s="1"/>
       <c r="M91" s="1"/>
     </row>
-    <row r="92" spans="2:13" ht="75" x14ac:dyDescent="0.4">
+    <row r="92" spans="2:13" ht="56.25" x14ac:dyDescent="0.4">
       <c r="B92" s="1">
         <v>90</v>
       </c>
@@ -8731,10 +8734,10 @@
         <v>107</v>
       </c>
       <c r="F92" s="11" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="G92" s="12" t="s">
-        <v>177</v>
+        <v>36</v>
       </c>
       <c r="H92" s="1"/>
       <c r="I92" s="12"/>
@@ -8754,13 +8757,13 @@
         <v>28</v>
       </c>
       <c r="E93" s="17" t="s">
-        <v>217</v>
+        <v>107</v>
       </c>
       <c r="F93" s="11" t="s">
         <v>218</v>
       </c>
       <c r="G93" s="12" t="s">
-        <v>177</v>
+        <v>36</v>
       </c>
       <c r="H93" s="1"/>
       <c r="I93" s="12"/>
@@ -8769,7 +8772,7 @@
       <c r="L93" s="1"/>
       <c r="M93" s="1"/>
     </row>
-    <row r="94" spans="2:13" ht="93.75" x14ac:dyDescent="0.4">
+    <row r="94" spans="2:13" ht="56.25" x14ac:dyDescent="0.4">
       <c r="B94" s="1">
         <v>92</v>
       </c>
@@ -8786,7 +8789,7 @@
         <v>219</v>
       </c>
       <c r="G94" s="12" t="s">
-        <v>177</v>
+        <v>36</v>
       </c>
       <c r="H94" s="1"/>
       <c r="I94" s="12"/>
@@ -8812,7 +8815,7 @@
         <v>220</v>
       </c>
       <c r="G95" s="12" t="s">
-        <v>177</v>
+        <v>36</v>
       </c>
       <c r="H95" s="1"/>
       <c r="I95" s="12"/>
@@ -8821,7 +8824,7 @@
       <c r="L95" s="1"/>
       <c r="M95" s="1"/>
     </row>
-    <row r="96" spans="2:13" ht="93.75" x14ac:dyDescent="0.4">
+    <row r="96" spans="2:13" ht="56.25" x14ac:dyDescent="0.4">
       <c r="B96" s="1">
         <v>94</v>
       </c>
@@ -8832,12 +8835,14 @@
         <v>28</v>
       </c>
       <c r="E96" s="17" t="s">
-        <v>107</v>
+        <v>34</v>
       </c>
       <c r="F96" s="11" t="s">
-        <v>234</v>
-      </c>
-      <c r="G96" s="12"/>
+        <v>221</v>
+      </c>
+      <c r="G96" s="12" t="s">
+        <v>36</v>
+      </c>
       <c r="H96" s="1"/>
       <c r="I96" s="12"/>
       <c r="J96" s="1"/>
@@ -8859,10 +8864,10 @@
         <v>34</v>
       </c>
       <c r="F97" s="11" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="G97" s="12" t="s">
-        <v>222</v>
+        <v>36</v>
       </c>
       <c r="H97" s="1"/>
       <c r="I97" s="12"/>
@@ -8871,7 +8876,7 @@
       <c r="L97" s="1"/>
       <c r="M97" s="1"/>
     </row>
-    <row r="98" spans="2:13" ht="75" x14ac:dyDescent="0.4">
+    <row r="98" spans="2:13" ht="93.75" x14ac:dyDescent="0.4">
       <c r="B98" s="1">
         <v>96</v>
       </c>
@@ -8885,10 +8890,10 @@
         <v>34</v>
       </c>
       <c r="F98" s="11" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="G98" s="12" t="s">
-        <v>222</v>
+        <v>36</v>
       </c>
       <c r="H98" s="1"/>
       <c r="I98" s="12"/>
@@ -8897,7 +8902,7 @@
       <c r="L98" s="1"/>
       <c r="M98" s="1"/>
     </row>
-    <row r="99" spans="2:13" ht="112.5" x14ac:dyDescent="0.4">
+    <row r="99" spans="2:13" ht="75" x14ac:dyDescent="0.4">
       <c r="B99" s="1">
         <v>97</v>
       </c>
@@ -8911,10 +8916,10 @@
         <v>34</v>
       </c>
       <c r="F99" s="11" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="G99" s="12" t="s">
-        <v>222</v>
+        <v>36</v>
       </c>
       <c r="H99" s="1"/>
       <c r="I99" s="12"/>
@@ -8923,7 +8928,7 @@
       <c r="L99" s="1"/>
       <c r="M99" s="1"/>
     </row>
-    <row r="100" spans="2:13" ht="93.75" x14ac:dyDescent="0.4">
+    <row r="100" spans="2:13" ht="75" x14ac:dyDescent="0.4">
       <c r="B100" s="1">
         <v>98</v>
       </c>
@@ -8937,10 +8942,10 @@
         <v>34</v>
       </c>
       <c r="F100" s="11" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="G100" s="12" t="s">
-        <v>222</v>
+        <v>36</v>
       </c>
       <c r="H100" s="1"/>
       <c r="I100" s="12"/>
@@ -8963,10 +8968,10 @@
         <v>34</v>
       </c>
       <c r="F101" s="11" t="s">
-        <v>233</v>
+        <v>226</v>
       </c>
       <c r="G101" s="12" t="s">
-        <v>222</v>
+        <v>36</v>
       </c>
       <c r="H101" s="1"/>
       <c r="I101" s="12"/>
@@ -8975,7 +8980,7 @@
       <c r="L101" s="1"/>
       <c r="M101" s="1"/>
     </row>
-    <row r="102" spans="2:13" ht="112.5" x14ac:dyDescent="0.4">
+    <row r="102" spans="2:13" ht="93.75" x14ac:dyDescent="0.4">
       <c r="B102" s="1">
         <v>100</v>
       </c>
@@ -8989,10 +8994,10 @@
         <v>34</v>
       </c>
       <c r="F102" s="11" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="G102" s="12" t="s">
-        <v>222</v>
+        <v>36</v>
       </c>
       <c r="H102" s="1"/>
       <c r="I102" s="12"/>
@@ -9001,7 +9006,7 @@
       <c r="L102" s="1"/>
       <c r="M102" s="1"/>
     </row>
-    <row r="103" spans="2:13" ht="112.5" x14ac:dyDescent="0.4">
+    <row r="103" spans="2:13" ht="93.75" x14ac:dyDescent="0.4">
       <c r="B103" s="1">
         <v>101</v>
       </c>
@@ -9015,10 +9020,10 @@
         <v>34</v>
       </c>
       <c r="F103" s="11" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="G103" s="12" t="s">
-        <v>222</v>
+        <v>36</v>
       </c>
       <c r="H103" s="1"/>
       <c r="I103" s="12"/>
@@ -9027,7 +9032,7 @@
       <c r="L103" s="1"/>
       <c r="M103" s="1"/>
     </row>
-    <row r="104" spans="2:13" ht="112.5" x14ac:dyDescent="0.4">
+    <row r="104" spans="2:13" ht="56.25" x14ac:dyDescent="0.4">
       <c r="B104" s="1">
         <v>102</v>
       </c>
@@ -9041,10 +9046,10 @@
         <v>34</v>
       </c>
       <c r="F104" s="11" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="G104" s="12" t="s">
-        <v>222</v>
+        <v>36</v>
       </c>
       <c r="H104" s="1"/>
       <c r="I104" s="12"/>
@@ -9064,13 +9069,13 @@
         <v>28</v>
       </c>
       <c r="E105" s="17" t="s">
-        <v>34</v>
+        <v>96</v>
       </c>
       <c r="F105" s="11" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="G105" s="12" t="s">
-        <v>222</v>
+        <v>36</v>
       </c>
       <c r="H105" s="1"/>
       <c r="I105" s="12"/>
@@ -9079,7 +9084,7 @@
       <c r="L105" s="1"/>
       <c r="M105" s="1"/>
     </row>
-    <row r="106" spans="2:13" ht="56.25" x14ac:dyDescent="0.4">
+    <row r="106" spans="2:13" ht="37.5" x14ac:dyDescent="0.4">
       <c r="B106" s="1">
         <v>104</v>
       </c>
@@ -9093,10 +9098,10 @@
         <v>96</v>
       </c>
       <c r="F106" s="11" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="G106" s="12" t="s">
-        <v>222</v>
+        <v>36</v>
       </c>
       <c r="H106" s="1"/>
       <c r="I106" s="12"/>
@@ -9119,10 +9124,10 @@
         <v>96</v>
       </c>
       <c r="F107" s="11" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="G107" s="12" t="s">
-        <v>222</v>
+        <v>36</v>
       </c>
       <c r="H107" s="1"/>
       <c r="I107" s="12"/>
@@ -9131,7 +9136,7 @@
       <c r="L107" s="1"/>
       <c r="M107" s="1"/>
     </row>
-    <row r="108" spans="2:13" ht="75" x14ac:dyDescent="0.4">
+    <row r="108" spans="2:13" ht="56.25" x14ac:dyDescent="0.4">
       <c r="B108" s="1">
         <v>106</v>
       </c>
@@ -9145,10 +9150,10 @@
         <v>96</v>
       </c>
       <c r="F108" s="11" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="G108" s="12" t="s">
-        <v>222</v>
+        <v>36</v>
       </c>
       <c r="H108" s="1"/>
       <c r="I108" s="12"/>
@@ -9157,7 +9162,7 @@
       <c r="L108" s="1"/>
       <c r="M108" s="1"/>
     </row>
-    <row r="109" spans="2:13" ht="75" x14ac:dyDescent="0.4">
+    <row r="109" spans="2:13" ht="56.25" x14ac:dyDescent="0.4">
       <c r="B109" s="1">
         <v>107</v>
       </c>
@@ -9171,10 +9176,10 @@
         <v>96</v>
       </c>
       <c r="F109" s="11" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="G109" s="12" t="s">
-        <v>222</v>
+        <v>36</v>
       </c>
       <c r="H109" s="1"/>
       <c r="I109" s="12"/>
@@ -9197,10 +9202,10 @@
         <v>96</v>
       </c>
       <c r="F110" s="11" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="G110" s="12" t="s">
-        <v>222</v>
+        <v>36</v>
       </c>
       <c r="H110" s="1"/>
       <c r="I110" s="12"/>
@@ -9209,7 +9214,7 @@
       <c r="L110" s="1"/>
       <c r="M110" s="1"/>
     </row>
-    <row r="111" spans="2:13" ht="93.75" x14ac:dyDescent="0.4">
+    <row r="111" spans="2:13" ht="56.25" x14ac:dyDescent="0.4">
       <c r="B111" s="1">
         <v>109</v>
       </c>
@@ -9223,10 +9228,10 @@
         <v>96</v>
       </c>
       <c r="F111" s="11" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="G111" s="12" t="s">
-        <v>222</v>
+        <v>36</v>
       </c>
       <c r="H111" s="1"/>
       <c r="I111" s="12"/>
@@ -9235,7 +9240,7 @@
       <c r="L111" s="1"/>
       <c r="M111" s="1"/>
     </row>
-    <row r="112" spans="2:13" ht="56.25" x14ac:dyDescent="0.4">
+    <row r="112" spans="2:13" ht="75" x14ac:dyDescent="0.4">
       <c r="B112" s="1">
         <v>110</v>
       </c>
@@ -9249,10 +9254,10 @@
         <v>96</v>
       </c>
       <c r="F112" s="11" t="s">
-        <v>242</v>
+        <v>237</v>
       </c>
       <c r="G112" s="12" t="s">
-        <v>222</v>
+        <v>36</v>
       </c>
       <c r="H112" s="1"/>
       <c r="I112" s="12"/>
@@ -9261,7 +9266,7 @@
       <c r="L112" s="1"/>
       <c r="M112" s="1"/>
     </row>
-    <row r="113" spans="2:13" ht="75" x14ac:dyDescent="0.4">
+    <row r="113" spans="2:13" ht="93.75" x14ac:dyDescent="0.4">
       <c r="B113" s="1">
         <v>111</v>
       </c>
@@ -9275,10 +9280,10 @@
         <v>96</v>
       </c>
       <c r="F113" s="11" t="s">
-        <v>243</v>
+        <v>238</v>
       </c>
       <c r="G113" s="12" t="s">
-        <v>222</v>
+        <v>36</v>
       </c>
       <c r="H113" s="1"/>
       <c r="I113" s="12"/>
@@ -9287,7 +9292,7 @@
       <c r="L113" s="1"/>
       <c r="M113" s="1"/>
     </row>
-    <row r="114" spans="2:13" ht="112.5" x14ac:dyDescent="0.4">
+    <row r="114" spans="2:13" ht="150" x14ac:dyDescent="0.4">
       <c r="B114" s="1">
         <v>112</v>
       </c>
@@ -9301,10 +9306,10 @@
         <v>96</v>
       </c>
       <c r="F114" s="11" t="s">
-        <v>246</v>
+        <v>239</v>
       </c>
       <c r="G114" s="12" t="s">
-        <v>222</v>
+        <v>36</v>
       </c>
       <c r="H114" s="1"/>
       <c r="I114" s="12"/>
@@ -9313,7 +9318,7 @@
       <c r="L114" s="1"/>
       <c r="M114" s="1"/>
     </row>
-    <row r="115" spans="2:13" ht="187.5" x14ac:dyDescent="0.4">
+    <row r="115" spans="2:13" ht="75" x14ac:dyDescent="0.4">
       <c r="B115" s="1">
         <v>113</v>
       </c>
@@ -9327,10 +9332,10 @@
         <v>96</v>
       </c>
       <c r="F115" s="11" t="s">
-        <v>247</v>
+        <v>240</v>
       </c>
       <c r="G115" s="12" t="s">
-        <v>222</v>
+        <v>36</v>
       </c>
       <c r="H115" s="1"/>
       <c r="I115" s="12"/>
@@ -9339,7 +9344,7 @@
       <c r="L115" s="1"/>
       <c r="M115" s="1"/>
     </row>
-    <row r="116" spans="2:13" ht="75" x14ac:dyDescent="0.4">
+    <row r="116" spans="2:13" ht="131.25" x14ac:dyDescent="0.4">
       <c r="B116" s="1">
         <v>114</v>
       </c>
@@ -9353,10 +9358,10 @@
         <v>96</v>
       </c>
       <c r="F116" s="11" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="G116" s="12" t="s">
-        <v>222</v>
+        <v>36</v>
       </c>
       <c r="H116" s="1"/>
       <c r="I116" s="12"/>
@@ -9365,24 +9370,24 @@
       <c r="L116" s="1"/>
       <c r="M116" s="1"/>
     </row>
-    <row r="117" spans="2:13" ht="168.75" x14ac:dyDescent="0.4">
+    <row r="117" spans="2:13" ht="187.5" x14ac:dyDescent="0.4">
       <c r="B117" s="1">
         <v>115</v>
       </c>
       <c r="C117" s="16">
-        <v>44082</v>
+        <v>44083</v>
       </c>
       <c r="D117" s="17" t="s">
-        <v>28</v>
+        <v>52</v>
       </c>
       <c r="E117" s="17" t="s">
-        <v>96</v>
+        <v>242</v>
       </c>
       <c r="F117" s="11" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="G117" s="12" t="s">
-        <v>222</v>
+        <v>244</v>
       </c>
       <c r="H117" s="1"/>
       <c r="I117" s="12"/>
@@ -9391,15 +9396,25 @@
       <c r="L117" s="1"/>
       <c r="M117" s="1"/>
     </row>
-    <row r="118" spans="2:13" x14ac:dyDescent="0.4">
+    <row r="118" spans="2:13" ht="56.25" x14ac:dyDescent="0.4">
       <c r="B118" s="1">
         <v>116</v>
       </c>
-      <c r="C118" s="17"/>
-      <c r="D118" s="17"/>
-      <c r="E118" s="17"/>
-      <c r="F118" s="11"/>
-      <c r="G118" s="12"/>
+      <c r="C118" s="16">
+        <v>44083</v>
+      </c>
+      <c r="D118" s="17" t="s">
+        <v>245</v>
+      </c>
+      <c r="E118" s="17" t="s">
+        <v>246</v>
+      </c>
+      <c r="F118" s="11" t="s">
+        <v>247</v>
+      </c>
+      <c r="G118" s="12" t="s">
+        <v>250</v>
+      </c>
       <c r="H118" s="1"/>
       <c r="I118" s="12"/>
       <c r="J118" s="1"/>
@@ -9407,15 +9422,25 @@
       <c r="L118" s="1"/>
       <c r="M118" s="1"/>
     </row>
-    <row r="119" spans="2:13" x14ac:dyDescent="0.4">
+    <row r="119" spans="2:13" ht="56.25" x14ac:dyDescent="0.4">
       <c r="B119" s="1">
         <v>117</v>
       </c>
-      <c r="C119" s="17"/>
-      <c r="D119" s="17"/>
-      <c r="E119" s="17"/>
-      <c r="F119" s="11"/>
-      <c r="G119" s="12"/>
+      <c r="C119" s="16">
+        <v>44083</v>
+      </c>
+      <c r="D119" s="17" t="s">
+        <v>245</v>
+      </c>
+      <c r="E119" s="17" t="s">
+        <v>248</v>
+      </c>
+      <c r="F119" s="11" t="s">
+        <v>249</v>
+      </c>
+      <c r="G119" s="12" t="s">
+        <v>250</v>
+      </c>
       <c r="H119" s="1"/>
       <c r="I119" s="12"/>
       <c r="J119" s="1"/>
@@ -9615,26 +9640,10 @@
       <c r="L131" s="1"/>
       <c r="M131" s="1"/>
     </row>
-    <row r="132" spans="2:13" x14ac:dyDescent="0.4">
-      <c r="B132" s="1">
-        <v>130</v>
-      </c>
-      <c r="C132" s="17"/>
-      <c r="D132" s="17"/>
-      <c r="E132" s="17"/>
-      <c r="F132" s="11"/>
-      <c r="G132" s="12"/>
-      <c r="H132" s="1"/>
-      <c r="I132" s="12"/>
-      <c r="J132" s="1"/>
-      <c r="K132" s="1"/>
-      <c r="L132" s="1"/>
-      <c r="M132" s="1"/>
-    </row>
   </sheetData>
-  <autoFilter ref="B2:M60" xr:uid="{00000000-0009-0000-0000-000001000000}"/>
+  <autoFilter ref="B2:M59" xr:uid="{00000000-0009-0000-0000-000001000000}"/>
   <phoneticPr fontId="1"/>
-  <conditionalFormatting sqref="B3:M40 M41 I43:M50 I41:J42 B41:H50 B51:M132">
+  <conditionalFormatting sqref="B3:M40 M41 I43:M50 I41:J42 B41:H50 B51:M131">
     <cfRule type="expression" dxfId="2" priority="6">
       <formula>AND($I3 &lt;&gt; "")</formula>
     </cfRule>
@@ -9655,6 +9664,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x010100AC3CE858FB295540B5DE7630D250C364" ma:contentTypeVersion="6" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="d1b51e41a82ef2929feb227f42bcce47">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="b0bce737-b0aa-42b7-a1df-335df910e9b2" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="8eac2d54d99ca51f902e3590e4374505" ns2:_="">
     <xsd:import namespace="b0bce737-b0aa-42b7-a1df-335df910e9b2"/>
@@ -9812,22 +9836,24 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BFD1A9C8-A29C-40FA-83F1-A4A8E6C433BB}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F29D5C17-BBB1-4018-A557-AAEBE59183A8}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BA50F61E-C53D-4A07-A314-70616507FBE9}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -9843,21 +9869,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BFD1A9C8-A29C-40FA-83F1-A4A8E6C433BB}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F29D5C17-BBB1-4018-A557-AAEBE59183A8}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>